--- a/src/attributions/attributions_saliency_traj_406.xlsx
+++ b/src/attributions/attributions_saliency_traj_406.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.352088467385329e-09</v>
+        <v>0.001933500869199634</v>
       </c>
       <c r="B4" t="n">
-        <v>1.457417653227822e-08</v>
+        <v>0.0121437581256032</v>
       </c>
       <c r="C4" t="n">
-        <v>1.319100295660292e-08</v>
+        <v>0.001563054509460926</v>
       </c>
       <c r="D4" t="n">
-        <v>7.966384885094158e-09</v>
+        <v>0.003947262186557055</v>
       </c>
       <c r="E4" t="n">
-        <v>8.079352298295817e-09</v>
+        <v>0.0008137916447594762</v>
       </c>
       <c r="F4" t="n">
-        <v>1.662408877223243e-08</v>
+        <v>0.01311733201146126</v>
       </c>
       <c r="G4" t="n">
-        <v>9.22708132122807e-09</v>
+        <v>0.0006663351086899638</v>
       </c>
       <c r="H4" t="n">
-        <v>3.100425693958186e-09</v>
+        <v>0.0004580558161251247</v>
       </c>
       <c r="I4" t="n">
-        <v>4.526247376901438e-09</v>
+        <v>0.0001143586996477097</v>
       </c>
       <c r="J4" t="n">
-        <v>9.291150071533139e-09</v>
+        <v>0.004066075198352337</v>
       </c>
       <c r="K4" t="n">
-        <v>2.055920589327798e-08</v>
+        <v>0.009003434330224991</v>
       </c>
       <c r="L4" t="n">
-        <v>1.821017292513716e-08</v>
+        <v>0.0007107350393198431</v>
       </c>
       <c r="M4" t="n">
-        <v>7.694159087634489e-09</v>
+        <v>0.003360959701240063</v>
       </c>
       <c r="N4" t="n">
-        <v>2.964407208594366e-08</v>
+        <v>0.0006353622302412987</v>
       </c>
       <c r="O4" t="n">
-        <v>3.343500365460272e-09</v>
+        <v>0.009728273376822472</v>
       </c>
       <c r="P4" t="n">
-        <v>3.722923747062623e-09</v>
+        <v>0.0001717007253319025</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.953651640462795e-08</v>
+        <v>0.001810992602258921</v>
       </c>
       <c r="R4" t="n">
-        <v>8.777822912975353e-09</v>
+        <v>0.001270586159080267</v>
       </c>
       <c r="S4" t="n">
-        <v>2.126474107910781e-09</v>
+        <v>0.0004220464325044304</v>
       </c>
       <c r="T4" t="n">
-        <v>1.633666313338722e-09</v>
+        <v>0.001314171822741628</v>
       </c>
       <c r="U4" t="n">
-        <v>6.548932063310531e-09</v>
+        <v>0.0008262175833806396</v>
       </c>
       <c r="V4" t="n">
-        <v>2.933947085281829e-09</v>
+        <v>0.001531231449916959</v>
       </c>
       <c r="W4" t="n">
-        <v>1.580220221342188e-08</v>
+        <v>0.004239328671246767</v>
       </c>
       <c r="X4" t="n">
-        <v>1.49089673939784e-09</v>
+        <v>0.0009198036277666688</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.968608914244442e-09</v>
+        <v>0.001206601737067103</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.33689908827273e-09</v>
+        <v>0.001462883781641722</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.516953116568857e-09</v>
+        <v>0.0001465161330997944</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.424161842957574e-09</v>
+        <v>0.0007239601109176874</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.218048298478607e-11</v>
+        <v>3.80537094315514e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.348007370287178e-09</v>
+        <v>0.001171156531199813</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.738719251382804e-09</v>
+        <v>0.001703869318589568</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.652586156808411e-08</v>
+        <v>0.002525632036849856</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.943550262012877e-10</v>
+        <v>0.0009908408392220736</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.067561398812813e-09</v>
+        <v>0.000773691397625953</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.404589860560691e-10</v>
+        <v>0.000270762131549418</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.837564540760013e-09</v>
+        <v>0.0005152543308213353</v>
       </c>
       <c r="AK4" t="n">
-        <v>7.885882502556285e-10</v>
+        <v>0.0002871450560633093</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.6500273610568e-09</v>
+        <v>0.0006653856253251433</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.726081360648891e-09</v>
+        <v>0.001690943841822445</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.494693435688532e-08</v>
+        <v>0.001512129791080952</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.026539739994007e-10</v>
+        <v>0.0004735307884402573</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.948821631321152e-09</v>
+        <v>0.002652952447533607</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.199338210497672e-09</v>
+        <v>0.001387369004078209</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.071640578144468e-10</v>
+        <v>0.001176221296191216</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.323129383834498e-09</v>
+        <v>0.002918095327913761</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.049128250940612e-08</v>
+        <v>0.0005091011407785118</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.02756681946903e-08</v>
+        <v>0.004550003912299871</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.039956896268905e-09</v>
+        <v>0.003263306804001331</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.945470984310305e-08</v>
+        <v>0.001470861956477165</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.142051241411536e-08</v>
+        <v>0.0004496946930885315</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.209028788196065e-08</v>
+        <v>0.004848449025303125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.929563619995633e-09</v>
+        <v>0.003457393730059266</v>
       </c>
       <c r="BA4" t="n">
-        <v>3.05167913161597e-09</v>
+        <v>0.002032236661761999</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.631167671576009e-10</v>
+        <v>0.005518716294318438</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.608566613242601e-10</v>
+        <v>0.003807293716818094</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.748779478651159e-12</v>
+        <v>0.001904801349155605</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.180715386046472e-09</v>
+        <v>0.001285966602154076</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.42862818744527e-09</v>
+        <v>0.0006067198701202869</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.032935242368694e-08</v>
+        <v>0.002498139161616564</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.083101608401194e-08</v>
+        <v>0.004741399083286524</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.028411578118948e-08</v>
+        <v>0.003793524112552404</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4.556615529338615e-09</v>
+        <v>0.0007792288670316339</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.972417227440019e-09</v>
+        <v>0.001796161406673491</v>
       </c>
       <c r="BL4" t="n">
-        <v>8.292273534493688e-09</v>
+        <v>7.329834625124931e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.629876900111071e-09</v>
+        <v>0.0001007564205792733</v>
       </c>
       <c r="BN4" t="n">
-        <v>9.793987842954266e-09</v>
+        <v>0.0002502691349945962</v>
       </c>
       <c r="BO4" t="n">
-        <v>7.549775915549617e-09</v>
+        <v>0.0006457462441176176</v>
       </c>
       <c r="BP4" t="n">
-        <v>8.542700768998657e-09</v>
+        <v>0.003621689276769757</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.552740907546536e-09</v>
+        <v>0.0005527695175260305</v>
       </c>
       <c r="BR4" t="n">
-        <v>7.15812431550944e-09</v>
+        <v>0.001249205553904176</v>
       </c>
       <c r="BS4" t="n">
-        <v>7.607383167851367e-09</v>
+        <v>0.0005364438402466476</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.642600831023969e-10</v>
+        <v>0.001538660377264023</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.435188856646619e-09</v>
+        <v>0.000777867273427546</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.718531095207254e-09</v>
+        <v>0.003171122167259455</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.10235062481479e-09</v>
+        <v>0.001361045869998634</v>
       </c>
       <c r="BX4" t="n">
-        <v>7.129794976634685e-09</v>
+        <v>0.0008049097377806902</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.556679340986022e-09</v>
+        <v>0.00228415010496974</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.331344012811542e-08</v>
+        <v>0.0001470901188440621</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.170456259165121e-09</v>
+        <v>0.001275198999792337</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.84204285158529e-09</v>
+        <v>5.988591874483973e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>9.542430179365624e-10</v>
+        <v>0.002389666624367237</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.451054026408883e-09</v>
+        <v>0.0004806956276297569</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.544020105688105e-09</v>
+        <v>0.001603334327228367</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.027856187998168e-09</v>
+        <v>0.001178249483928084</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.982571605831708e-09</v>
+        <v>0.0009790000040084124</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.23547494457199e-09</v>
+        <v>0.0009202992077916861</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.000374560966577e-09</v>
+        <v>0.002199590904638171</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.165108092810897e-09</v>
+        <v>0.0008968575857579708</v>
       </c>
       <c r="CK4" t="n">
-        <v>5.047095519294942e-10</v>
+        <v>0.0003086064825765789</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.235160195291797e-10</v>
+        <v>0.001716571161523461</v>
       </c>
       <c r="CM4" t="n">
-        <v>5.111459255857653e-09</v>
+        <v>0.001580981886945665</v>
       </c>
       <c r="CN4" t="n">
-        <v>5.554602999779945e-09</v>
+        <v>0.002905781380832195</v>
       </c>
       <c r="CO4" t="n">
-        <v>6.905496618969664e-09</v>
+        <v>0.001540560857392848</v>
       </c>
       <c r="CP4" t="n">
-        <v>5.113843570825338e-09</v>
+        <v>0.00166629662271589</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.185853282237304e-08</v>
+        <v>0.000584126973990351</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.368197860036503e-09</v>
+        <v>0.0002981266006827354</v>
       </c>
       <c r="CS4" t="n">
-        <v>4.442669343518446e-09</v>
+        <v>0.001158563420176506</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.054346654427718e-08</v>
+        <v>0.0006828588084317744</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.808152904127837e-09</v>
+        <v>0.001493709627538919</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.411928739538439e-09</v>
+        <v>0.0002770591818261892</v>
       </c>
       <c r="CW4" t="n">
-        <v>7.194806972421475e-10</v>
+        <v>0.001910697785206139</v>
       </c>
       <c r="CX4" t="n">
-        <v>4.271502263009097e-09</v>
+        <v>0.0008639152511022985</v>
       </c>
       <c r="CY4" t="n">
-        <v>3.693769290435966e-09</v>
+        <v>0.001198393758386374</v>
       </c>
       <c r="CZ4" t="n">
-        <v>5.376046274818691e-10</v>
+        <v>0.001246845233254135</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.005525218644721e-09</v>
+        <v>0.002332312520593405</v>
       </c>
       <c r="DB4" t="n">
-        <v>7.418184955199081e-10</v>
+        <v>0.0003927204816136509</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.926011350406043e-09</v>
+        <v>0.0003406168543733656</v>
       </c>
       <c r="DD4" t="n">
-        <v>6.120760565053729e-10</v>
+        <v>0.001722937333397567</v>
       </c>
       <c r="DE4" t="n">
-        <v>4.677077392045703e-09</v>
+        <v>0.001245501101948321</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.71023799566683e-08</v>
+        <v>2.451182808727026e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.867016941048405e-08</v>
+        <v>0.0004340670420788229</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.597725862723109e-08</v>
+        <v>0.003038076218217611</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.554478146204019e-08</v>
+        <v>0.002284939168021083</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.385776909363813e-09</v>
+        <v>0.005384382791817188</v>
       </c>
       <c r="DK4" t="n">
-        <v>5.668873703790211e-10</v>
+        <v>0.001324106939136982</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.743970606289281e-09</v>
+        <v>0.001299469382502139</v>
       </c>
       <c r="DM4" t="n">
-        <v>6.476151170886624e-09</v>
+        <v>0.005597312469035387</v>
       </c>
       <c r="DN4" t="n">
-        <v>5.747680997814086e-09</v>
+        <v>0.001176803139969707</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.197164811728157e-09</v>
+        <v>0.0006160518387332559</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.180532827049774e-08</v>
+        <v>0.0003483947075437754</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.721146502044803e-09</v>
+        <v>0.001387009397149086</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.854308351312284e-08</v>
+        <v>0.0007786048809066415</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.39874725135769e-08</v>
+        <v>0.0003943212796002626</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.611748373126943e-09</v>
+        <v>0.0007955115288496017</v>
       </c>
       <c r="DU4" t="n">
-        <v>7.506536725543356e-09</v>
+        <v>0.0006220215000212193</v>
       </c>
       <c r="DV4" t="n">
-        <v>2.16261186736233e-09</v>
+        <v>0.0002135928370989859</v>
       </c>
       <c r="DW4" t="n">
-        <v>7.099316690073465e-10</v>
+        <v>0.001193274278193712</v>
       </c>
       <c r="DX4" t="n">
-        <v>3.976308615705193e-09</v>
+        <v>0.0001953759929165244</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.874486509403141e-09</v>
+        <v>0.0005116671090945601</v>
       </c>
       <c r="DZ4" t="n">
-        <v>6.820746190072668e-09</v>
+        <v>0.001817510463297367</v>
       </c>
       <c r="EA4" t="n">
-        <v>5.595031549177065e-09</v>
+        <v>2.820869849529117e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.786167490638093e-10</v>
+        <v>0.0005513933720067143</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.763748480598792e-09</v>
+        <v>0.0009200548520311713</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.498753121609298e-09</v>
+        <v>0.0009222732624039054</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.100910556634972e-09</v>
+        <v>0.001475130440667272</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.314737373472099e-10</v>
+        <v>0.000424750498495996</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.873650345984856e-09</v>
+        <v>0.001641942653805017</v>
       </c>
       <c r="EH4" t="n">
-        <v>3.858450003946245e-09</v>
+        <v>0.0005547618493437767</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.113339731517726e-08</v>
+        <v>0.001229396322742105</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.114423575643286e-08</v>
+        <v>0.0008846851997077465</v>
       </c>
       <c r="EK4" t="n">
-        <v>3.42014416787606e-09</v>
+        <v>0.0001420549233444035</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.462820170023861e-09</v>
+        <v>0.001636311295442283</v>
       </c>
       <c r="EM4" t="n">
-        <v>3.589357699951279e-09</v>
+        <v>0.000166466023074463</v>
       </c>
       <c r="EN4" t="n">
-        <v>3.17084714041016e-09</v>
+        <v>0.0005428299773484468</v>
       </c>
       <c r="EO4" t="n">
-        <v>5.78664938188922e-09</v>
+        <v>0.0005977250402793288</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.037052399510685e-08</v>
+        <v>0.0008919329266063869</v>
       </c>
       <c r="EQ4" t="n">
-        <v>6.385622697280269e-09</v>
+        <v>0.00012823028373532</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.393435589136516e-09</v>
+        <v>0.001538764918223023</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.171435748403837e-08</v>
+        <v>0.002744713332504034</v>
       </c>
       <c r="ET4" t="n">
-        <v>3.458579644899373e-09</v>
+        <v>0.004810320679098368</v>
       </c>
       <c r="EU4" t="n">
-        <v>7.360795972743972e-09</v>
+        <v>0.001535142306238413</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.138206329187597e-08</v>
+        <v>0.001225134241394699</v>
       </c>
       <c r="EW4" t="n">
-        <v>2.657752240509126e-09</v>
+        <v>0.002297400962561369</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.712612801047953e-09</v>
+        <v>0.0002640088787302375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.015826534001008e-09</v>
+        <v>0.001940917340107262</v>
       </c>
       <c r="EZ4" t="n">
-        <v>4.829922239935058e-09</v>
+        <v>0.000298628699965775</v>
       </c>
       <c r="FA4" t="n">
-        <v>3.591070552033671e-09</v>
+        <v>0.0008589259814471006</v>
       </c>
       <c r="FB4" t="n">
-        <v>3.29998833814571e-10</v>
+        <v>0.001572207780554891</v>
       </c>
       <c r="FC4" t="n">
-        <v>7.544129765335583e-10</v>
+        <v>0.001686056610196829</v>
       </c>
       <c r="FD4" t="n">
-        <v>2.096864348821725e-10</v>
+        <v>0.001295282854698598</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.618317784808255e-10</v>
+        <v>0.0005195075063966215</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.15575038428517e-09</v>
+        <v>0.002352509647607803</v>
       </c>
       <c r="FG4" t="n">
-        <v>7.92479504241328e-09</v>
+        <v>0.001129660755395889</v>
       </c>
       <c r="FH4" t="n">
-        <v>2.344580973812072e-09</v>
+        <v>0.001343815354630351</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.061166653495206e-09</v>
+        <v>0.0005134657840244472</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.009360062198539e-08</v>
+        <v>0.002688303356990218</v>
       </c>
       <c r="FK4" t="n">
-        <v>6.888501768997912e-09</v>
+        <v>0.0003854667593259364</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.017916417822562e-08</v>
+        <v>0.001295232214033604</v>
       </c>
       <c r="FM4" t="n">
-        <v>2.057320980242139e-09</v>
+        <v>7.803429616615176e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.233009783163652e-08</v>
+        <v>0.0008856490021571517</v>
       </c>
       <c r="FO4" t="n">
-        <v>6.972372457170195e-09</v>
+        <v>0.001413339050486684</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.166595264834314e-09</v>
+        <v>0.0004973222967237234</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.677487564994863e-09</v>
+        <v>0.001688032643869519</v>
       </c>
       <c r="FR4" t="n">
-        <v>4.214989690609627e-09</v>
+        <v>0.000675459741614759</v>
       </c>
       <c r="FS4" t="n">
-        <v>3.1361064856128e-09</v>
+        <v>0.0005422241520136595</v>
       </c>
       <c r="FT4" t="n">
-        <v>2.28042686956087e-08</v>
+        <v>0.003237760625779629</v>
       </c>
       <c r="FU4" t="n">
-        <v>7.4933739213634e-09</v>
+        <v>0.004470379091799259</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.237120127508319e-09</v>
+        <v>0.001042242627590895</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.250726366919253e-08</v>
+        <v>0.0002091119531542063</v>
       </c>
       <c r="FX4" t="n">
-        <v>5.561329174952334e-09</v>
+        <v>0.001409598742611706</v>
       </c>
       <c r="FY4" t="n">
-        <v>2.739617421809726e-09</v>
+        <v>0.001948586781509221</v>
       </c>
       <c r="FZ4" t="n">
-        <v>8.168363763161324e-09</v>
+        <v>0.0008943101856857538</v>
       </c>
       <c r="GA4" t="n">
-        <v>3.890114008697765e-09</v>
+        <v>0.000870949006639421</v>
       </c>
       <c r="GB4" t="n">
-        <v>4.642912276864308e-09</v>
+        <v>0.001955525483936071</v>
       </c>
       <c r="GC4" t="n">
-        <v>3.144421389933427e-09</v>
+        <v>0.003261669538915157</v>
       </c>
       <c r="GD4" t="n">
-        <v>5.044284101529684e-09</v>
+        <v>0.0004923443193547428</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.146284622777216e-09</v>
+        <v>0.001749095506966114</v>
       </c>
       <c r="GF4" t="n">
-        <v>2.969564372179434e-09</v>
+        <v>0.001004819525405765</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.414263373078484e-09</v>
+        <v>0.0008146419422701001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.064876068492595e-07</v>
+        <v>0.01002031471580267</v>
       </c>
       <c r="B5" t="n">
-        <v>1.339895220553444e-06</v>
+        <v>0.03351284936070442</v>
       </c>
       <c r="C5" t="n">
-        <v>5.301445185068587e-07</v>
+        <v>0.002905758330598474</v>
       </c>
       <c r="D5" t="n">
-        <v>4.363757398095913e-06</v>
+        <v>0.01423442177474499</v>
       </c>
       <c r="E5" t="n">
-        <v>1.413077143297414e-06</v>
+        <v>0.01246771402657032</v>
       </c>
       <c r="F5" t="n">
-        <v>3.046404515316681e-07</v>
+        <v>0.00893864594399929</v>
       </c>
       <c r="G5" t="n">
-        <v>6.294205832091393e-07</v>
+        <v>0.0005316099850460887</v>
       </c>
       <c r="H5" t="n">
-        <v>1.058978682522138e-06</v>
+        <v>0.002981230616569519</v>
       </c>
       <c r="I5" t="n">
-        <v>8.80189361396333e-07</v>
+        <v>0.00619307067245245</v>
       </c>
       <c r="J5" t="n">
-        <v>6.45537056698231e-07</v>
+        <v>0.01023528538644314</v>
       </c>
       <c r="K5" t="n">
-        <v>1.066511231329059e-06</v>
+        <v>0.0249107088893652</v>
       </c>
       <c r="L5" t="n">
-        <v>2.007682269322686e-07</v>
+        <v>0.0005489314207807183</v>
       </c>
       <c r="M5" t="n">
-        <v>3.557058789738221e-06</v>
+        <v>0.01626911014318466</v>
       </c>
       <c r="N5" t="n">
-        <v>2.906816689574043e-07</v>
+        <v>0.01959200948476791</v>
       </c>
       <c r="O5" t="n">
-        <v>1.984469918170362e-06</v>
+        <v>0.01354334875941277</v>
       </c>
       <c r="P5" t="n">
-        <v>3.933933498956321e-07</v>
+        <v>0.001503556966781616</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.666496586949506e-06</v>
+        <v>0.0006630944553762674</v>
       </c>
       <c r="R5" t="n">
-        <v>2.132292991063878e-07</v>
+        <v>0.006951282732188702</v>
       </c>
       <c r="S5" t="n">
-        <v>3.62612070148316e-07</v>
+        <v>0.0003207237459719181</v>
       </c>
       <c r="T5" t="n">
-        <v>1.377414093894913e-07</v>
+        <v>0.002477486385032535</v>
       </c>
       <c r="U5" t="n">
-        <v>5.806187459711509e-07</v>
+        <v>0.001470438088290393</v>
       </c>
       <c r="V5" t="n">
-        <v>4.406882965213299e-07</v>
+        <v>0.002147695515304804</v>
       </c>
       <c r="W5" t="n">
-        <v>2.025091134782997e-06</v>
+        <v>0.007135048508644104</v>
       </c>
       <c r="X5" t="n">
-        <v>8.014137620193651e-08</v>
+        <v>0.000815198291093111</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.060068476974266e-07</v>
+        <v>0.005682711489498615</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.360092814044037e-08</v>
+        <v>0.001679986366070807</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.120335006518872e-08</v>
+        <v>0.003691526362672448</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.546760111334152e-07</v>
+        <v>0.004750910215079784</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.974190920213005e-07</v>
+        <v>0.005255234893411398</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.983911819384957e-07</v>
+        <v>0.0003295114147476852</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.920968876831466e-07</v>
+        <v>0.00206784438341856</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.62945887800015e-07</v>
+        <v>0.007808451540768147</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.348417129065638e-07</v>
+        <v>0.004484928213059902</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.477078843796335e-07</v>
+        <v>0.003258434124290943</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.756550543381309e-07</v>
+        <v>0.001188880763947964</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.021274430167978e-07</v>
+        <v>0.0004407758242450655</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.483351739916543e-07</v>
+        <v>0.0004731870139949024</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.020850781216723e-07</v>
+        <v>0.003631425090134144</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.513146620865882e-07</v>
+        <v>3.03040178550873e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.086011366169259e-06</v>
+        <v>0.001468490809202194</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.999237148695101e-07</v>
+        <v>0.004345593973994255</v>
       </c>
       <c r="AP5" t="n">
-        <v>4.160223738836066e-07</v>
+        <v>0.004784356337040663</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.757518219847043e-08</v>
+        <v>0.003063912503421307</v>
       </c>
       <c r="AR5" t="n">
-        <v>9.661514610570521e-08</v>
+        <v>0.004235987085849047</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.199295240894571e-07</v>
+        <v>0.003173090284690261</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.240968737827643e-07</v>
+        <v>0.001260075950995088</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.565380772372009e-07</v>
+        <v>0.02030766569077969</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.780498781859933e-07</v>
+        <v>0.001007137470878661</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.338651938771363e-06</v>
+        <v>0.004432524554431438</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.309412027694634e-06</v>
+        <v>0.003317815717309713</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.923572057194178e-07</v>
+        <v>0.006671127863228321</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7.937766213217401e-07</v>
+        <v>0.0091018071398139</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.631922815358848e-07</v>
+        <v>0.007835415191948414</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.454877569060045e-07</v>
+        <v>0.0005856407806277275</v>
       </c>
       <c r="BC5" t="n">
-        <v>8.513424063494313e-07</v>
+        <v>0.0004198136739432812</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.030837317259284e-07</v>
+        <v>0.007246105931699276</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.16038046119138e-07</v>
+        <v>0.007039925549179316</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.55706356963492e-06</v>
+        <v>0.001252347370609641</v>
       </c>
       <c r="BG5" t="n">
-        <v>9.974239674193086e-07</v>
+        <v>0.01443800516426563</v>
       </c>
       <c r="BH5" t="n">
-        <v>3.250919462516322e-07</v>
+        <v>0.006146852858364582</v>
       </c>
       <c r="BI5" t="n">
-        <v>5.423279958449712e-07</v>
+        <v>0.005876594688743353</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.763434340773529e-07</v>
+        <v>0.002595547121018171</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.209551865917092e-07</v>
+        <v>0.007212919648736715</v>
       </c>
       <c r="BL5" t="n">
-        <v>9.75862917584891e-07</v>
+        <v>0.001919939881190658</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.242174446109857e-07</v>
+        <v>0.001651159022003412</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.541231142709876e-07</v>
+        <v>0.003718716558068991</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.54192315196633e-07</v>
+        <v>0.004365505650639534</v>
       </c>
       <c r="BP5" t="n">
-        <v>3.687247840389318e-08</v>
+        <v>0.003216699697077274</v>
       </c>
       <c r="BQ5" t="n">
-        <v>7.013618414930534e-07</v>
+        <v>0.002640165854245424</v>
       </c>
       <c r="BR5" t="n">
-        <v>4.888273963388201e-08</v>
+        <v>0.003476834390312433</v>
       </c>
       <c r="BS5" t="n">
-        <v>5.312526809575502e-07</v>
+        <v>0.001104662660509348</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.022825012521935e-07</v>
+        <v>0.00184880499728024</v>
       </c>
       <c r="BU5" t="n">
-        <v>6.417618010345905e-07</v>
+        <v>1.362292096018791e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>4.67166472617464e-07</v>
+        <v>0.01057400275021791</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.182467196438665e-07</v>
+        <v>0.003233044408261776</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.196032255596947e-06</v>
+        <v>0.005280195735394955</v>
       </c>
       <c r="BY5" t="n">
-        <v>4.749187496599916e-07</v>
+        <v>0.004450939130038023</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.985891344702395e-07</v>
+        <v>2.809892248478718e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>2.534943348564411e-07</v>
+        <v>0.003500635735690594</v>
       </c>
       <c r="CB5" t="n">
-        <v>3.840447675429459e-07</v>
+        <v>0.006112292874604464</v>
       </c>
       <c r="CC5" t="n">
-        <v>9.75354055299249e-07</v>
+        <v>0.003543478203937411</v>
       </c>
       <c r="CD5" t="n">
-        <v>6.955960998311639e-07</v>
+        <v>0.001751992851495743</v>
       </c>
       <c r="CE5" t="n">
-        <v>3.668410499813035e-07</v>
+        <v>0.005721278954297304</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.415138133926575e-08</v>
+        <v>0.00269233575090766</v>
       </c>
       <c r="CG5" t="n">
-        <v>9.522043455945095e-07</v>
+        <v>0.002432993613183498</v>
       </c>
       <c r="CH5" t="n">
-        <v>8.168672138708644e-08</v>
+        <v>0.001216288888826966</v>
       </c>
       <c r="CI5" t="n">
-        <v>2.26888118959323e-07</v>
+        <v>0.001019829651340842</v>
       </c>
       <c r="CJ5" t="n">
-        <v>6.566733645740896e-08</v>
+        <v>0.002079734113067389</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.867419996415265e-07</v>
+        <v>0.0008212203974835575</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.080838956113439e-07</v>
+        <v>0.0003693534526973963</v>
       </c>
       <c r="CM5" t="n">
-        <v>7.347189523443376e-08</v>
+        <v>0.006621191743761301</v>
       </c>
       <c r="CN5" t="n">
-        <v>3.562983863503177e-07</v>
+        <v>0.001849903725087643</v>
       </c>
       <c r="CO5" t="n">
-        <v>3.495455302982009e-08</v>
+        <v>0.000682282610796392</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.241697304976697e-06</v>
+        <v>0.00176281644962728</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.762355509526969e-06</v>
+        <v>0.009393889456987381</v>
       </c>
       <c r="CR5" t="n">
-        <v>9.98699988485896e-07</v>
+        <v>3.041932359337807e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.836678649169698e-07</v>
+        <v>0.006032145582139492</v>
       </c>
       <c r="CT5" t="n">
-        <v>7.046235594998507e-08</v>
+        <v>0.007135047577321529</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.274314792633959e-07</v>
+        <v>0.0003836680552922189</v>
       </c>
       <c r="CV5" t="n">
-        <v>6.819065561103343e-07</v>
+        <v>0.002154065296053886</v>
       </c>
       <c r="CW5" t="n">
-        <v>4.554632369035971e-07</v>
+        <v>0.004938811529427767</v>
       </c>
       <c r="CX5" t="n">
-        <v>6.679393749209339e-08</v>
+        <v>0.003279200987890363</v>
       </c>
       <c r="CY5" t="n">
-        <v>8.645952789265721e-07</v>
+        <v>0.002378038829192519</v>
       </c>
       <c r="CZ5" t="n">
-        <v>7.56209459495949e-08</v>
+        <v>0.001713126199319959</v>
       </c>
       <c r="DA5" t="n">
-        <v>3.354071509420464e-08</v>
+        <v>0.0006899292347952724</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.109344876544128e-08</v>
+        <v>0.002632114803418517</v>
       </c>
       <c r="DC5" t="n">
-        <v>8.678749452428747e-08</v>
+        <v>0.0003625838435254991</v>
       </c>
       <c r="DD5" t="n">
-        <v>2.390292763720936e-07</v>
+        <v>0.0007553681498393416</v>
       </c>
       <c r="DE5" t="n">
-        <v>1.031394162964716e-06</v>
+        <v>0.0003284002305008471</v>
       </c>
       <c r="DF5" t="n">
-        <v>6.384703965522931e-08</v>
+        <v>0.0008150287321768701</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.011014774121577e-07</v>
+        <v>0.00216122530400753</v>
       </c>
       <c r="DH5" t="n">
-        <v>6.484819436991529e-07</v>
+        <v>0.006949787959456444</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.226850940838631e-06</v>
+        <v>0.0008580487919971347</v>
       </c>
       <c r="DJ5" t="n">
-        <v>3.933418497581442e-07</v>
+        <v>0.001731515163555741</v>
       </c>
       <c r="DK5" t="n">
-        <v>4.823024823963351e-07</v>
+        <v>0.002659515012055635</v>
       </c>
       <c r="DL5" t="n">
-        <v>9.559159934724448e-07</v>
+        <v>0.00382938189432025</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.148923956861836e-06</v>
+        <v>0.0004435289883986115</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.430337815439998e-07</v>
+        <v>0.002324171364307404</v>
       </c>
       <c r="DO5" t="n">
-        <v>9.086068075703224e-07</v>
+        <v>0.004457294940948486</v>
       </c>
       <c r="DP5" t="n">
-        <v>3.538085024956672e-07</v>
+        <v>0.001967081567272544</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1.591702414316387e-07</v>
+        <v>0.002669396577402949</v>
       </c>
       <c r="DR5" t="n">
-        <v>2.030838572864013e-07</v>
+        <v>0.0005598963471129537</v>
       </c>
       <c r="DS5" t="n">
-        <v>9.667651283962186e-07</v>
+        <v>0.002725443104282022</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.82599990239396e-07</v>
+        <v>0.0005700676701962948</v>
       </c>
       <c r="DU5" t="n">
-        <v>3.112900799351337e-07</v>
+        <v>0.002490344224497676</v>
       </c>
       <c r="DV5" t="n">
-        <v>5.859935185981158e-07</v>
+        <v>0.002517409389838576</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.024489103609085e-08</v>
+        <v>0.001200810540467501</v>
       </c>
       <c r="DX5" t="n">
-        <v>7.257860943354899e-07</v>
+        <v>0.002507942961528897</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.522321184665998e-07</v>
+        <v>0.003168239491060376</v>
       </c>
       <c r="DZ5" t="n">
-        <v>9.349400897917803e-07</v>
+        <v>0.00321119069121778</v>
       </c>
       <c r="EA5" t="n">
-        <v>7.366708132394706e-08</v>
+        <v>0.003850651439279318</v>
       </c>
       <c r="EB5" t="n">
-        <v>5.713430937248631e-07</v>
+        <v>0.00247721909545362</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.275009395840243e-07</v>
+        <v>0.0007948047714307904</v>
       </c>
       <c r="ED5" t="n">
-        <v>1.434447369774716e-07</v>
+        <v>0.00622475054115057</v>
       </c>
       <c r="EE5" t="n">
-        <v>3.811023816524539e-07</v>
+        <v>0.000320213584927842</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.374508992237679e-07</v>
+        <v>0.002562984358519316</v>
       </c>
       <c r="EG5" t="n">
-        <v>1.950141239603909e-07</v>
+        <v>0.002816115971654654</v>
       </c>
       <c r="EH5" t="n">
-        <v>6.31647196769336e-08</v>
+        <v>0.002319614170119166</v>
       </c>
       <c r="EI5" t="n">
-        <v>1.223348021994752e-06</v>
+        <v>0.000522912829183042</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9.873505177893094e-07</v>
+        <v>0.004249795340001583</v>
       </c>
       <c r="EK5" t="n">
-        <v>4.183036992344569e-07</v>
+        <v>0.0007888915133662522</v>
       </c>
       <c r="EL5" t="n">
-        <v>9.248914523141138e-09</v>
+        <v>0.003321003401651978</v>
       </c>
       <c r="EM5" t="n">
-        <v>2.053140946145504e-07</v>
+        <v>0.0009530609822832048</v>
       </c>
       <c r="EN5" t="n">
-        <v>5.780877359029546e-07</v>
+        <v>0.0002048518799711019</v>
       </c>
       <c r="EO5" t="n">
-        <v>1.184331608783395e-06</v>
+        <v>0.001595842069946229</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.393317117821425e-07</v>
+        <v>0.005930490791797638</v>
       </c>
       <c r="EQ5" t="n">
-        <v>4.319325626056525e-07</v>
+        <v>0.002878618892282248</v>
       </c>
       <c r="ER5" t="n">
-        <v>3.463295570327318e-07</v>
+        <v>0.003096852684393525</v>
       </c>
       <c r="ES5" t="n">
-        <v>6.021521130605834e-07</v>
+        <v>0.005731455981731415</v>
       </c>
       <c r="ET5" t="n">
-        <v>2.752413763573713e-07</v>
+        <v>0.007334918715059757</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.206577735501924e-07</v>
+        <v>0.004985871724784374</v>
       </c>
       <c r="EV5" t="n">
-        <v>6.844834956609702e-07</v>
+        <v>0.005134608130902052</v>
       </c>
       <c r="EW5" t="n">
-        <v>4.5222421363178e-07</v>
+        <v>0.001418197527527809</v>
       </c>
       <c r="EX5" t="n">
-        <v>5.077426976640709e-07</v>
+        <v>0.001137927058152854</v>
       </c>
       <c r="EY5" t="n">
-        <v>2.685762865439756e-07</v>
+        <v>0.004495388828217983</v>
       </c>
       <c r="EZ5" t="n">
-        <v>3.930215086711542e-08</v>
+        <v>0.00210056989453733</v>
       </c>
       <c r="FA5" t="n">
-        <v>7.17826310392411e-07</v>
+        <v>0.002770221792161465</v>
       </c>
       <c r="FB5" t="n">
-        <v>7.622226405601396e-08</v>
+        <v>0.002016307786107063</v>
       </c>
       <c r="FC5" t="n">
-        <v>9.881529194899485e-08</v>
+        <v>0.001810337067581713</v>
       </c>
       <c r="FD5" t="n">
-        <v>4.671846909332089e-09</v>
+        <v>0.002950435504317284</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.204528530251991e-07</v>
+        <v>0.001013552537187934</v>
       </c>
       <c r="FF5" t="n">
-        <v>5.764158572674205e-08</v>
+        <v>0.001632108469493687</v>
       </c>
       <c r="FG5" t="n">
-        <v>3.701726711824449e-07</v>
+        <v>0.0003856768016703427</v>
       </c>
       <c r="FH5" t="n">
-        <v>4.665344590648601e-07</v>
+        <v>0.0007692491635680199</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.067223323047983e-07</v>
+        <v>0.001515736803412437</v>
       </c>
       <c r="FJ5" t="n">
-        <v>3.368654120095016e-07</v>
+        <v>0.005339121446013451</v>
       </c>
       <c r="FK5" t="n">
-        <v>5.254137818155868e-07</v>
+        <v>0.0001006578677333891</v>
       </c>
       <c r="FL5" t="n">
-        <v>3.552037242116057e-07</v>
+        <v>0.0006256374763324857</v>
       </c>
       <c r="FM5" t="n">
-        <v>1.786612955356759e-07</v>
+        <v>0.004782274831086397</v>
       </c>
       <c r="FN5" t="n">
-        <v>6.253293349800515e-07</v>
+        <v>0.001025935518555343</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.09688858174195e-06</v>
+        <v>0.0005075165536254644</v>
       </c>
       <c r="FP5" t="n">
-        <v>7.209680461528478e-07</v>
+        <v>0.006599685177206993</v>
       </c>
       <c r="FQ5" t="n">
-        <v>4.612873283349472e-08</v>
+        <v>0.004390784073621035</v>
       </c>
       <c r="FR5" t="n">
-        <v>1.25599490274908e-06</v>
+        <v>0.0005867808358743787</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.436720478726784e-07</v>
+        <v>0.001950679230503738</v>
       </c>
       <c r="FT5" t="n">
-        <v>1.272885242542543e-06</v>
+        <v>0.004926054272800684</v>
       </c>
       <c r="FU5" t="n">
-        <v>6.324385140032973e-07</v>
+        <v>0.0001423415669705719</v>
       </c>
       <c r="FV5" t="n">
-        <v>7.796885483912774e-07</v>
+        <v>0.003784287255257368</v>
       </c>
       <c r="FW5" t="n">
-        <v>7.974718414516246e-07</v>
+        <v>0.002431687898933887</v>
       </c>
       <c r="FX5" t="n">
-        <v>3.669922818971827e-07</v>
+        <v>0.001484627486206591</v>
       </c>
       <c r="FY5" t="n">
-        <v>1.246733177140413e-06</v>
+        <v>0.004962573759257793</v>
       </c>
       <c r="FZ5" t="n">
-        <v>2.300690482570644e-07</v>
+        <v>0.0007410679245367646</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.214829126183758e-09</v>
+        <v>0.0006365833687596023</v>
       </c>
       <c r="GB5" t="n">
-        <v>9.354425856145099e-07</v>
+        <v>0.0006357087986543775</v>
       </c>
       <c r="GC5" t="n">
-        <v>7.752917667858128e-07</v>
+        <v>0.00109201914165169</v>
       </c>
       <c r="GD5" t="n">
-        <v>4.477017512272141e-07</v>
+        <v>0.004218106158077717</v>
       </c>
       <c r="GE5" t="n">
-        <v>6.569101174136449e-08</v>
+        <v>0.009573505260050297</v>
       </c>
       <c r="GF5" t="n">
-        <v>2.681658770598006e-07</v>
+        <v>0.005034937988966703</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.699909830676916e-07</v>
+        <v>0.002022858709096909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.107214918384557e-15</v>
+        <v>0.0003539921308401972</v>
       </c>
       <c r="B6" t="n">
-        <v>7.340558621561112e-15</v>
+        <v>7.924320379970595e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.204338782983676e-15</v>
+        <v>0.0001981580135179684</v>
       </c>
       <c r="D6" t="n">
-        <v>7.091938781432451e-15</v>
+        <v>0.0002924668369814754</v>
       </c>
       <c r="E6" t="n">
-        <v>3.217331660961519e-14</v>
+        <v>0.001584949204698205</v>
       </c>
       <c r="F6" t="n">
-        <v>1.571847087032804e-15</v>
+        <v>0.001131581608206034</v>
       </c>
       <c r="G6" t="n">
-        <v>1.113467414923025e-14</v>
+        <v>0.0008794215973466635</v>
       </c>
       <c r="H6" t="n">
-        <v>1.386687632938793e-14</v>
+        <v>0.0001073442326742224</v>
       </c>
       <c r="I6" t="n">
-        <v>7.495901922988709e-15</v>
+        <v>0.001160412328317761</v>
       </c>
       <c r="J6" t="n">
-        <v>8.928099958557117e-15</v>
+        <v>0.000430714018875733</v>
       </c>
       <c r="K6" t="n">
-        <v>1.066965983745121e-14</v>
+        <v>9.795243386179209e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.066695017905295e-14</v>
+        <v>0.0001548978762002662</v>
       </c>
       <c r="M6" t="n">
-        <v>3.536768283568439e-15</v>
+        <v>0.0003719160449691117</v>
       </c>
       <c r="N6" t="n">
-        <v>1.243888550646853e-14</v>
+        <v>0.001276569440960884</v>
       </c>
       <c r="O6" t="n">
-        <v>1.943865397422903e-14</v>
+        <v>0.001175866229459643</v>
       </c>
       <c r="P6" t="n">
-        <v>1.122444608911205e-14</v>
+        <v>0.0005649465601891279</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.915674090510877e-14</v>
+        <v>9.317143121734262e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>2.834341139882571e-14</v>
+        <v>0.000645569059997797</v>
       </c>
       <c r="S6" t="n">
-        <v>2.625895733629003e-15</v>
+        <v>0.0001283238962059841</v>
       </c>
       <c r="T6" t="n">
-        <v>9.078807236906155e-16</v>
+        <v>0.0004710287612397224</v>
       </c>
       <c r="U6" t="n">
-        <v>1.061545481102462e-14</v>
+        <v>2.452915941830724e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>6.090149950099474e-16</v>
+        <v>9.749492164701223e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.576564280671028e-14</v>
+        <v>0.0008593617822043598</v>
       </c>
       <c r="X6" t="n">
-        <v>3.673353193346142e-15</v>
+        <v>0.0002816266496665776</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.99628885641318e-15</v>
+        <v>0.0001256153627764434</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.063962828430631e-14</v>
+        <v>0.0002883425622712821</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.656073837983754e-15</v>
+        <v>0.0001214190706377849</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.51850974360905e-15</v>
+        <v>3.951117832912132e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.126844162155853e-16</v>
+        <v>0.0002775954490061849</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.325519215807788e-15</v>
+        <v>0.0002072369097732008</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.168034950864356e-15</v>
+        <v>0.000642299884930253</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.757212539539588e-14</v>
+        <v>0.001211467199027538</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.286537813918067e-16</v>
+        <v>0.0003252593451179564</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.097362015167226e-14</v>
+        <v>0.0007173398043960333</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.429632711584354e-14</v>
+        <v>0.000303546607028693</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.957771391427861e-15</v>
+        <v>3.066089993808419e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.068284320334203e-15</v>
+        <v>0.0001556912175146863</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.059074005330609e-15</v>
+        <v>9.199736086884513e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.775652224749734e-16</v>
+        <v>1.684169183135964e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.990983363296428e-15</v>
+        <v>0.0005242459592409432</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.134801549062224e-14</v>
+        <v>0.0003281938843429089</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.856213528363091e-15</v>
+        <v>0.0001846776285674423</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.204184287212451e-15</v>
+        <v>0.0003283318947069347</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.940470319963718e-15</v>
+        <v>0.000203619449166581</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.793462144001953e-15</v>
+        <v>5.303103534970433e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.527607943508732e-15</v>
+        <v>0.0002763960801530629</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.692988807412872e-14</v>
+        <v>0.0002615317353047431</v>
       </c>
       <c r="AV6" t="n">
-        <v>7.032579136005343e-15</v>
+        <v>0.000136886301334016</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.055806494071635e-14</v>
+        <v>0.001160496147349477</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.829265040836266e-14</v>
+        <v>0.001503078383393586</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.793364851974618e-15</v>
+        <v>0.0003711151948664337</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.236885476448861e-15</v>
+        <v>0.001731519005261362</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.222138184517373e-14</v>
+        <v>0.001369730685837567</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.172397258284366e-15</v>
+        <v>0.0004976731142960489</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.534806869272459e-15</v>
+        <v>0.000563546025659889</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.288596202604026e-15</v>
+        <v>0.0001874322188086808</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.991536884817484e-15</v>
+        <v>3.600709169404581e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.430906098565609e-15</v>
+        <v>0.0001121120876632631</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.03108837860486e-14</v>
+        <v>0.0006485026096925139</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.153095766657022e-14</v>
+        <v>0.0006897883140482008</v>
       </c>
       <c r="BI6" t="n">
-        <v>6.91589526532338e-15</v>
+        <v>0.0004058523918502033</v>
       </c>
       <c r="BJ6" t="n">
-        <v>9.059526437686042e-15</v>
+        <v>0.0001099597720894963</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.200779232312819e-14</v>
+        <v>4.60324517916888e-05</v>
       </c>
       <c r="BL6" t="n">
-        <v>8.298362302492594e-15</v>
+        <v>8.787596016190946e-05</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.19487900226714e-15</v>
+        <v>0.0001124173213611357</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.085819243085108e-14</v>
+        <v>0.000339721271302551</v>
       </c>
       <c r="BO6" t="n">
-        <v>8.596927016839631e-15</v>
+        <v>0.001170167233794928</v>
       </c>
       <c r="BP6" t="n">
-        <v>4.400564859881849e-15</v>
+        <v>0.0001810860994737595</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.333453694689568e-16</v>
+        <v>0.0002069339971058071</v>
       </c>
       <c r="BR6" t="n">
-        <v>4.234637458261836e-16</v>
+        <v>0.0006193573353812099</v>
       </c>
       <c r="BS6" t="n">
-        <v>4.701898948449934e-15</v>
+        <v>0.0005869599990546703</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.147121685631685e-15</v>
+        <v>0.0006388467154465616</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.125964708433404e-15</v>
+        <v>9.000021236715838e-05</v>
       </c>
       <c r="BV6" t="n">
-        <v>7.383936872855899e-15</v>
+        <v>1.747450005495921e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>2.50749323309706e-15</v>
+        <v>0.0001078173299902119</v>
       </c>
       <c r="BX6" t="n">
-        <v>5.618198438482429e-15</v>
+        <v>0.0004128774162381887</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.214602894715304e-14</v>
+        <v>0.0007667234749533236</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.562239107608804e-14</v>
+        <v>5.253209747024812e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>3.679219743538825e-15</v>
+        <v>0.000773111532907933</v>
       </c>
       <c r="CB6" t="n">
-        <v>8.314027541577351e-16</v>
+        <v>0.0005542041617445648</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.302524067607353e-15</v>
+        <v>7.041680510155857e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>7.100238857282596e-16</v>
+        <v>4.720592187368311e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.923764186893397e-15</v>
+        <v>5.347289334167726e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.273484711308536e-15</v>
+        <v>0.0001204439031425864</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.271872274586825e-15</v>
+        <v>0.0001253805821761489</v>
       </c>
       <c r="CH6" t="n">
-        <v>5.527774283231243e-15</v>
+        <v>2.682437479961663e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.165490767018185e-16</v>
+        <v>2.354326352360658e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>3.516182630093081e-15</v>
+        <v>0.000218333094380796</v>
       </c>
       <c r="CK6" t="n">
-        <v>5.018159875131009e-16</v>
+        <v>5.124003655510023e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>9.674066522731811e-17</v>
+        <v>6.50696165394038e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.083848451526731e-14</v>
+        <v>0.0001305749756284058</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.544242029171902e-14</v>
+        <v>0.0003970080288127065</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.776230292677931e-14</v>
+        <v>3.169458796037361e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.466623046359093e-15</v>
+        <v>0.0001045721292030066</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5.97750134437823e-15</v>
+        <v>0.0006796178640797734</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.091429565811246e-14</v>
+        <v>0.0004641228006221354</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.95340949301435e-15</v>
+        <v>0.0005037590744905174</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.241423159002245e-14</v>
+        <v>0.0006375725497491658</v>
       </c>
       <c r="CU6" t="n">
-        <v>7.000725191474424e-15</v>
+        <v>0.0006310832104645669</v>
       </c>
       <c r="CV6" t="n">
-        <v>6.190025722492597e-16</v>
+        <v>6.069729715818539e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.765320533120613e-15</v>
+        <v>7.122533861547709e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.837689867091211e-15</v>
+        <v>0.0001061085276887752</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.167580393671567e-15</v>
+        <v>0.000132631219457835</v>
       </c>
       <c r="CZ6" t="n">
-        <v>3.991906191182486e-15</v>
+        <v>3.164169902447611e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>2.410747459202279e-15</v>
+        <v>6.105200736783445e-05</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.255045223935789e-15</v>
+        <v>0.0001199769467348233</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.234537815128934e-15</v>
+        <v>2.124110324075446e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>4.851188505403505e-16</v>
+        <v>0.0001190017210319638</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.82328902918348e-15</v>
+        <v>0.0002936339005827904</v>
       </c>
       <c r="DF6" t="n">
-        <v>8.360495557305486e-15</v>
+        <v>0.0007515963516198099</v>
       </c>
       <c r="DG6" t="n">
-        <v>5.394458073596994e-15</v>
+        <v>3.358841786393896e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>7.973217694260716e-15</v>
+        <v>0.0005301237688399851</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.77978827937619e-15</v>
+        <v>0.0006640327628701925</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.750903711093496e-15</v>
+        <v>0.0006545958458445966</v>
       </c>
       <c r="DK6" t="n">
-        <v>5.721753721998424e-15</v>
+        <v>0.0001764079352142289</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.147656629289524e-14</v>
+        <v>0.0004199628601782024</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.498807181881182e-14</v>
+        <v>0.00121723476331681</v>
       </c>
       <c r="DN6" t="n">
-        <v>6.959913555888936e-16</v>
+        <v>6.682617095066234e-05</v>
       </c>
       <c r="DO6" t="n">
-        <v>6.854997831580532e-15</v>
+        <v>0.0001352447579847649</v>
       </c>
       <c r="DP6" t="n">
-        <v>4.229578130467886e-15</v>
+        <v>5.923808930674568e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>5.773058931130091e-15</v>
+        <v>0.0004179358074907213</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.383807583569843e-15</v>
+        <v>0.0007481194916181266</v>
       </c>
       <c r="DS6" t="n">
-        <v>7.237862652970106e-15</v>
+        <v>0.0002049757749773562</v>
       </c>
       <c r="DT6" t="n">
-        <v>5.658505348310472e-15</v>
+        <v>0.0002479542163200676</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.146547863161568e-14</v>
+        <v>0.0002535276871640235</v>
       </c>
       <c r="DV6" t="n">
-        <v>8.1271303570404e-15</v>
+        <v>0.0007385030621662736</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.143492678848293e-15</v>
+        <v>2.758077607722953e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.464921357168059e-15</v>
+        <v>7.107562851160765e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>5.11675578074083e-15</v>
+        <v>0.0001637249806663021</v>
       </c>
       <c r="DZ6" t="n">
-        <v>6.840018053908339e-15</v>
+        <v>0.0006217491463758051</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.009130182648429e-15</v>
+        <v>0.0006047983188182116</v>
       </c>
       <c r="EB6" t="n">
-        <v>4.035695676973166e-15</v>
+        <v>0.0001031413485179655</v>
       </c>
       <c r="EC6" t="n">
-        <v>6.877189671282121e-16</v>
+        <v>3.472066964604892e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>5.548408005826358e-15</v>
+        <v>0.0006586184026673436</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.513110010821928e-15</v>
+        <v>0.0001609071041457355</v>
       </c>
       <c r="EF6" t="n">
-        <v>8.702823075905364e-16</v>
+        <v>8.39071290101856e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>6.024135378564026e-16</v>
+        <v>0.0001410820696037263</v>
       </c>
       <c r="EH6" t="n">
-        <v>3.129596157691508e-17</v>
+        <v>0.0001488127891207114</v>
       </c>
       <c r="EI6" t="n">
-        <v>7.794397180634072e-16</v>
+        <v>0.001137679093517363</v>
       </c>
       <c r="EJ6" t="n">
-        <v>3.135237820636695e-15</v>
+        <v>0.0001000181073322892</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.961472925407362e-15</v>
+        <v>0.0003593044239096344</v>
       </c>
       <c r="EL6" t="n">
-        <v>6.619632786526979e-15</v>
+        <v>0.0005037258379161358</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.201649643369418e-15</v>
+        <v>0.0002558919659350067</v>
       </c>
       <c r="EN6" t="n">
-        <v>3.688262667283712e-15</v>
+        <v>0.0001302838645642623</v>
       </c>
       <c r="EO6" t="n">
-        <v>7.733664071282991e-15</v>
+        <v>0.0001416390587110072</v>
       </c>
       <c r="EP6" t="n">
-        <v>3.383695453955957e-15</v>
+        <v>4.602418630383909e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>3.524745921431585e-15</v>
+        <v>0.0001473964512115344</v>
       </c>
       <c r="ER6" t="n">
-        <v>4.123874771397654e-15</v>
+        <v>1.550713750475552e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>5.410775739809375e-15</v>
+        <v>0.000410886510508135</v>
       </c>
       <c r="ET6" t="n">
-        <v>2.209866184222633e-15</v>
+        <v>0.0005694126011803746</v>
       </c>
       <c r="EU6" t="n">
-        <v>4.136444740334907e-15</v>
+        <v>0.0004928906564600766</v>
       </c>
       <c r="EV6" t="n">
-        <v>6.422339754870139e-15</v>
+        <v>0.0002916338853538036</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.180070314367812e-15</v>
+        <v>0.0001758428115863353</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.199864839070434e-15</v>
+        <v>4.489795173867606e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.443987361393143e-15</v>
+        <v>7.717914559179917e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.804819906540061e-15</v>
+        <v>0.0001654277584748343</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.554350672222695e-15</v>
+        <v>0.0001534490729682148</v>
       </c>
       <c r="FB6" t="n">
-        <v>5.449535967475732e-15</v>
+        <v>2.843371476046741e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.791916732389687e-15</v>
+        <v>2.72503948508529e-05</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.965449321578248e-15</v>
+        <v>0.0002022124535869807</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.356701671342277e-15</v>
+        <v>0.0001144492271123454</v>
       </c>
       <c r="FF6" t="n">
-        <v>2.577370063113751e-15</v>
+        <v>2.569570824562106e-06</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.854828731745955e-15</v>
+        <v>1.159023031505058e-05</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.991584099649306e-16</v>
+        <v>0.0001389244571328163</v>
       </c>
       <c r="FI6" t="n">
-        <v>5.644288747323756e-17</v>
+        <v>0.0002430641616228968</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.497799360904715e-16</v>
+        <v>0.0007799987215548754</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.131422819338921e-14</v>
+        <v>0.0002459300449118018</v>
       </c>
       <c r="FL6" t="n">
-        <v>9.95823601801938e-15</v>
+        <v>0.0005509482580237091</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.363163265807901e-15</v>
+        <v>5.491907359100878e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.802890824099349e-14</v>
+        <v>0.0001338417205261067</v>
       </c>
       <c r="FO6" t="n">
-        <v>5.53108067634085e-15</v>
+        <v>0.000584970461204648</v>
       </c>
       <c r="FP6" t="n">
-        <v>3.657243897238786e-15</v>
+        <v>0.0004459458577912301</v>
       </c>
       <c r="FQ6" t="n">
-        <v>9.715376425448521e-15</v>
+        <v>6.120496982475743e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>4.199888778633675e-15</v>
+        <v>0.0002114722301485017</v>
       </c>
       <c r="FS6" t="n">
-        <v>3.076102638940609e-15</v>
+        <v>2.845044946298003e-05</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.571486148745649e-14</v>
+        <v>0.001501989085227251</v>
       </c>
       <c r="FU6" t="n">
-        <v>8.225270135408125e-15</v>
+        <v>0.001184701803140342</v>
       </c>
       <c r="FV6" t="n">
-        <v>7.083465487344592e-15</v>
+        <v>0.0007317680865526199</v>
       </c>
       <c r="FW6" t="n">
-        <v>3.274271926181384e-15</v>
+        <v>0.0005832696915604174</v>
       </c>
       <c r="FX6" t="n">
-        <v>7.906097109454391e-15</v>
+        <v>0.0002167492784792557</v>
       </c>
       <c r="FY6" t="n">
-        <v>4.548484341043236e-16</v>
+        <v>7.564826228190213e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.176788464037851e-14</v>
+        <v>0.0001304176112171263</v>
       </c>
       <c r="GA6" t="n">
-        <v>4.570658393052932e-15</v>
+        <v>8.570723730372265e-05</v>
       </c>
       <c r="GB6" t="n">
-        <v>7.75811875950317e-15</v>
+        <v>0.0005201405147090554</v>
       </c>
       <c r="GC6" t="n">
-        <v>5.836610966129634e-15</v>
+        <v>0.0005867000436410308</v>
       </c>
       <c r="GD6" t="n">
-        <v>3.442379167091156e-15</v>
+        <v>0.0007323318859562278</v>
       </c>
       <c r="GE6" t="n">
-        <v>6.731376761060556e-15</v>
+        <v>0.0008123161387629807</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.029109296711513e-16</v>
+        <v>0.0005760759231634438</v>
       </c>
       <c r="GG6" t="n">
-        <v>6.774722507465992e-16</v>
+        <v>0.001211042981594801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.236083886004053e-06</v>
+        <v>8.924128451326396e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5526282924111e-06</v>
+        <v>2.326563662791159e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.472894604783505e-05</v>
+        <v>6.513437256217003e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001163040433311835</v>
+        <v>7.191827990027377e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>8.393994903599378e-06</v>
+        <v>2.774702807073481e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>1.098785833164584e-05</v>
+        <v>7.385010121652158e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>6.508586920972448e-06</v>
+        <v>6.158357450658514e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>1.154763685917715e-05</v>
+        <v>2.064027285086922e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>1.066557524609379e-05</v>
+        <v>1.27710964079597e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.562471152283251e-05</v>
+        <v>6.74525608701515e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>2.974976450786926e-05</v>
+        <v>1.070175130735151e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.317434675409459e-05</v>
+        <v>1.033225885294087e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>9.177143510896713e-05</v>
+        <v>1.316397265327396e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>5.20672692800872e-05</v>
+        <v>9.133391358773224e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>3.822891085292213e-05</v>
+        <v>3.118419044767506e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87978039321024e-05</v>
+        <v>4.23805249738507e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.422506703529507e-05</v>
+        <v>2.938710622402141e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>2.033358941844199e-05</v>
+        <v>9.674144166638143e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>3.485242814349476e-06</v>
+        <v>9.983866675611353e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>1.472490021114936e-05</v>
+        <v>1.394119976794173e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>2.418474468868226e-05</v>
+        <v>1.07445293906494e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.208477988257073e-05</v>
+        <v>3.019094492628938e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>8.566026372136548e-05</v>
+        <v>6.311062861641403e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>1.145239366451278e-06</v>
+        <v>1.052930201694835e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.61323042550066e-07</v>
+        <v>5.299443728290498e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.532314728247002e-06</v>
+        <v>1.437400214854279e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.277984210901195e-06</v>
+        <v>1.491845580403606e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.367430897720624e-05</v>
+        <v>2.314807261427632e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.714601603453048e-05</v>
+        <v>4.192625510768266e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.03697636607103e-05</v>
+        <v>3.744135938177351e-06</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.059906935552135e-05</v>
+        <v>4.465598067326937e-06</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.084883999486919e-05</v>
+        <v>1.574009900195961e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.331267867499264e-05</v>
+        <v>6.467638741014525e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.302283519384218e-06</v>
+        <v>5.901133022234717e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.925796277646441e-05</v>
+        <v>1.644453050175798e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.742306818021461e-06</v>
+        <v>4.366726443549851e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.197053981944919e-05</v>
+        <v>1.414332473359536e-06</v>
       </c>
       <c r="AL7" t="n">
-        <v>4.588873707689345e-06</v>
+        <v>1.470703637096449e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.778656931302976e-06</v>
+        <v>1.424469360244984e-06</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.86441097361967e-05</v>
+        <v>8.006151119843707e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.306451152544469e-06</v>
+        <v>3.91970115742879e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.740640593401622e-05</v>
+        <v>6.316140115814051e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.167429208086105e-06</v>
+        <v>3.765360361285275e-06</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.267872893455205e-06</v>
+        <v>5.033919478591997e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.790134658425814e-06</v>
+        <v>1.744280211823934e-06</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.171476227085805e-06</v>
+        <v>5.256989652480115e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.42138741366216e-06</v>
+        <v>1.993793193832971e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.030307950917631e-05</v>
+        <v>1.636248271097429e-06</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.544046093244106e-05</v>
+        <v>3.378921519470168e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.800038237182889e-05</v>
+        <v>1.187605266750325e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.371505257149693e-06</v>
+        <v>6.560086148965638e-06</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.789642556104809e-05</v>
+        <v>5.026311555411667e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>5.168451025383547e-06</v>
+        <v>2.388853317825124e-06</v>
       </c>
       <c r="BB7" t="n">
-        <v>6.998282515269239e-06</v>
+        <v>5.269473604130326e-07</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.497309767728439e-05</v>
+        <v>4.764313416671939e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.16440525946382e-06</v>
+        <v>6.019145075697452e-07</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.605696525075473e-05</v>
+        <v>1.122368075812119e-06</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.546314059756696e-05</v>
+        <v>5.485141173267039e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.049370166583685e-05</v>
+        <v>1.858233417806332e-06</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.218631834693952e-06</v>
+        <v>2.257422238471918e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.240719732071739e-05</v>
+        <v>1.060359409166267e-06</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.27908446706715e-06</v>
+        <v>3.085800244662096e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.414115897408919e-06</v>
+        <v>9.689743819762953e-06</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.860324275388848e-05</v>
+        <v>1.24674829748983e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>8.814789907773957e-06</v>
+        <v>3.033621396753006e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>9.711849997984245e-06</v>
+        <v>2.934809799626237e-06</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.27363655337831e-05</v>
+        <v>2.612980551930377e-06</v>
       </c>
       <c r="BP7" t="n">
-        <v>3.537517113727517e-05</v>
+        <v>1.223749586642953e-05</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.758782784439973e-06</v>
+        <v>1.772801851984696e-06</v>
       </c>
       <c r="BR7" t="n">
-        <v>7.653485226910561e-06</v>
+        <v>1.171042185887927e-06</v>
       </c>
       <c r="BS7" t="n">
-        <v>6.953941010579001e-06</v>
+        <v>1.053564801622997e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>3.991831817984348e-06</v>
+        <v>2.515912456146907e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>2.317785401828587e-05</v>
+        <v>5.383254801927251e-07</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.620370085220202e-06</v>
+        <v>9.475135811953805e-06</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.266904291696846e-05</v>
+        <v>1.867208993644454e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>4.956724296789616e-05</v>
+        <v>1.84423811333545e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>8.0707714005257e-06</v>
+        <v>2.468465936544817e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4.504471144173294e-05</v>
+        <v>5.200113264436368e-07</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.659109329921193e-05</v>
+        <v>9.236580353899626e-07</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.816189978853799e-06</v>
+        <v>1.774814222699206e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>9.783363566384651e-06</v>
+        <v>6.680071464870707e-07</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.426005837856792e-05</v>
+        <v>1.115551867769682e-06</v>
       </c>
       <c r="CE7" t="n">
-        <v>4.829908448300557e-06</v>
+        <v>3.702016783790896e-06</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.968593551282538e-06</v>
+        <v>5.373611315917515e-07</v>
       </c>
       <c r="CG7" t="n">
-        <v>2.735392081376631e-05</v>
+        <v>2.14734063774813e-06</v>
       </c>
       <c r="CH7" t="n">
-        <v>2.529822040742147e-06</v>
+        <v>9.027450005305582e-07</v>
       </c>
       <c r="CI7" t="n">
-        <v>6.887894414830953e-06</v>
+        <v>7.373470793936576e-07</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.658836592672742e-06</v>
+        <v>1.260517592527322e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.732823534439376e-06</v>
+        <v>5.95224889821111e-07</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.056206565408502e-05</v>
+        <v>3.141029310427257e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>4.111191174160922e-07</v>
+        <v>2.602155291242525e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>9.041170415002853e-06</v>
+        <v>2.551957550167572e-06</v>
       </c>
       <c r="CO7" t="n">
-        <v>5.742735993408132e-07</v>
+        <v>8.350868796469513e-08</v>
       </c>
       <c r="CP7" t="n">
-        <v>4.169852763880044e-05</v>
+        <v>1.455038955100463e-06</v>
       </c>
       <c r="CQ7" t="n">
-        <v>6.824138836236671e-06</v>
+        <v>8.401171726291068e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>5.536581375054084e-05</v>
+        <v>4.205772711429745e-06</v>
       </c>
       <c r="CS7" t="n">
-        <v>2.086137556034373e-06</v>
+        <v>2.486397988832323e-06</v>
       </c>
       <c r="CT7" t="n">
-        <v>8.285507647087798e-06</v>
+        <v>4.361712399258977e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>2.148703515558736e-06</v>
+        <v>9.566814469508245e-07</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.229545978276292e-05</v>
+        <v>8.508423547937127e-07</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.872254301815701e-06</v>
+        <v>3.553092483343789e-06</v>
       </c>
       <c r="CX7" t="n">
-        <v>1.440188725609914e-06</v>
+        <v>4.020463109100092e-07</v>
       </c>
       <c r="CY7" t="n">
-        <v>2.460334508214146e-05</v>
+        <v>1.982199819394737e-06</v>
       </c>
       <c r="CZ7" t="n">
-        <v>2.577159193606349e-06</v>
+        <v>1.421879119334335e-06</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.652403953921748e-06</v>
+        <v>2.754221029022119e-08</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.341651790833566e-07</v>
+        <v>3.298415549579659e-07</v>
       </c>
       <c r="DC7" t="n">
-        <v>2.130495886376593e-07</v>
+        <v>4.859574005422473e-07</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.052285915648099e-05</v>
+        <v>2.382603042860865e-06</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.231690450571477e-05</v>
+        <v>3.64480251846544e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.163379874924431e-05</v>
+        <v>1.412688743585022e-05</v>
       </c>
       <c r="DG7" t="n">
-        <v>1.329036513197934e-05</v>
+        <v>3.96856376028154e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>3.165461021126248e-05</v>
+        <v>1.020134732243605e-05</v>
       </c>
       <c r="DI7" t="n">
-        <v>3.471395393717103e-05</v>
+        <v>4.671911938203266e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.28295975830406e-05</v>
+        <v>4.862698915530927e-06</v>
       </c>
       <c r="DK7" t="n">
-        <v>8.068992428889032e-06</v>
+        <v>2.119169948855415e-06</v>
       </c>
       <c r="DL7" t="n">
-        <v>2.77641047432553e-05</v>
+        <v>8.727956810616888e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.899215385492425e-05</v>
+        <v>3.321207486806088e-07</v>
       </c>
       <c r="DN7" t="n">
-        <v>7.805860150256194e-06</v>
+        <v>4.301917215343565e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>7.159262167988345e-06</v>
+        <v>2.339975708309794e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.048521335178521e-05</v>
+        <v>1.319455918746826e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.048710146278609e-06</v>
+        <v>2.132900362994405e-06</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.099549626815133e-05</v>
+        <v>2.294428213645006e-06</v>
       </c>
       <c r="DS7" t="n">
-        <v>2.048519309028052e-05</v>
+        <v>3.456151944192243e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>8.165658073266968e-06</v>
+        <v>4.270482349966187e-06</v>
       </c>
       <c r="DU7" t="n">
-        <v>7.637101589352824e-06</v>
+        <v>2.643647576405783e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.807938497222494e-05</v>
+        <v>1.536428442250326e-07</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.187227437389083e-06</v>
+        <v>2.258836673263431e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.133149973815307e-05</v>
+        <v>1.861775558609224e-06</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.4657642825332e-06</v>
+        <v>1.247449517904897e-06</v>
       </c>
       <c r="DZ7" t="n">
-        <v>3.329979517729953e-05</v>
+        <v>2.428122115816223e-06</v>
       </c>
       <c r="EA7" t="n">
-        <v>6.405989097402198e-06</v>
+        <v>9.343003171125019e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>9.804190995055251e-06</v>
+        <v>3.124066097370815e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>2.893853888963349e-06</v>
+        <v>3.895092106631637e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>7.441050911438651e-06</v>
+        <v>3.587301762308925e-06</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.549161424918566e-05</v>
+        <v>2.299691686857841e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.183743279398186e-05</v>
+        <v>1.117180445930899e-07</v>
       </c>
       <c r="EG7" t="n">
-        <v>7.283789727807743e-06</v>
+        <v>3.863127631120733e-07</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.499665813753381e-07</v>
+        <v>3.774566152969783e-07</v>
       </c>
       <c r="EI7" t="n">
-        <v>9.02865212992765e-06</v>
+        <v>3.326046680740546e-06</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.680259629210923e-05</v>
+        <v>1.301682800658455e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.827959749789443e-05</v>
+        <v>2.237807592564423e-07</v>
       </c>
       <c r="EL7" t="n">
-        <v>3.044295453946688e-06</v>
+        <v>1.981058403544012e-06</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.914473043347243e-06</v>
+        <v>1.168674316431861e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.944928499142407e-06</v>
+        <v>2.979255668833503e-06</v>
       </c>
       <c r="EO7" t="n">
-        <v>4.250825077178888e-05</v>
+        <v>2.866115664801328e-06</v>
       </c>
       <c r="EP7" t="n">
-        <v>9.812873031478375e-06</v>
+        <v>5.485591373144416e-06</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.012114580589696e-06</v>
+        <v>2.67724954028381e-06</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.238097684108652e-05</v>
+        <v>1.103528575185919e-06</v>
       </c>
       <c r="ES7" t="n">
-        <v>8.536349014320876e-06</v>
+        <v>4.010980319435475e-06</v>
       </c>
       <c r="ET7" t="n">
-        <v>6.82520021655364e-06</v>
+        <v>7.800173079886008e-06</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.347104443993885e-05</v>
+        <v>1.555985363665968e-06</v>
       </c>
       <c r="EV7" t="n">
-        <v>8.543591320631094e-06</v>
+        <v>1.292966231858372e-07</v>
       </c>
       <c r="EW7" t="n">
-        <v>8.521471499989275e-06</v>
+        <v>1.512955805083038e-06</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.0334801118006e-05</v>
+        <v>6.741873335158743e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>3.611035481299041e-06</v>
+        <v>4.266904397809412e-06</v>
       </c>
       <c r="EZ7" t="n">
-        <v>7.854666819184786e-07</v>
+        <v>1.673992528594681e-06</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.900099050544668e-05</v>
+        <v>1.789054522305378e-06</v>
       </c>
       <c r="FB7" t="n">
-        <v>6.693395334878005e-06</v>
+        <v>1.152692902905983e-06</v>
       </c>
       <c r="FC7" t="n">
-        <v>8.434479241259396e-06</v>
+        <v>8.238804412030731e-07</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.139154730684822e-06</v>
+        <v>2.180803448936786e-07</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.126638721871132e-06</v>
+        <v>6.371299718921364e-07</v>
       </c>
       <c r="FF7" t="n">
-        <v>7.879660188336857e-06</v>
+        <v>1.491089847149851e-06</v>
       </c>
       <c r="FG7" t="n">
-        <v>6.534949989145389e-06</v>
+        <v>2.772409857243474e-07</v>
       </c>
       <c r="FH7" t="n">
-        <v>2.285551454406232e-05</v>
+        <v>3.419227823542315e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.471493669669144e-05</v>
+        <v>2.573529400251573e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>2.381975718890317e-05</v>
+        <v>2.600965217425255e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.084761061065365e-05</v>
+        <v>3.404112192129105e-07</v>
       </c>
       <c r="FL7" t="n">
-        <v>2.009262971114367e-06</v>
+        <v>2.681714249774814e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>4.655451448343229e-06</v>
+        <v>2.140999271205146e-07</v>
       </c>
       <c r="FN7" t="n">
-        <v>6.405743079085369e-06</v>
+        <v>3.932600066036684e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>2.181907257181592e-05</v>
+        <v>4.385956799524138e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>9.031407898874022e-06</v>
+        <v>1.789444581845601e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>5.579919161391445e-06</v>
+        <v>1.204643467644928e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>6.323156412690878e-06</v>
+        <v>9.761301953403745e-07</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.906212492031045e-05</v>
+        <v>1.366909145872341e-07</v>
       </c>
       <c r="FT7" t="n">
-        <v>5.901134500163607e-06</v>
+        <v>2.829451432262431e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>9.648910236137453e-06</v>
+        <v>9.150110713562754e-08</v>
       </c>
       <c r="FV7" t="n">
-        <v>1.046825127559714e-05</v>
+        <v>4.307084964239039e-07</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.227123877673876e-05</v>
+        <v>2.989724180224584e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.830209657782689e-05</v>
+        <v>2.010544449149165e-06</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.506210355728399e-05</v>
+        <v>1.375179749629751e-06</v>
       </c>
       <c r="FZ7" t="n">
-        <v>8.291370249935426e-06</v>
+        <v>6.268882316362578e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>5.036945367464796e-07</v>
+        <v>1.972564632524154e-06</v>
       </c>
       <c r="GB7" t="n">
-        <v>3.780949191423133e-05</v>
+        <v>6.373686119331978e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>9.100252100324724e-06</v>
+        <v>7.868298780522309e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.699119457043707e-05</v>
+        <v>6.92343292030273e-06</v>
       </c>
       <c r="GE7" t="n">
-        <v>5.062095624452922e-06</v>
+        <v>9.787692079044064e-07</v>
       </c>
       <c r="GF7" t="n">
-        <v>6.61460762785282e-06</v>
+        <v>3.438374506004038e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>2.218232475570403e-05</v>
+        <v>3.2296959489031e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3416 +4987,3416 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.44883028951881e-06</v>
+        <v>0.004785411059856415</v>
       </c>
       <c r="B9" t="n">
-        <v>2.466210844431771e-07</v>
+        <v>0.06531395763158798</v>
       </c>
       <c r="C9" t="n">
-        <v>1.74630429228273e-07</v>
+        <v>0.009508531540632248</v>
       </c>
       <c r="D9" t="n">
-        <v>5.937492460361682e-06</v>
+        <v>0.03870194032788277</v>
       </c>
       <c r="E9" t="n">
-        <v>1.185447899842984e-06</v>
+        <v>0.01565300673246384</v>
       </c>
       <c r="F9" t="n">
-        <v>3.14602743856085e-06</v>
+        <v>0.0168138537555933</v>
       </c>
       <c r="G9" t="n">
-        <v>5.188093155084061e-07</v>
+        <v>0.007760744076222181</v>
       </c>
       <c r="H9" t="n">
-        <v>1.164225295724464e-06</v>
+        <v>0.005461373366415501</v>
       </c>
       <c r="I9" t="n">
-        <v>7.189389066297736e-07</v>
+        <v>0.01049451436847448</v>
       </c>
       <c r="J9" t="n">
-        <v>1.291382886847714e-06</v>
+        <v>0.01091488916426897</v>
       </c>
       <c r="K9" t="n">
-        <v>1.138890866059228e-06</v>
+        <v>0.05138257145881653</v>
       </c>
       <c r="L9" t="n">
-        <v>5.697967822015926e-07</v>
+        <v>0.002299725078046322</v>
       </c>
       <c r="M9" t="n">
-        <v>5.707831405743491e-06</v>
+        <v>0.03109109960496426</v>
       </c>
       <c r="N9" t="n">
-        <v>5.419799435912864e-07</v>
+        <v>0.01505115907639265</v>
       </c>
       <c r="O9" t="n">
-        <v>8.351607334589062e-07</v>
+        <v>0.01850973814725876</v>
       </c>
       <c r="P9" t="n">
-        <v>4.285256238745205e-07</v>
+        <v>0.006229802034795284</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.694993329692807e-06</v>
+        <v>0.002768173813819885</v>
       </c>
       <c r="R9" t="n">
-        <v>2.04546086024493e-06</v>
+        <v>0.01088484283536673</v>
       </c>
       <c r="S9" t="n">
-        <v>4.93035599902214e-07</v>
+        <v>0.002440593903884292</v>
       </c>
       <c r="T9" t="n">
-        <v>3.619416020228527e-07</v>
+        <v>0.005816345568746328</v>
       </c>
       <c r="U9" t="n">
-        <v>2.850140106147592e-07</v>
+        <v>0.002910527167841792</v>
       </c>
       <c r="V9" t="n">
-        <v>7.738759677522467e-07</v>
+        <v>0.01156242191791534</v>
       </c>
       <c r="W9" t="n">
-        <v>3.55364932147495e-06</v>
+        <v>0.009832588955760002</v>
       </c>
       <c r="X9" t="n">
-        <v>4.893232130598335e-07</v>
+        <v>0.003937706351280212</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.732918804009387e-07</v>
+        <v>0.006098262034356594</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.57317225305087e-07</v>
+        <v>0.007636433001607656</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.381893412144564e-06</v>
+        <v>0.009010631591081619</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.766778142264229e-07</v>
+        <v>0.0003319783136248589</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.348852939983772e-07</v>
+        <v>0.01138430833816528</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.038975933122856e-07</v>
+        <v>0.0030674715526402</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.78377921556239e-07</v>
+        <v>0.002459316048771143</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.725470551467879e-07</v>
+        <v>0.0007842729683034122</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.756533038133057e-06</v>
+        <v>0.006075989454984665</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.823347457109776e-07</v>
+        <v>0.002424010075628757</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.68902533914661e-06</v>
+        <v>0.001288533327169716</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.013243036140921e-06</v>
+        <v>0.005080084782093763</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.532077587602544e-07</v>
+        <v>0.00281362934038043</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.199183306103805e-07</v>
+        <v>0.008593208156526089</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.670289861976926e-08</v>
+        <v>0.00281317182816565</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.419615839244216e-06</v>
+        <v>0.001182967913337052</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.752845998405974e-07</v>
+        <v>0.005762266460806131</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.14131296161213e-06</v>
+        <v>0.008243025280535221</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.914817969212891e-07</v>
+        <v>0.0006472578970715404</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.553968781488948e-07</v>
+        <v>0.0006610831478610635</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.038040068124246e-06</v>
+        <v>0.008252731524407864</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.484294428650173e-07</v>
+        <v>0.00409184955060482</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.085931671696017e-06</v>
+        <v>0.03908899053931236</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.114951934752753e-09</v>
+        <v>0.006647059228271246</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.020165877387626e-06</v>
+        <v>0.01288715656846762</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.407395297472249e-06</v>
+        <v>0.007926924154162407</v>
       </c>
       <c r="AY9" t="n">
-        <v>3.528942215780262e-06</v>
+        <v>0.01144749578088522</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.61283184702188e-07</v>
+        <v>0.006588460877537727</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.680087391127017e-06</v>
+        <v>0.00831021461635828</v>
       </c>
       <c r="BB9" t="n">
-        <v>7.639240493517718e-07</v>
+        <v>0.01100719347596169</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.182032747237827e-06</v>
+        <v>0.004212310072034597</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.570400283730123e-07</v>
+        <v>0.01169505435973406</v>
       </c>
       <c r="BE9" t="n">
-        <v>3.5821236110678e-07</v>
+        <v>0.0121944472193718</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.458464561845176e-06</v>
+        <v>0.00475485110655427</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.222343919645937e-07</v>
+        <v>0.01413264125585556</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.658670095774141e-07</v>
+        <v>0.005664796568453312</v>
       </c>
       <c r="BI9" t="n">
-        <v>7.504361860810604e-07</v>
+        <v>0.009831210598349571</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.551386444338277e-07</v>
+        <v>0.003669645171612501</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.88478225027211e-06</v>
+        <v>0.008927760645747185</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.267523657588754e-06</v>
+        <v>0.002007106551900506</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.625018342110707e-07</v>
+        <v>0.006129846908152103</v>
       </c>
       <c r="BN9" t="n">
-        <v>3.847454195238242e-07</v>
+        <v>0.006119255907833576</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.50811359844738e-07</v>
+        <v>0.0002418830990791321</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.263176252716221e-07</v>
+        <v>0.003609659150242805</v>
       </c>
       <c r="BQ9" t="n">
-        <v>5.385520012168854e-07</v>
+        <v>0.00312410993501544</v>
       </c>
       <c r="BR9" t="n">
-        <v>7.034913664938358e-07</v>
+        <v>0.002434812020510435</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.842371316091885e-07</v>
+        <v>0.00386070110835135</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.213969085256394e-06</v>
+        <v>0.003222111845389009</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.042594585167535e-07</v>
+        <v>0.00386514188721776</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.858481141425727e-06</v>
+        <v>0.02042393013834953</v>
       </c>
       <c r="BW9" t="n">
-        <v>3.700490580627047e-08</v>
+        <v>0.009765134193003178</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.551008603608352e-06</v>
+        <v>0.01193824969232082</v>
       </c>
       <c r="BY9" t="n">
-        <v>8.861171636453946e-07</v>
+        <v>0.003963517490774393</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.848305601015454e-06</v>
+        <v>0.001423708163201809</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.558538992365357e-07</v>
+        <v>0.0005630429368466139</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.764324082387247e-07</v>
+        <v>0.006369050592184067</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.785445078894554e-06</v>
+        <v>0.01167755853384733</v>
       </c>
       <c r="CD9" t="n">
-        <v>8.198350087695871e-07</v>
+        <v>0.001131654484197497</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.448106724590616e-07</v>
+        <v>0.0109143266454339</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.848540875926119e-07</v>
+        <v>0.005658701527863741</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.416570512446924e-06</v>
+        <v>0.005858710035681725</v>
       </c>
       <c r="CH9" t="n">
-        <v>3.49217543771374e-07</v>
+        <v>0.0008341579232364893</v>
       </c>
       <c r="CI9" t="n">
-        <v>4.66507572127739e-07</v>
+        <v>0.001525742118246853</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.39531868071208e-08</v>
+        <v>0.001015382818877697</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.410169473587302e-07</v>
+        <v>0.002094324212521315</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.837085648048742e-07</v>
+        <v>0.004444791469722986</v>
       </c>
       <c r="CM9" t="n">
-        <v>8.968504516815301e-07</v>
+        <v>0.008342793211340904</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.616562258277554e-06</v>
+        <v>0.0003058052971027792</v>
       </c>
       <c r="CO9" t="n">
-        <v>4.699866167356959e-07</v>
+        <v>0.0004449932603165507</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.294206635473529e-06</v>
+        <v>0.008371748030185699</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.270142888643022e-06</v>
+        <v>0.003972695674747229</v>
       </c>
       <c r="CR9" t="n">
-        <v>3.172569904563716e-06</v>
+        <v>0.004102357663214207</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.069837137241848e-07</v>
+        <v>0.01083909533917904</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.203486817757948e-06</v>
+        <v>0.01036533061414957</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.440780579287093e-06</v>
+        <v>2.048419264610857e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>9.507530194241554e-07</v>
+        <v>0.001107280957512558</v>
       </c>
       <c r="CW9" t="n">
-        <v>4.438463179212704e-07</v>
+        <v>0.01007055956870317</v>
       </c>
       <c r="CX9" t="n">
-        <v>4.637533663753857e-07</v>
+        <v>0.006403339561074972</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.203651322612131e-06</v>
+        <v>0.007302566431462765</v>
       </c>
       <c r="CZ9" t="n">
-        <v>4.262559230028273e-07</v>
+        <v>0.0002984018065035343</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.349771707737091e-07</v>
+        <v>0.00264819897711277</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.006113675179222e-07</v>
+        <v>0.001763657899573445</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.599009338970063e-07</v>
+        <v>0.003977438900619745</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.294520615147121e-07</v>
+        <v>0.003152184886857867</v>
       </c>
       <c r="DE9" t="n">
-        <v>4.943672706758662e-07</v>
+        <v>0.003844395047053695</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.401892745889199e-06</v>
+        <v>0.009060834534466267</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.085479311768722e-06</v>
+        <v>0.001314011286012828</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.023552158585517e-06</v>
+        <v>0.02452808432281017</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.042472033281229e-06</v>
+        <v>0.01436865050345659</v>
       </c>
       <c r="DJ9" t="n">
-        <v>2.176067113168756e-07</v>
+        <v>0.00730573944747448</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.66801828527241e-06</v>
+        <v>0.008521710522472858</v>
       </c>
       <c r="DL9" t="n">
-        <v>3.788312596952892e-06</v>
+        <v>0.004199448972940445</v>
       </c>
       <c r="DM9" t="n">
-        <v>3.263666314978764e-07</v>
+        <v>0.005995710380375385</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.744595863328868e-07</v>
+        <v>0.001579012256115675</v>
       </c>
       <c r="DO9" t="n">
-        <v>7.577294809379964e-07</v>
+        <v>0.004320449661463499</v>
       </c>
       <c r="DP9" t="n">
-        <v>4.594968743276695e-07</v>
+        <v>0.001377336564473808</v>
       </c>
       <c r="DQ9" t="n">
-        <v>4.051366317980865e-07</v>
+        <v>0.002403292572125793</v>
       </c>
       <c r="DR9" t="n">
-        <v>2.223539013357367e-06</v>
+        <v>0.007365045137703419</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.1740004879357e-07</v>
+        <v>0.002693088026717305</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.221682964569482e-06</v>
+        <v>0.002919367980211973</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.645045472287165e-06</v>
+        <v>0.0006718180957250297</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.449573344165401e-07</v>
+        <v>0.008753166534006596</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.213358101244012e-07</v>
+        <v>0.0008841520757414401</v>
       </c>
       <c r="DX9" t="n">
-        <v>7.11488610249944e-08</v>
+        <v>0.001256497111171484</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.908882580892168e-07</v>
+        <v>0.007961338385939598</v>
       </c>
       <c r="DZ9" t="n">
-        <v>6.478782665908511e-07</v>
+        <v>0.004622833803296089</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.997195226977055e-07</v>
+        <v>0.002590762451291084</v>
       </c>
       <c r="EB9" t="n">
-        <v>6.933225193961334e-08</v>
+        <v>0.0002882182016037405</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.173996449528204e-08</v>
+        <v>0.002945479936897755</v>
       </c>
       <c r="ED9" t="n">
-        <v>7.526878675889748e-07</v>
+        <v>0.0005807370762340724</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.15992077098781e-06</v>
+        <v>0.0006202322547324002</v>
       </c>
       <c r="EF9" t="n">
-        <v>7.584303318708407e-08</v>
+        <v>0.001711568678729236</v>
       </c>
       <c r="EG9" t="n">
-        <v>5.237495201981801e-07</v>
+        <v>0.008147160522639751</v>
       </c>
       <c r="EH9" t="n">
-        <v>4.880546100594074e-08</v>
+        <v>0.005580991972237825</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.291285227329354e-06</v>
+        <v>0.004109143279492855</v>
       </c>
       <c r="EJ9" t="n">
-        <v>4.459996318928461e-07</v>
+        <v>0.005050173960626125</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.859278029314737e-07</v>
+        <v>0.00302394013851881</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.181600274932862e-07</v>
+        <v>0.002046900568529963</v>
       </c>
       <c r="EM9" t="n">
-        <v>8.785587510828918e-07</v>
+        <v>0.001129553071223199</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.304396590739998e-08</v>
+        <v>0.001019945018924773</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.674473196544568e-06</v>
+        <v>0.001098847016692162</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.509273033661884e-06</v>
+        <v>0.00854199193418026</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.787349930282289e-07</v>
+        <v>0.006552938837558031</v>
       </c>
       <c r="ER9" t="n">
-        <v>6.112562118687492e-07</v>
+        <v>0.003064647316932678</v>
       </c>
       <c r="ES9" t="n">
-        <v>6.305348279056489e-07</v>
+        <v>0.003216282231733203</v>
       </c>
       <c r="ET9" t="n">
-        <v>2.264414575847695e-07</v>
+        <v>0.007120454683899879</v>
       </c>
       <c r="EU9" t="n">
-        <v>4.555536747830047e-07</v>
+        <v>0.008360874839127064</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.42945589232113e-06</v>
+        <v>0.009868765249848366</v>
       </c>
       <c r="EW9" t="n">
-        <v>2.379240413574735e-07</v>
+        <v>0.002430569846183062</v>
       </c>
       <c r="EX9" t="n">
-        <v>7.402239248222031e-07</v>
+        <v>0.0003421191941015422</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.541358471968124e-07</v>
+        <v>0.009661117568612099</v>
       </c>
       <c r="EZ9" t="n">
-        <v>3.986870069638826e-07</v>
+        <v>0.004159933887422085</v>
       </c>
       <c r="FA9" t="n">
-        <v>8.793814458840643e-07</v>
+        <v>0.007392507046461105</v>
       </c>
       <c r="FB9" t="n">
-        <v>7.206741088339186e-07</v>
+        <v>0.0009191593271680176</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.478107828414068e-07</v>
+        <v>0.002255040220916271</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.071513864303597e-07</v>
+        <v>0.003149561351165175</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.964431473628792e-07</v>
+        <v>0.003234139643609524</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.339397096624452e-07</v>
+        <v>0.005933515727519989</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.716706942213932e-07</v>
+        <v>0.0003075207932852209</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.715248174605222e-07</v>
+        <v>0.002300230087712407</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.001373902909108e-06</v>
+        <v>0.004908919800072908</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.188642215765867e-07</v>
+        <v>0.004147398751229048</v>
       </c>
       <c r="FK9" t="n">
-        <v>9.231452224867098e-08</v>
+        <v>0.003080868627876043</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.108318770093319e-06</v>
+        <v>0.002797541441395879</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.159959765573149e-06</v>
+        <v>0.0003648523706942797</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.900061988635571e-06</v>
+        <v>0.003631620667874813</v>
       </c>
       <c r="FO9" t="n">
-        <v>5.047400577495864e-07</v>
+        <v>0.0002930221962742507</v>
       </c>
       <c r="FP9" t="n">
-        <v>3.408205202504178e-07</v>
+        <v>0.005226888228207827</v>
       </c>
       <c r="FQ9" t="n">
-        <v>4.465559300115274e-08</v>
+        <v>0.007256315089762211</v>
       </c>
       <c r="FR9" t="n">
-        <v>3.760169420274906e-08</v>
+        <v>0.00800718180835247</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.555269020376727e-06</v>
+        <v>0.0006304251728579402</v>
       </c>
       <c r="FT9" t="n">
-        <v>4.084513420821168e-07</v>
+        <v>0.008300689980387688</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.690225190031924e-06</v>
+        <v>0.001705910661257803</v>
       </c>
       <c r="FV9" t="n">
-        <v>3.246584299176902e-07</v>
+        <v>0.004659323953092098</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.663374973759346e-06</v>
+        <v>0.005869955290108919</v>
       </c>
       <c r="FX9" t="n">
-        <v>9.305704793405312e-07</v>
+        <v>0.0009522770415060222</v>
       </c>
       <c r="FY9" t="n">
-        <v>9.858295015874319e-07</v>
+        <v>0.009309620596468449</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.317669784839381e-06</v>
+        <v>0.0007681925781071186</v>
       </c>
       <c r="GA9" t="n">
-        <v>6.159862095955759e-07</v>
+        <v>0.004682851023972034</v>
       </c>
       <c r="GB9" t="n">
-        <v>4.769286761074909e-07</v>
+        <v>0.0004195044748485088</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.51954975535773e-06</v>
+        <v>0.009698274545371532</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.603776181331341e-07</v>
+        <v>0.007829770445823669</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.130799655082228e-07</v>
+        <v>0.02422360330820084</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.277881551686733e-06</v>
+        <v>0.003241591388359666</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.452692797305644e-06</v>
+        <v>8.725019870325923e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.459216367853514e-07</v>
+        <v>0.4579848647117615</v>
       </c>
       <c r="B10" t="n">
-        <v>9.820232662605122e-07</v>
+        <v>3.421915531158447</v>
       </c>
       <c r="C10" t="n">
-        <v>3.139392958928511e-07</v>
+        <v>0.2427121847867966</v>
       </c>
       <c r="D10" t="n">
-        <v>4.142129455431132e-06</v>
+        <v>0.8443936109542847</v>
       </c>
       <c r="E10" t="n">
-        <v>5.279975994199049e-07</v>
+        <v>0.5299092531204224</v>
       </c>
       <c r="F10" t="n">
-        <v>1.086244267867187e-07</v>
+        <v>0.4749875068664551</v>
       </c>
       <c r="G10" t="n">
-        <v>7.488920346077066e-07</v>
+        <v>0.2306134104728699</v>
       </c>
       <c r="H10" t="n">
-        <v>9.248716423826409e-07</v>
+        <v>0.350551962852478</v>
       </c>
       <c r="I10" t="n">
-        <v>5.260748139335192e-07</v>
+        <v>0.07819501310586929</v>
       </c>
       <c r="J10" t="n">
-        <v>7.661226391064702e-07</v>
+        <v>0.624555766582489</v>
       </c>
       <c r="K10" t="n">
-        <v>5.197540531298728e-08</v>
+        <v>1.97644567489624</v>
       </c>
       <c r="L10" t="n">
-        <v>4.527167902779183e-07</v>
+        <v>0.0688648447394371</v>
       </c>
       <c r="M10" t="n">
-        <v>4.782926225743722e-06</v>
+        <v>1.365852117538452</v>
       </c>
       <c r="N10" t="n">
-        <v>1.744685164339899e-06</v>
+        <v>0.2595424652099609</v>
       </c>
       <c r="O10" t="n">
-        <v>1.89053650956339e-06</v>
+        <v>1.07955002784729</v>
       </c>
       <c r="P10" t="n">
-        <v>8.10354094937793e-07</v>
+        <v>0.2461727410554886</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.230526661151089e-06</v>
+        <v>0.1484040915966034</v>
       </c>
       <c r="R10" t="n">
-        <v>1.065687342816091e-06</v>
+        <v>0.1727301478385925</v>
       </c>
       <c r="S10" t="n">
-        <v>1.08677227217413e-06</v>
+        <v>0.04660110548138618</v>
       </c>
       <c r="T10" t="n">
-        <v>4.346913442532241e-07</v>
+        <v>0.4304267764091492</v>
       </c>
       <c r="U10" t="n">
-        <v>3.167211559684802e-08</v>
+        <v>0.1093169450759888</v>
       </c>
       <c r="V10" t="n">
-        <v>8.981583050626796e-07</v>
+        <v>0.3115159273147583</v>
       </c>
       <c r="W10" t="n">
-        <v>2.548413249314763e-06</v>
+        <v>0.1672337055206299</v>
       </c>
       <c r="X10" t="n">
-        <v>6.978380042710342e-07</v>
+        <v>0.3267711699008942</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.060701831396727e-08</v>
+        <v>0.05963800847530365</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.667276781196051e-08</v>
+        <v>0.5539475083351135</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.29301036824836e-07</v>
+        <v>0.3428489863872528</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.601321279551485e-07</v>
+        <v>0.1657705903053284</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.361775782195764e-07</v>
+        <v>0.4342342913150787</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.240500169951702e-07</v>
+        <v>0.490580677986145</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.353393473546021e-07</v>
+        <v>0.003915391862392426</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.151731225945696e-06</v>
+        <v>0.4428072273731232</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.291039893658308e-06</v>
+        <v>0.2193180471658707</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.867016620366485e-07</v>
+        <v>0.2222060710191727</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.846404072442965e-07</v>
+        <v>0.2416942715644836</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.429737773785746e-07</v>
+        <v>0.0381002277135849</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.042477699949814e-08</v>
+        <v>0.4752272665500641</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.84391455554578e-07</v>
+        <v>0.1844466179609299</v>
       </c>
       <c r="AM10" t="n">
-        <v>7.45045625194507e-09</v>
+        <v>0.2531097531318665</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.208606363434228e-06</v>
+        <v>0.4052146673202515</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.429751700423367e-07</v>
+        <v>0.2434308230876923</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.039668518387771e-06</v>
+        <v>0.2032228261232376</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7.019384185014133e-09</v>
+        <v>0.08654859662055969</v>
       </c>
       <c r="AR10" t="n">
-        <v>5.214070242232083e-08</v>
+        <v>0.2428421378135681</v>
       </c>
       <c r="AS10" t="n">
-        <v>5.846657558095103e-08</v>
+        <v>0.09929902851581573</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.986374170177442e-07</v>
+        <v>0.02828305214643478</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.50771904575231e-07</v>
+        <v>2.65886926651001</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.590201037515726e-07</v>
+        <v>0.1287001818418503</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.069262452801922e-06</v>
+        <v>0.1918876320123672</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.23452878142416e-07</v>
+        <v>0.9122968316078186</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.590411428282096e-07</v>
+        <v>0.1226783245801926</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.463723606320855e-06</v>
+        <v>0.1439353972673416</v>
       </c>
       <c r="BA10" t="n">
-        <v>5.480143840941309e-07</v>
+        <v>0.4164531230926514</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.165607035451103e-07</v>
+        <v>0.08821909129619598</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.816415107214198e-07</v>
+        <v>0.1635971367359161</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.385395525081549e-07</v>
+        <v>0.6286189556121826</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.341885678129984e-07</v>
+        <v>0.4834226667881012</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.907585439970717e-06</v>
+        <v>0.2988125383853912</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.855684558904613e-06</v>
+        <v>0.8022705316543579</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.333464183517208e-08</v>
+        <v>0.2933965623378754</v>
       </c>
       <c r="BI10" t="n">
-        <v>9.371880196340499e-07</v>
+        <v>0.06238115951418877</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3.150578038457752e-07</v>
+        <v>0.3342824578285217</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.7581876338445e-07</v>
+        <v>0.1370627731084824</v>
       </c>
       <c r="BL10" t="n">
-        <v>8.444050791922564e-08</v>
+        <v>0.7657926082611084</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.322480495171476e-07</v>
+        <v>0.775960385799408</v>
       </c>
       <c r="BN10" t="n">
-        <v>6.373629446443374e-08</v>
+        <v>0.4251776337623596</v>
       </c>
       <c r="BO10" t="n">
-        <v>4.113058480470499e-07</v>
+        <v>0.4603954553604126</v>
       </c>
       <c r="BP10" t="n">
-        <v>9.837461902861833e-07</v>
+        <v>0.506557285785675</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4.07828849802172e-07</v>
+        <v>0.1215766668319702</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.120034139352356e-07</v>
+        <v>0.000681757926940918</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.625410727181588e-07</v>
+        <v>0.1746088564395905</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.669563237134298e-08</v>
+        <v>0.2705256938934326</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.708062598027027e-07</v>
+        <v>0.1517038345336914</v>
       </c>
       <c r="BV10" t="n">
-        <v>4.155858590593198e-08</v>
+        <v>1.172972321510315</v>
       </c>
       <c r="BW10" t="n">
-        <v>6.06456580953818e-07</v>
+        <v>0.002627946436405182</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.157689777959604e-06</v>
+        <v>0.2413825243711472</v>
       </c>
       <c r="BY10" t="n">
-        <v>3.674175275136804e-08</v>
+        <v>0.4637473225593567</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3.751053441192198e-07</v>
+        <v>0.5192639827728271</v>
       </c>
       <c r="CA10" t="n">
-        <v>5.83489224936784e-07</v>
+        <v>0.2385213971138</v>
       </c>
       <c r="CB10" t="n">
-        <v>5.344700184650719e-07</v>
+        <v>0.03609398752450943</v>
       </c>
       <c r="CC10" t="n">
-        <v>6.874235509712889e-07</v>
+        <v>0.3155180215835571</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.314344473257734e-07</v>
+        <v>0.261329859495163</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.656698316310212e-07</v>
+        <v>0.5812427997589111</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.861458116536596e-07</v>
+        <v>0.1303350329399109</v>
       </c>
       <c r="CG10" t="n">
-        <v>8.697935527379741e-07</v>
+        <v>0.02710603736341</v>
       </c>
       <c r="CH10" t="n">
-        <v>5.442270776256919e-07</v>
+        <v>0.2941150367259979</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.909095885821444e-07</v>
+        <v>0.02329411916434765</v>
       </c>
       <c r="CJ10" t="n">
-        <v>5.579068584893321e-08</v>
+        <v>0.04900646209716797</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.027361946626115e-07</v>
+        <v>0.005365632474422455</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.209412682281254e-07</v>
+        <v>0.02292392030358315</v>
       </c>
       <c r="CM10" t="n">
-        <v>4.231857531067362e-07</v>
+        <v>0.5402891635894775</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.717387985740061e-07</v>
+        <v>0.5379021763801575</v>
       </c>
       <c r="CO10" t="n">
-        <v>6.122295417299028e-07</v>
+        <v>0.2344922423362732</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.110874902427895e-06</v>
+        <v>0.7848216891288757</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.401174469923717e-06</v>
+        <v>0.4209664463996887</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.722814204185852e-06</v>
+        <v>0.7108049392700195</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.205644247827877e-07</v>
+        <v>0.1841716766357422</v>
       </c>
       <c r="CT10" t="n">
-        <v>4.924089012092736e-07</v>
+        <v>0.1288821697235107</v>
       </c>
       <c r="CU10" t="n">
-        <v>8.259888204520394e-07</v>
+        <v>0.1123542562127113</v>
       </c>
       <c r="CV10" t="n">
-        <v>3.003418100888666e-07</v>
+        <v>0.263139933347702</v>
       </c>
       <c r="CW10" t="n">
-        <v>3.421441192585917e-07</v>
+        <v>0.4679365456104279</v>
       </c>
       <c r="CX10" t="n">
-        <v>3.363952316703944e-07</v>
+        <v>0.1153613477945328</v>
       </c>
       <c r="CY10" t="n">
-        <v>6.133894885351765e-07</v>
+        <v>0.1276547312736511</v>
       </c>
       <c r="CZ10" t="n">
-        <v>4.943646558785986e-07</v>
+        <v>0.4035972356796265</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.249368963840425e-08</v>
+        <v>0.05707046762108803</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.253085599728365e-07</v>
+        <v>0.0746186152100563</v>
       </c>
       <c r="DC10" t="n">
-        <v>9.620554664024894e-08</v>
+        <v>0.04086959362030029</v>
       </c>
       <c r="DD10" t="n">
-        <v>3.601417120080441e-07</v>
+        <v>0.04609106481075287</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.383800508847344e-06</v>
+        <v>0.1560661494731903</v>
       </c>
       <c r="DF10" t="n">
-        <v>3.178152212512941e-07</v>
+        <v>0.2966148257255554</v>
       </c>
       <c r="DG10" t="n">
-        <v>1.729086704926885e-07</v>
+        <v>0.2900713682174683</v>
       </c>
       <c r="DH10" t="n">
-        <v>9.407610264133837e-07</v>
+        <v>0.001359634101390839</v>
       </c>
       <c r="DI10" t="n">
-        <v>4.862949367634428e-07</v>
+        <v>0.1027947068214417</v>
       </c>
       <c r="DJ10" t="n">
-        <v>3.963181711696961e-07</v>
+        <v>0.2020589113235474</v>
       </c>
       <c r="DK10" t="n">
-        <v>6.959578513487941e-07</v>
+        <v>0.1234484538435936</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.612929509064998e-06</v>
+        <v>0.02953052148222923</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.061549710357212e-07</v>
+        <v>0.03698958083987236</v>
       </c>
       <c r="DN10" t="n">
-        <v>3.298272588381224e-07</v>
+        <v>0.3327633440494537</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.634320992456196e-07</v>
+        <v>0.04606333374977112</v>
       </c>
       <c r="DP10" t="n">
-        <v>6.448158273997251e-08</v>
+        <v>0.4292694628238678</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.521815645195602e-08</v>
+        <v>0.07787062972784042</v>
       </c>
       <c r="DR10" t="n">
-        <v>4.499295584992069e-07</v>
+        <v>0.209170326590538</v>
       </c>
       <c r="DS10" t="n">
-        <v>8.007082783478836e-07</v>
+        <v>0.5489481687545776</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.276143161201617e-07</v>
+        <v>0.051629938185215</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.393138546745831e-07</v>
+        <v>0.3286130726337433</v>
       </c>
       <c r="DV10" t="n">
-        <v>3.923953215689835e-07</v>
+        <v>0.06110271066427231</v>
       </c>
       <c r="DW10" t="n">
-        <v>5.966896878817352e-07</v>
+        <v>0.2247636914253235</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.735813839331968e-07</v>
+        <v>0.1647467613220215</v>
       </c>
       <c r="DY10" t="n">
-        <v>8.359000958080287e-08</v>
+        <v>0.4611459374427795</v>
       </c>
       <c r="DZ10" t="n">
-        <v>9.60814872996707e-07</v>
+        <v>0.05334829911589622</v>
       </c>
       <c r="EA10" t="n">
-        <v>7.273278015418327e-07</v>
+        <v>0.5623834133148193</v>
       </c>
       <c r="EB10" t="n">
-        <v>9.666414371167775e-07</v>
+        <v>0.3370214104652405</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.768227116069284e-09</v>
+        <v>0.101107120513916</v>
       </c>
       <c r="ED10" t="n">
-        <v>3.380548321274546e-07</v>
+        <v>0.08391360193490982</v>
       </c>
       <c r="EE10" t="n">
-        <v>3.011314220202621e-07</v>
+        <v>0.1054017469286919</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.017094035660193e-07</v>
+        <v>0.3187261819839478</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.177783843786528e-07</v>
+        <v>0.6981506943702698</v>
       </c>
       <c r="EH10" t="n">
-        <v>3.401373476208391e-07</v>
+        <v>0.1864461600780487</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.411495304637356e-06</v>
+        <v>0.06618285179138184</v>
       </c>
       <c r="EJ10" t="n">
-        <v>8.066445502663555e-07</v>
+        <v>0.192965105175972</v>
       </c>
       <c r="EK10" t="n">
-        <v>5.090653303341242e-07</v>
+        <v>0.1277605295181274</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.051504483484678e-07</v>
+        <v>0.06457316130399704</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.607356381327918e-08</v>
+        <v>0.02529794722795486</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.84206555786659e-07</v>
+        <v>0.1537914723157883</v>
       </c>
       <c r="EO10" t="n">
-        <v>5.439117103378521e-07</v>
+        <v>0.1400665044784546</v>
       </c>
       <c r="EP10" t="n">
-        <v>7.763626399537316e-07</v>
+        <v>0.2851600646972656</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.112323843699414e-06</v>
+        <v>0.1543286144733429</v>
       </c>
       <c r="ER10" t="n">
-        <v>4.584171620081179e-07</v>
+        <v>0.1911634802818298</v>
       </c>
       <c r="ES10" t="n">
-        <v>2.678053192539664e-07</v>
+        <v>0.5431419014930725</v>
       </c>
       <c r="ET10" t="n">
-        <v>9.317337230640987e-07</v>
+        <v>0.6593925356864929</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.996058074382745e-08</v>
+        <v>0.2463985532522202</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.962521250537975e-07</v>
+        <v>0.3647816777229309</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.477500717328439e-07</v>
+        <v>0.1693204194307327</v>
       </c>
       <c r="EX10" t="n">
-        <v>8.343146618017272e-08</v>
+        <v>0.208062469959259</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.18896913647859e-07</v>
+        <v>0.5207213759422302</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.752940903543276e-07</v>
+        <v>0.04756773263216019</v>
       </c>
       <c r="FA10" t="n">
-        <v>6.234691340978316e-07</v>
+        <v>0.01256264746189117</v>
       </c>
       <c r="FB10" t="n">
-        <v>5.410081485024421e-07</v>
+        <v>0.1920877397060394</v>
       </c>
       <c r="FC10" t="n">
-        <v>5.102368305642813e-08</v>
+        <v>0.1043529435992241</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.668275615429593e-07</v>
+        <v>0.08898127824068069</v>
       </c>
       <c r="FE10" t="n">
-        <v>2.000031145144021e-07</v>
+        <v>0.01611050218343735</v>
       </c>
       <c r="FF10" t="n">
-        <v>8.35464319948187e-08</v>
+        <v>0.02861223183572292</v>
       </c>
       <c r="FG10" t="n">
-        <v>5.121131039231841e-07</v>
+        <v>0.228925809264183</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.51366378986495e-07</v>
+        <v>0.2444266676902771</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.120988940783718e-06</v>
+        <v>0.06130684167146683</v>
       </c>
       <c r="FJ10" t="n">
-        <v>5.705755938834045e-07</v>
+        <v>0.1533127576112747</v>
       </c>
       <c r="FK10" t="n">
-        <v>3.396222894025414e-07</v>
+        <v>0.2953854501247406</v>
       </c>
       <c r="FL10" t="n">
-        <v>5.93532547554787e-07</v>
+        <v>0.1379604041576385</v>
       </c>
       <c r="FM10" t="n">
-        <v>4.807125719707983e-07</v>
+        <v>0.1346945464611053</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.995712750613166e-07</v>
+        <v>0.1360448747873306</v>
       </c>
       <c r="FO10" t="n">
-        <v>8.279600933747133e-07</v>
+        <v>0.1644273847341537</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.229062801006876e-08</v>
+        <v>0.1441007256507874</v>
       </c>
       <c r="FQ10" t="n">
-        <v>5.161280682841607e-07</v>
+        <v>0.5751029849052429</v>
       </c>
       <c r="FR10" t="n">
-        <v>4.398306714392675e-07</v>
+        <v>0.04259245842695236</v>
       </c>
       <c r="FS10" t="n">
-        <v>7.466775286957272e-07</v>
+        <v>0.4663733541965485</v>
       </c>
       <c r="FT10" t="n">
-        <v>4.473384933589841e-07</v>
+        <v>0.1202788054943085</v>
       </c>
       <c r="FU10" t="n">
-        <v>1.384069719279069e-06</v>
+        <v>0.3889542818069458</v>
       </c>
       <c r="FV10" t="n">
-        <v>4.279776533167023e-07</v>
+        <v>0.2776714563369751</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.69113903325524e-07</v>
+        <v>0.5029103755950928</v>
       </c>
       <c r="FX10" t="n">
-        <v>5.788630232927972e-07</v>
+        <v>0.04367944225668907</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.432685223790031e-07</v>
+        <v>0.4319815039634705</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.227470988851564e-06</v>
+        <v>0.1324585974216461</v>
       </c>
       <c r="GA10" t="n">
-        <v>5.186696512282651e-07</v>
+        <v>0.08970380574464798</v>
       </c>
       <c r="GB10" t="n">
-        <v>1.057902409229428e-06</v>
+        <v>0.1565422266721725</v>
       </c>
       <c r="GC10" t="n">
-        <v>6.147696467451169e-07</v>
+        <v>0.03353118523955345</v>
       </c>
       <c r="GD10" t="n">
-        <v>4.75638955776958e-07</v>
+        <v>0.3432328701019287</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.627849760017398e-08</v>
+        <v>0.640378475189209</v>
       </c>
       <c r="GF10" t="n">
-        <v>4.773567638949316e-07</v>
+        <v>0.3483477234840393</v>
       </c>
       <c r="GG10" t="n">
-        <v>5.337448669706646e-07</v>
+        <v>0.003223132342100143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.102897056488473e-08</v>
+        <v>0.002523351460695267</v>
       </c>
       <c r="B11" t="n">
-        <v>1.87629609627038e-07</v>
+        <v>0.07281702011823654</v>
       </c>
       <c r="C11" t="n">
-        <v>5.374116796019734e-08</v>
+        <v>0.006040370091795921</v>
       </c>
       <c r="D11" t="n">
-        <v>6.584454581570753e-08</v>
+        <v>0.03190439194440842</v>
       </c>
       <c r="E11" t="n">
-        <v>1.218955389958865e-07</v>
+        <v>0.01819773577153683</v>
       </c>
       <c r="F11" t="n">
-        <v>2.175437856521967e-07</v>
+        <v>0.05671674758195877</v>
       </c>
       <c r="G11" t="n">
-        <v>4.087324612100929e-08</v>
+        <v>0.006170190405100584</v>
       </c>
       <c r="H11" t="n">
-        <v>6.823253073662272e-08</v>
+        <v>0.02903575822710991</v>
       </c>
       <c r="I11" t="n">
-        <v>8.429775277818408e-08</v>
+        <v>0.001396904466673732</v>
       </c>
       <c r="J11" t="n">
-        <v>2.303936152969754e-09</v>
+        <v>0.009581746533513069</v>
       </c>
       <c r="K11" t="n">
-        <v>2.397090099748311e-07</v>
+        <v>0.06409283727407455</v>
       </c>
       <c r="L11" t="n">
-        <v>1.223864742883052e-08</v>
+        <v>0.001630811486393213</v>
       </c>
       <c r="M11" t="n">
-        <v>4.987477097984083e-09</v>
+        <v>0.02588959783315659</v>
       </c>
       <c r="N11" t="n">
-        <v>3.212619503756287e-08</v>
+        <v>0.002667339984327555</v>
       </c>
       <c r="O11" t="n">
-        <v>3.616451493826389e-08</v>
+        <v>0.05497059971094131</v>
       </c>
       <c r="P11" t="n">
-        <v>2.190715164829271e-08</v>
+        <v>0.005525434389710426</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.557068429747233e-07</v>
+        <v>0.01090516988188028</v>
       </c>
       <c r="R11" t="n">
-        <v>7.314354633081166e-08</v>
+        <v>0.0004186881997156888</v>
       </c>
       <c r="S11" t="n">
-        <v>3.328012354586463e-08</v>
+        <v>0.002029633615165949</v>
       </c>
       <c r="T11" t="n">
-        <v>2.894073425352417e-09</v>
+        <v>0.005195054225623608</v>
       </c>
       <c r="U11" t="n">
-        <v>4.375119289079521e-08</v>
+        <v>0.0002979196142405272</v>
       </c>
       <c r="V11" t="n">
-        <v>6.829716170386746e-08</v>
+        <v>0.01229070499539375</v>
       </c>
       <c r="W11" t="n">
-        <v>9.67743858382164e-08</v>
+        <v>0.01591245085000992</v>
       </c>
       <c r="X11" t="n">
-        <v>1.585796560732433e-08</v>
+        <v>0.001616558991372585</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.469641368132216e-08</v>
+        <v>0.003504664404317737</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.525874348042635e-08</v>
+        <v>0.006241098046302795</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.133850607322074e-08</v>
+        <v>0.00633116252720356</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.112138896061879e-08</v>
+        <v>5.252636037766933e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.006147508699542e-08</v>
+        <v>0.00412042299285531</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.245111450198237e-08</v>
+        <v>0.001863370416685939</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.410569390411183e-08</v>
+        <v>0.003970462828874588</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.100788651342555e-07</v>
+        <v>0.006424773018807173</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.32912957598819e-08</v>
+        <v>0.006522891111671925</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.998976604359996e-08</v>
+        <v>0.0009267558343708515</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.735451935606761e-08</v>
+        <v>0.003019107505679131</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.033348860981278e-08</v>
+        <v>0.004170420113950968</v>
       </c>
       <c r="AK11" t="n">
-        <v>6.606792624097579e-08</v>
+        <v>0.009469533339142799</v>
       </c>
       <c r="AL11" t="n">
-        <v>5.976660588657978e-08</v>
+        <v>0.009140579961240292</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.201112264150652e-08</v>
+        <v>0.003592010121792555</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.586388407304185e-07</v>
+        <v>0.0007847498636692762</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.47143994158705e-09</v>
+        <v>0.0006042813183739781</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.539586567238075e-08</v>
+        <v>0.01308280695229769</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.529567393911748e-08</v>
+        <v>0.002173536224290729</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.025372580760632e-08</v>
+        <v>0.005116630345582962</v>
       </c>
       <c r="AS11" t="n">
-        <v>8.334827938938361e-09</v>
+        <v>0.006320243701338768</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.947350700807874e-08</v>
+        <v>0.003477287944406271</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.892686552513624e-07</v>
+        <v>0.05029768869280815</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.596588271648216e-08</v>
+        <v>0.002204193733632565</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.774789382125164e-07</v>
+        <v>0.01067306939512491</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.74731235094805e-07</v>
+        <v>0.0103005189448595</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.449849804657788e-07</v>
+        <v>0.02980122715234756</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.007752352208627e-09</v>
+        <v>0.0144027266651392</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.650799497099342e-08</v>
+        <v>0.0002016283106058836</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.277779659858425e-07</v>
+        <v>0.004175396636128426</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.678460748166799e-08</v>
+        <v>0.0003112056292593479</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.018435202837509e-08</v>
+        <v>0.02404507249593735</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.814094995391315e-08</v>
+        <v>0.01642853766679764</v>
       </c>
       <c r="BF11" t="n">
-        <v>7.097785470477902e-09</v>
+        <v>6.880133878439665e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.092641994659971e-07</v>
+        <v>0.01156158186495304</v>
       </c>
       <c r="BH11" t="n">
-        <v>9.588588056885783e-08</v>
+        <v>0.01836494542658329</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.033254548588047e-07</v>
+        <v>0.008281122893095016</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.530499270709697e-08</v>
+        <v>0.003162482520565391</v>
       </c>
       <c r="BK11" t="n">
-        <v>3.03633314047147e-08</v>
+        <v>0.004748777486383915</v>
       </c>
       <c r="BL11" t="n">
-        <v>2.496376083627183e-08</v>
+        <v>0.007710183504968882</v>
       </c>
       <c r="BM11" t="n">
-        <v>3.971265627455978e-08</v>
+        <v>0.01991172134876251</v>
       </c>
       <c r="BN11" t="n">
-        <v>8.650005156596308e-08</v>
+        <v>0.004444137215614319</v>
       </c>
       <c r="BO11" t="n">
-        <v>7.956796821417811e-08</v>
+        <v>0.0001109540462493896</v>
       </c>
       <c r="BP11" t="n">
-        <v>8.944080320816283e-08</v>
+        <v>0.006203819997608662</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5.872056618727584e-08</v>
+        <v>0.002788731828331947</v>
       </c>
       <c r="BR11" t="n">
-        <v>5.855774176666273e-08</v>
+        <v>0.004304485395550728</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.038450392343293e-07</v>
+        <v>0.009714061394333839</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.00984705042606e-08</v>
+        <v>0.002812004648149014</v>
       </c>
       <c r="BU11" t="n">
-        <v>4.073705639484615e-08</v>
+        <v>0.00440661795437336</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.112038461315024e-08</v>
+        <v>0.02793118357658386</v>
       </c>
       <c r="BW11" t="n">
-        <v>4.469255543426698e-08</v>
+        <v>0.003739431034773588</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.527373711951441e-07</v>
+        <v>0.01002043671905994</v>
       </c>
       <c r="BY11" t="n">
-        <v>6.281460684931517e-08</v>
+        <v>0.001208984293043613</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.0011974183044e-07</v>
+        <v>0.009285642765462399</v>
       </c>
       <c r="CA11" t="n">
-        <v>3.734017539613887e-08</v>
+        <v>0.003081472590565681</v>
       </c>
       <c r="CB11" t="n">
-        <v>2.52481324736209e-08</v>
+        <v>0.003773362841457129</v>
       </c>
       <c r="CC11" t="n">
-        <v>9.943681789081893e-08</v>
+        <v>0.004597455263137817</v>
       </c>
       <c r="CD11" t="n">
-        <v>3.747658894326378e-08</v>
+        <v>0.0007696010870859027</v>
       </c>
       <c r="CE11" t="n">
-        <v>4.858723556822042e-08</v>
+        <v>0.01081119664013386</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.361120549603356e-08</v>
+        <v>0.004629408475011587</v>
       </c>
       <c r="CG11" t="n">
-        <v>3.506814394427238e-08</v>
+        <v>0.004821871407330036</v>
       </c>
       <c r="CH11" t="n">
-        <v>2.954450195602476e-08</v>
+        <v>0.0006930115632712841</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.787128134367322e-08</v>
+        <v>0.009394615888595581</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.147164496728692e-08</v>
+        <v>0.005653659347444773</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.745335787006752e-08</v>
+        <v>0.00699986657127738</v>
       </c>
       <c r="CL11" t="n">
-        <v>7.991357797720866e-09</v>
+        <v>0.004823201801627874</v>
       </c>
       <c r="CM11" t="n">
-        <v>4.858437563370899e-08</v>
+        <v>0.01305003836750984</v>
       </c>
       <c r="CN11" t="n">
-        <v>8.115245719864106e-08</v>
+        <v>0.01242872700095177</v>
       </c>
       <c r="CO11" t="n">
-        <v>2.042899005516574e-08</v>
+        <v>0.0002165373880416155</v>
       </c>
       <c r="CP11" t="n">
-        <v>9.619430585416922e-08</v>
+        <v>0.00943378359079361</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.524743969445353e-08</v>
+        <v>0.001985516166314483</v>
       </c>
       <c r="CR11" t="n">
-        <v>1.241212288505267e-08</v>
+        <v>0.004754066001623869</v>
       </c>
       <c r="CS11" t="n">
-        <v>4.066095016241889e-09</v>
+        <v>0.01165633648633957</v>
       </c>
       <c r="CT11" t="n">
-        <v>6.542084918237379e-08</v>
+        <v>0.01327299419790506</v>
       </c>
       <c r="CU11" t="n">
-        <v>7.286560332886438e-08</v>
+        <v>0.002588554751127958</v>
       </c>
       <c r="CV11" t="n">
-        <v>4.763435867971566e-08</v>
+        <v>0.0004808695521205664</v>
       </c>
       <c r="CW11" t="n">
-        <v>3.064070597247337e-08</v>
+        <v>0.008412711322307587</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.133434324174232e-08</v>
+        <v>0.004426936618983746</v>
       </c>
       <c r="CY11" t="n">
-        <v>2.922963204810003e-08</v>
+        <v>0.007872167974710464</v>
       </c>
       <c r="CZ11" t="n">
-        <v>2.418521205527213e-08</v>
+        <v>5.409732693806291e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>2.625450079563052e-08</v>
+        <v>0.009027101099491119</v>
       </c>
       <c r="DB11" t="n">
-        <v>8.180059296591935e-09</v>
+        <v>0.004821630194783211</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.586044184875846e-08</v>
+        <v>0.009975369088351727</v>
       </c>
       <c r="DD11" t="n">
-        <v>7.557372505573312e-10</v>
+        <v>0.001958680804818869</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.018777329164777e-08</v>
+        <v>0.004519997164607048</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.469442025836543e-07</v>
+        <v>0.009379184804856777</v>
       </c>
       <c r="DG11" t="n">
-        <v>3.763223688224571e-08</v>
+        <v>0.002946229884400964</v>
       </c>
       <c r="DH11" t="n">
-        <v>1.901973405438184e-07</v>
+        <v>0.02941153198480606</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.78691379915108e-07</v>
+        <v>0.02200022898614407</v>
       </c>
       <c r="DJ11" t="n">
-        <v>8.681615071282067e-08</v>
+        <v>0.006101273465901613</v>
       </c>
       <c r="DK11" t="n">
-        <v>4.334100367486826e-08</v>
+        <v>0.01326491497457027</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.200266197542987e-08</v>
+        <v>0.01183638349175453</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.704132467419186e-08</v>
+        <v>0.01891184411942959</v>
       </c>
       <c r="DN11" t="n">
-        <v>6.798299523325113e-08</v>
+        <v>0.001927845063619316</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.551465977911448e-08</v>
+        <v>0.004097322933375835</v>
       </c>
       <c r="DP11" t="n">
-        <v>2.335033144618137e-08</v>
+        <v>0.005700455512851477</v>
       </c>
       <c r="DQ11" t="n">
-        <v>2.511576546737615e-08</v>
+        <v>0.0002690311521291733</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.624332952587793e-07</v>
+        <v>0.001483368105255067</v>
       </c>
       <c r="DS11" t="n">
-        <v>9.731692784953339e-08</v>
+        <v>0.002436913084238768</v>
       </c>
       <c r="DT11" t="n">
-        <v>9.010109991436366e-09</v>
+        <v>0.0003558473836164922</v>
       </c>
       <c r="DU11" t="n">
-        <v>3.302007911543114e-08</v>
+        <v>0.001082577859051526</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.05721911225487e-08</v>
+        <v>0.001800675294362009</v>
       </c>
       <c r="DW11" t="n">
-        <v>2.058876091837192e-08</v>
+        <v>0.0002224954077973962</v>
       </c>
       <c r="DX11" t="n">
-        <v>2.726672221342596e-08</v>
+        <v>0.0001712956000119448</v>
       </c>
       <c r="DY11" t="n">
-        <v>4.166749789646929e-08</v>
+        <v>0.001929591177031398</v>
       </c>
       <c r="DZ11" t="n">
-        <v>4.456295954469169e-08</v>
+        <v>0.003344300203025341</v>
       </c>
       <c r="EA11" t="n">
-        <v>2.096809303964164e-08</v>
+        <v>0.001711837016046047</v>
       </c>
       <c r="EB11" t="n">
-        <v>3.380858704105094e-09</v>
+        <v>0.006993784569203854</v>
       </c>
       <c r="EC11" t="n">
-        <v>2.430171619494104e-10</v>
+        <v>0.001105634961277246</v>
       </c>
       <c r="ED11" t="n">
-        <v>2.362594031524168e-08</v>
+        <v>0.0006164039950817823</v>
       </c>
       <c r="EE11" t="n">
-        <v>5.890707477362866e-09</v>
+        <v>0.005975584499537945</v>
       </c>
       <c r="EF11" t="n">
-        <v>3.031043149803736e-08</v>
+        <v>0.001365508418530226</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.161441343100478e-08</v>
+        <v>0.008456510491669178</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.022143436557599e-08</v>
+        <v>0.002885882277041674</v>
       </c>
       <c r="EI11" t="n">
-        <v>4.92824483444565e-08</v>
+        <v>0.003049247665330768</v>
       </c>
       <c r="EJ11" t="n">
-        <v>5.007353109931501e-08</v>
+        <v>0.005031582899391651</v>
       </c>
       <c r="EK11" t="n">
-        <v>5.723900642351509e-08</v>
+        <v>0.008059365674853325</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.282969286364732e-10</v>
+        <v>0.004298615735024214</v>
       </c>
       <c r="EM11" t="n">
-        <v>1.216391964931063e-08</v>
+        <v>0.002636656630784273</v>
       </c>
       <c r="EN11" t="n">
-        <v>5.189078322587193e-08</v>
+        <v>0.002385216765105724</v>
       </c>
       <c r="EO11" t="n">
-        <v>5.998401775286766e-08</v>
+        <v>0.003194279037415981</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.039570065586304e-07</v>
+        <v>0.003572911024093628</v>
       </c>
       <c r="EQ11" t="n">
-        <v>1.116798209466197e-09</v>
+        <v>0.003484253771603107</v>
       </c>
       <c r="ER11" t="n">
-        <v>3.494769984513368e-08</v>
+        <v>0.007477376144379377</v>
       </c>
       <c r="ES11" t="n">
-        <v>6.207719138728862e-08</v>
+        <v>0.004769839346408844</v>
       </c>
       <c r="ET11" t="n">
-        <v>6.965424859117775e-08</v>
+        <v>0.009212703444063663</v>
       </c>
       <c r="EU11" t="n">
-        <v>4.978245726761088e-08</v>
+        <v>0.00849333219230175</v>
       </c>
       <c r="EV11" t="n">
-        <v>8.374171045488765e-08</v>
+        <v>0.02072001993656158</v>
       </c>
       <c r="EW11" t="n">
-        <v>4.4750292360618e-10</v>
+        <v>0.001305469777435064</v>
       </c>
       <c r="EX11" t="n">
-        <v>4.138812670362313e-08</v>
+        <v>4.340277519077063e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>4.88653455477106e-08</v>
+        <v>0.007560973986983299</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.044757252406271e-09</v>
+        <v>0.002573669655248523</v>
       </c>
       <c r="FA11" t="n">
-        <v>2.024627576702187e-08</v>
+        <v>0.006185645237565041</v>
       </c>
       <c r="FB11" t="n">
-        <v>2.717555425135743e-08</v>
+        <v>0.0009189149714075029</v>
       </c>
       <c r="FC11" t="n">
-        <v>1.329019561069344e-08</v>
+        <v>0.009255463257431984</v>
       </c>
       <c r="FD11" t="n">
-        <v>7.688463199428952e-09</v>
+        <v>0.007737664040178061</v>
       </c>
       <c r="FE11" t="n">
-        <v>3.137800064223484e-08</v>
+        <v>0.008050135336816311</v>
       </c>
       <c r="FF11" t="n">
-        <v>1.641803848428935e-08</v>
+        <v>0.004199169110506773</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.07828810769206e-07</v>
+        <v>0.0009680470102466643</v>
       </c>
       <c r="FH11" t="n">
-        <v>5.982513329172434e-08</v>
+        <v>0.004354287404567003</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.826719042696823e-08</v>
+        <v>0.001092619728296995</v>
       </c>
       <c r="FJ11" t="n">
-        <v>6.824221543411113e-08</v>
+        <v>0.01130884140729904</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.957624462534113e-08</v>
+        <v>0.0004029474221169949</v>
       </c>
       <c r="FL11" t="n">
-        <v>2.291366207884948e-08</v>
+        <v>0.002323185093700886</v>
       </c>
       <c r="FM11" t="n">
-        <v>1.271672367408883e-08</v>
+        <v>0.003784888191148639</v>
       </c>
       <c r="FN11" t="n">
-        <v>1.125549502489775e-07</v>
+        <v>0.001887709833681583</v>
       </c>
       <c r="FO11" t="n">
-        <v>2.472979865331126e-08</v>
+        <v>0.001907600671984255</v>
       </c>
       <c r="FP11" t="n">
-        <v>2.913512275881658e-08</v>
+        <v>0.007997907698154449</v>
       </c>
       <c r="FQ11" t="n">
-        <v>4.811656850733925e-09</v>
+        <v>0.005106039345264435</v>
       </c>
       <c r="FR11" t="n">
-        <v>6.97922786230265e-08</v>
+        <v>0.006186880171298981</v>
       </c>
       <c r="FS11" t="n">
-        <v>3.10774765921451e-08</v>
+        <v>0.004508732352405787</v>
       </c>
       <c r="FT11" t="n">
-        <v>1.966185010360277e-07</v>
+        <v>0.01113145612180233</v>
       </c>
       <c r="FU11" t="n">
-        <v>1.230306878596821e-07</v>
+        <v>0.01121143624186516</v>
       </c>
       <c r="FV11" t="n">
-        <v>1.433837759634571e-08</v>
+        <v>0.01047254353761673</v>
       </c>
       <c r="FW11" t="n">
-        <v>3.878441390270382e-08</v>
+        <v>0.001520180143415928</v>
       </c>
       <c r="FX11" t="n">
-        <v>5.006766112813921e-09</v>
+        <v>0.002951953327283263</v>
       </c>
       <c r="FY11" t="n">
-        <v>1.334046118017795e-08</v>
+        <v>0.009687216952443123</v>
       </c>
       <c r="FZ11" t="n">
-        <v>4.094778915941788e-08</v>
+        <v>0.001893731532618403</v>
       </c>
       <c r="GA11" t="n">
-        <v>3.374361057240094e-08</v>
+        <v>0.002675845753401518</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.225596690801467e-07</v>
+        <v>0.0008528433972969651</v>
       </c>
       <c r="GC11" t="n">
-        <v>9.48509821796506e-08</v>
+        <v>0.007645869627594948</v>
       </c>
       <c r="GD11" t="n">
-        <v>2.216452088532606e-08</v>
+        <v>0.01001482736319304</v>
       </c>
       <c r="GE11" t="n">
-        <v>5.83460035841199e-09</v>
+        <v>0.01951874978840351</v>
       </c>
       <c r="GF11" t="n">
-        <v>2.391825937309022e-08</v>
+        <v>0.0002345271641388535</v>
       </c>
       <c r="GG11" t="n">
-        <v>1.698163565322375e-08</v>
+        <v>0.0003333883068989962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.676566168702266e-07</v>
+        <v>0.005460030399262905</v>
       </c>
       <c r="B12" t="n">
-        <v>2.261315046325763e-07</v>
+        <v>0.05280204862356186</v>
       </c>
       <c r="C12" t="n">
-        <v>5.099427653476596e-07</v>
+        <v>0.004853290971368551</v>
       </c>
       <c r="D12" t="n">
-        <v>1.985000380955171e-06</v>
+        <v>0.03464989736676216</v>
       </c>
       <c r="E12" t="n">
-        <v>4.095460326425382e-08</v>
+        <v>0.005980200134217739</v>
       </c>
       <c r="F12" t="n">
-        <v>2.984257321259065e-07</v>
+        <v>0.007623841520398855</v>
       </c>
       <c r="G12" t="n">
-        <v>1.811575742749483e-07</v>
+        <v>0.00846805889159441</v>
       </c>
       <c r="H12" t="n">
-        <v>6.866459330012731e-07</v>
+        <v>0.005205613560974598</v>
       </c>
       <c r="I12" t="n">
-        <v>2.317051439604256e-07</v>
+        <v>0.004037462174892426</v>
       </c>
       <c r="J12" t="n">
-        <v>3.374505581632548e-07</v>
+        <v>0.009791787713766098</v>
       </c>
       <c r="K12" t="n">
-        <v>1.687978254949485e-07</v>
+        <v>0.03795716539025307</v>
       </c>
       <c r="L12" t="n">
-        <v>4.448675383628142e-07</v>
+        <v>0.0002239152527181432</v>
       </c>
       <c r="M12" t="n">
-        <v>1.880861418612767e-06</v>
+        <v>0.02947114780545235</v>
       </c>
       <c r="N12" t="n">
-        <v>6.209940011103754e-07</v>
+        <v>0.01296728570014238</v>
       </c>
       <c r="O12" t="n">
-        <v>4.687026660121774e-07</v>
+        <v>0.01413424219936132</v>
       </c>
       <c r="P12" t="n">
-        <v>3.89044942039618e-07</v>
+        <v>0.0026837307959795</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.107758293983352e-06</v>
+        <v>0.005204543005675077</v>
       </c>
       <c r="R12" t="n">
-        <v>2.056085293133947e-07</v>
+        <v>0.005009068641811609</v>
       </c>
       <c r="S12" t="n">
-        <v>4.193044844669203e-08</v>
+        <v>0.002389909932389855</v>
       </c>
       <c r="T12" t="n">
-        <v>3.825866770057473e-07</v>
+        <v>0.007640112657099962</v>
       </c>
       <c r="U12" t="n">
-        <v>2.80125362905892e-07</v>
+        <v>0.002020495478063822</v>
       </c>
       <c r="V12" t="n">
-        <v>7.635330234734283e-08</v>
+        <v>0.005986384116113186</v>
       </c>
       <c r="W12" t="n">
-        <v>1.088652538783208e-06</v>
+        <v>0.003250276204198599</v>
       </c>
       <c r="X12" t="n">
-        <v>2.516571662170008e-08</v>
+        <v>0.004093717783689499</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.900826163137026e-07</v>
+        <v>0.006699937861412764</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.011431767343311e-07</v>
+        <v>0.002695237984880805</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.929182668116482e-08</v>
+        <v>0.005715261679142714</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.223175136848113e-08</v>
+        <v>0.002322747837752104</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.81080360764463e-07</v>
+        <v>0.01012785453349352</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.015897422324997e-07</v>
+        <v>0.001813132083043456</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.28177285066522e-07</v>
+        <v>0.001142690423876047</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.155664943387819e-08</v>
+        <v>0.001402397407218814</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.374330847487727e-07</v>
+        <v>0.0005761455395258963</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.858220113921561e-07</v>
+        <v>0.006737926974892616</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.925620373796846e-07</v>
+        <v>0.0005350022693164647</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.511958060973484e-07</v>
+        <v>0.002444154117256403</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.629365016242446e-07</v>
+        <v>0.005081765353679657</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.044097240945121e-07</v>
+        <v>0.00699616177007556</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.152191810495424e-08</v>
+        <v>0.0001600726536707953</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.149381306386204e-07</v>
+        <v>0.003209324320778251</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.809625160831274e-07</v>
+        <v>0.004395507276058197</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.21895839761055e-07</v>
+        <v>0.004962841514497995</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7.141048996572863e-08</v>
+        <v>0.001924590324051678</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.702859009355961e-07</v>
+        <v>0.001507728127762675</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.190523566511729e-09</v>
+        <v>0.002241628710180521</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.841333698848757e-07</v>
+        <v>0.00367656210437417</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.182474976412777e-08</v>
+        <v>0.03806880861520767</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.315997621986753e-07</v>
+        <v>0.001521203201264143</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.024338189381524e-06</v>
+        <v>0.007513222750276327</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.378950949212594e-08</v>
+        <v>0.005072045139968395</v>
       </c>
       <c r="AY12" t="n">
-        <v>2.066472575279477e-07</v>
+        <v>0.003820053767412901</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.693991436013675e-07</v>
+        <v>0.002320947125554085</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.908363399001246e-07</v>
+        <v>0.0006009371136315167</v>
       </c>
       <c r="BB12" t="n">
-        <v>9.453145821680664e-08</v>
+        <v>0.003119384171441197</v>
       </c>
       <c r="BC12" t="n">
-        <v>2.946026143035851e-07</v>
+        <v>0.0004082424566149712</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.210792473533729e-07</v>
+        <v>0.007625196129083633</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.574340550789202e-08</v>
+        <v>0.007737045176327229</v>
       </c>
       <c r="BF12" t="n">
-        <v>9.137888241639303e-07</v>
+        <v>0.005538720171898603</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.073881202908524e-07</v>
+        <v>0.01733459532260895</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.524004685255932e-07</v>
+        <v>9.990122634917498e-06</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.021732103367867e-07</v>
+        <v>0.01035288628190756</v>
       </c>
       <c r="BJ12" t="n">
-        <v>7.990342254515781e-08</v>
+        <v>0.004958489909768105</v>
       </c>
       <c r="BK12" t="n">
-        <v>4.481477233753139e-08</v>
+        <v>0.005471874494105577</v>
       </c>
       <c r="BL12" t="n">
-        <v>3.566095756468712e-07</v>
+        <v>0.005838175304234028</v>
       </c>
       <c r="BM12" t="n">
-        <v>4.351823790216258e-08</v>
+        <v>0.005083749070763588</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.519005875001312e-07</v>
+        <v>0.003862782614305615</v>
       </c>
       <c r="BO12" t="n">
-        <v>4.730256364382512e-08</v>
+        <v>0.003927381709218025</v>
       </c>
       <c r="BP12" t="n">
-        <v>3.013141736118996e-08</v>
+        <v>0.004772151820361614</v>
       </c>
       <c r="BQ12" t="n">
-        <v>7.980638372373505e-09</v>
+        <v>0.002538402564823627</v>
       </c>
       <c r="BR12" t="n">
-        <v>3.379486201993132e-08</v>
+        <v>0.005370783619582653</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.888276273120937e-07</v>
+        <v>0.004277621861547232</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.808162236078715e-08</v>
+        <v>0.002095180563628674</v>
       </c>
       <c r="BU12" t="n">
-        <v>9.489397712059144e-08</v>
+        <v>0.003921977244317532</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.517153691565909e-07</v>
+        <v>0.01829387992620468</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.090412027338061e-07</v>
+        <v>0.003990655299276114</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.766096470935736e-07</v>
+        <v>0.006311842706054449</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.05736390310085e-07</v>
+        <v>0.001341844792477787</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.048024896339484e-07</v>
+        <v>0.002714172936975956</v>
       </c>
       <c r="CA12" t="n">
-        <v>2.140457269206308e-07</v>
+        <v>0.001744135865010321</v>
       </c>
       <c r="CB12" t="n">
-        <v>4.816677687813353e-07</v>
+        <v>0.001910978928208351</v>
       </c>
       <c r="CC12" t="n">
-        <v>2.521924784559815e-07</v>
+        <v>0.004657157231122255</v>
       </c>
       <c r="CD12" t="n">
-        <v>3.019008261162526e-07</v>
+        <v>0.00230748625472188</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.043666628675055e-07</v>
+        <v>0.009173620492219925</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.805114919761763e-07</v>
+        <v>0.003837909549474716</v>
       </c>
       <c r="CG12" t="n">
-        <v>4.240353632667393e-07</v>
+        <v>0.003198492573574185</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.500027337897336e-07</v>
+        <v>0.00301161059178412</v>
       </c>
       <c r="CI12" t="n">
-        <v>7.378557853598977e-08</v>
+        <v>0.001868810155428946</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.523235664853019e-08</v>
+        <v>0.003287613391876221</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.135933374030174e-07</v>
+        <v>0.001920934533700347</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.579004660356986e-08</v>
+        <v>0.002517853165045381</v>
       </c>
       <c r="CM12" t="n">
-        <v>6.638975946771097e-08</v>
+        <v>0.01136799529194832</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.581998330697388e-07</v>
+        <v>0.003175202291458845</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.516198378543777e-07</v>
+        <v>0.003179429098963737</v>
       </c>
       <c r="CP12" t="n">
-        <v>7.267057071658201e-07</v>
+        <v>0.01001961436122656</v>
       </c>
       <c r="CQ12" t="n">
-        <v>6.773983614039025e-07</v>
+        <v>0.007674350403249264</v>
       </c>
       <c r="CR12" t="n">
-        <v>9.072243756236276e-07</v>
+        <v>0.005348740145564079</v>
       </c>
       <c r="CS12" t="n">
-        <v>2.410663313412442e-08</v>
+        <v>0.005328534170985222</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.918759906516243e-08</v>
+        <v>0.00512966699898243</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.875101673931567e-08</v>
+        <v>0.001347871031612158</v>
       </c>
       <c r="CV12" t="n">
-        <v>3.636050109889766e-07</v>
+        <v>0.002178697846829891</v>
       </c>
       <c r="CW12" t="n">
-        <v>2.016459177411889e-07</v>
+        <v>0.007907826453447342</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.239592108959187e-07</v>
+        <v>0.004379888065159321</v>
       </c>
       <c r="CY12" t="n">
-        <v>3.803205856911518e-07</v>
+        <v>0.005292268935590982</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.642535778501042e-07</v>
+        <v>0.003313856897875667</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.070160706717616e-07</v>
+        <v>0.002864897018298507</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.172987929010105e-08</v>
+        <v>0.003465691348537803</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.125080828501268e-07</v>
+        <v>0.002487870398908854</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.572327665959165e-08</v>
+        <v>0.001671903650276363</v>
       </c>
       <c r="DE12" t="n">
-        <v>2.921621842233435e-07</v>
+        <v>0.005201552994549274</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.563687561656479e-07</v>
+        <v>0.001305847428739071</v>
       </c>
       <c r="DG12" t="n">
-        <v>4.236314339323144e-07</v>
+        <v>0.00425605196505785</v>
       </c>
       <c r="DH12" t="n">
-        <v>3.56086005126599e-08</v>
+        <v>0.0165798906236887</v>
       </c>
       <c r="DI12" t="n">
-        <v>6.056830557099602e-07</v>
+        <v>0.002346593886613846</v>
       </c>
       <c r="DJ12" t="n">
-        <v>5.219676069145862e-08</v>
+        <v>0.006343180313706398</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.48787648868165e-07</v>
+        <v>0.005703977774828672</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.680091230582548e-07</v>
+        <v>0.0003756058868020773</v>
       </c>
       <c r="DM12" t="n">
-        <v>4.007258880278641e-08</v>
+        <v>0.0002968115732073784</v>
       </c>
       <c r="DN12" t="n">
-        <v>7.280793568043009e-08</v>
+        <v>0.002890982665121555</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.467264780785626e-07</v>
+        <v>0.0005648656515404582</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.342140762972122e-07</v>
+        <v>0.00300738075748086</v>
       </c>
       <c r="DQ12" t="n">
-        <v>5.1421064739543e-08</v>
+        <v>0.0009020823054015636</v>
       </c>
       <c r="DR12" t="n">
-        <v>3.893231053098134e-07</v>
+        <v>0.008485578931868076</v>
       </c>
       <c r="DS12" t="n">
-        <v>5.061086767454981e-07</v>
+        <v>0.004741355776786804</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.848281101501925e-07</v>
+        <v>0.00186455633956939</v>
       </c>
       <c r="DU12" t="n">
-        <v>2.103345195791917e-07</v>
+        <v>0.0009331251494586468</v>
       </c>
       <c r="DV12" t="n">
-        <v>7.116008760021941e-08</v>
+        <v>0.004479401744902134</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.385632456025633e-07</v>
+        <v>0.0004421737394295633</v>
       </c>
       <c r="DX12" t="n">
-        <v>2.317935638984636e-07</v>
+        <v>5.208191851124866e-06</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.029363261295657e-10</v>
+        <v>0.007645980454981327</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.000586445978115e-07</v>
+        <v>0.0003518943267408758</v>
       </c>
       <c r="EA12" t="n">
-        <v>9.184122973238118e-08</v>
+        <v>0.005600688513368368</v>
       </c>
       <c r="EB12" t="n">
-        <v>2.116588007083919e-07</v>
+        <v>0.001040404895320535</v>
       </c>
       <c r="EC12" t="n">
-        <v>9.207361983953888e-08</v>
+        <v>7.417402230203152e-06</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.252757091980584e-08</v>
+        <v>0.0001091655867639929</v>
       </c>
       <c r="EE12" t="n">
-        <v>9.290138081041732e-08</v>
+        <v>0.003437376115471125</v>
       </c>
       <c r="EF12" t="n">
-        <v>7.149315450760696e-08</v>
+        <v>0.0004080620128661394</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.472215842568403e-07</v>
+        <v>0.006056469399482012</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.904356423665376e-07</v>
+        <v>0.003813945688307285</v>
       </c>
       <c r="EI12" t="n">
-        <v>5.487322027875052e-07</v>
+        <v>0.004707986023277044</v>
       </c>
       <c r="EJ12" t="n">
-        <v>8.465269729640568e-08</v>
+        <v>0.003410001285374165</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.727131007100979e-07</v>
+        <v>0.003969352692365646</v>
       </c>
       <c r="EL12" t="n">
-        <v>6.610346758861851e-08</v>
+        <v>0.005034858826547861</v>
       </c>
       <c r="EM12" t="n">
-        <v>2.652107866651932e-07</v>
+        <v>0.0001902483199955896</v>
       </c>
       <c r="EN12" t="n">
-        <v>6.218132853064162e-08</v>
+        <v>0.00170551729388535</v>
       </c>
       <c r="EO12" t="n">
-        <v>4.478032167298807e-07</v>
+        <v>0.001966556068509817</v>
       </c>
       <c r="EP12" t="n">
-        <v>2.987878247040499e-07</v>
+        <v>0.007794935256242752</v>
       </c>
       <c r="EQ12" t="n">
-        <v>3.421720009555429e-07</v>
+        <v>0.0009181207278743386</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.44949893865487e-07</v>
+        <v>0.004822219721972942</v>
       </c>
       <c r="ES12" t="n">
-        <v>7.445687089102648e-08</v>
+        <v>0.002127046464011073</v>
       </c>
       <c r="ET12" t="n">
-        <v>2.280876287841238e-08</v>
+        <v>0.008483070880174637</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.844179919885391e-08</v>
+        <v>0.005740197375416756</v>
       </c>
       <c r="EV12" t="n">
-        <v>8.086022518227765e-09</v>
+        <v>0.006370651070028543</v>
       </c>
       <c r="EW12" t="n">
-        <v>3.163033568398532e-08</v>
+        <v>0.0001642692368477583</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.013194032064348e-07</v>
+        <v>0.0005784820532426238</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.558533426759823e-07</v>
+        <v>0.007974413223564625</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.715276454206105e-07</v>
+        <v>0.002299661282449961</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.449652297149441e-07</v>
+        <v>0.005629262886941433</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.933600515258149e-07</v>
+        <v>0.002398597542196512</v>
       </c>
       <c r="FC12" t="n">
-        <v>1.649020902050324e-07</v>
+        <v>0.002273598918691278</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.628560220012787e-08</v>
+        <v>0.003800481325015426</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.304019150438762e-07</v>
+        <v>0.001558005693368614</v>
       </c>
       <c r="FF12" t="n">
-        <v>6.740345170896944e-09</v>
+        <v>0.002853298326954246</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.177158850396154e-07</v>
+        <v>0.000951200257986784</v>
       </c>
       <c r="FH12" t="n">
-        <v>8.29212751796149e-08</v>
+        <v>0.005293887108564377</v>
       </c>
       <c r="FI12" t="n">
-        <v>2.287747804530227e-07</v>
+        <v>0.003891411935910583</v>
       </c>
       <c r="FJ12" t="n">
-        <v>2.179497187171364e-07</v>
+        <v>0.008607883006334305</v>
       </c>
       <c r="FK12" t="n">
-        <v>7.460491957544946e-08</v>
+        <v>0.002898088656365871</v>
       </c>
       <c r="FL12" t="n">
-        <v>1.464885102109292e-08</v>
+        <v>0.001259165233932436</v>
       </c>
       <c r="FM12" t="n">
-        <v>9.862142746897007e-08</v>
+        <v>0.002275252947583795</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.460801115626964e-07</v>
+        <v>0.0002553800004534423</v>
       </c>
       <c r="FO12" t="n">
-        <v>5.607655140238421e-08</v>
+        <v>0.002805490745231509</v>
       </c>
       <c r="FP12" t="n">
-        <v>3.223315729883325e-07</v>
+        <v>0.00483090290799737</v>
       </c>
       <c r="FQ12" t="n">
-        <v>2.022821803393526e-07</v>
+        <v>0.003419077023863792</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.38872565003112e-07</v>
+        <v>0.003221806604415178</v>
       </c>
       <c r="FS12" t="n">
-        <v>4.100782575733319e-07</v>
+        <v>2.833548933267593e-05</v>
       </c>
       <c r="FT12" t="n">
-        <v>7.437989779646159e-08</v>
+        <v>0.001948604360222816</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.486768266862782e-07</v>
+        <v>0.0007845371728762984</v>
       </c>
       <c r="FV12" t="n">
-        <v>9.760582742046608e-08</v>
+        <v>0.005874591879546642</v>
       </c>
       <c r="FW12" t="n">
-        <v>2.300510715258497e-07</v>
+        <v>0.002859574276953936</v>
       </c>
       <c r="FX12" t="n">
-        <v>2.177453524154771e-07</v>
+        <v>0.0008437912911176682</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.88339919052305e-07</v>
+        <v>0.007464759051799774</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.398702972390311e-07</v>
+        <v>0.002477217698469758</v>
       </c>
       <c r="GA12" t="n">
-        <v>8.74251497862133e-08</v>
+        <v>0.001944389077834785</v>
       </c>
       <c r="GB12" t="n">
-        <v>3.747882715288142e-07</v>
+        <v>0.0003293089102953672</v>
       </c>
       <c r="GC12" t="n">
-        <v>5.557337345862834e-08</v>
+        <v>0.0007968686986714602</v>
       </c>
       <c r="GD12" t="n">
-        <v>4.733082050734083e-07</v>
+        <v>0.003322306554764509</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.645424501679372e-08</v>
+        <v>0.02002969011664391</v>
       </c>
       <c r="GF12" t="n">
-        <v>2.306477675517726e-09</v>
+        <v>8.447674917988479e-05</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.699127949450485e-07</v>
+        <v>0.002132543129846454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.005339447874575853</v>
+        <v>0.1111776605248451</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1161377727985382</v>
+        <v>0.1788556277751923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02007758244872093</v>
+        <v>0.02018647082149982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06865637749433517</v>
+        <v>0.1773834228515625</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01769662648439407</v>
+        <v>0.2904419004917145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009432914666831493</v>
+        <v>0.5784560441970825</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006588499061763287</v>
+        <v>0.05909319967031479</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01862312480807304</v>
+        <v>0.3307327032089233</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01566344872117043</v>
+        <v>0.06615156680345535</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0158036146312952</v>
+        <v>0.0232103019952774</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1355488449335098</v>
+        <v>0.2331459224224091</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01202827971428633</v>
+        <v>0.05484979599714279</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0471879318356514</v>
+        <v>0.07954499125480652</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04339932650327682</v>
+        <v>0.1158952936530113</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006217820569872856</v>
+        <v>0.4547438025474548</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01081573870033026</v>
+        <v>0.0005823373794555664</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01283839903771877</v>
+        <v>0.2693929970264435</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01719330437481403</v>
+        <v>0.008028700016438961</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002363454550504684</v>
+        <v>0.03741037845611572</v>
       </c>
       <c r="T13" t="n">
-        <v>0.009782565757632256</v>
+        <v>0.02809722162783146</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01396345719695091</v>
+        <v>0.001866698265075684</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01307567767798901</v>
+        <v>0.02110203728079796</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04549630358815193</v>
+        <v>0.2038192600011826</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01152156759053469</v>
+        <v>0.05930133536458015</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01893388852477074</v>
+        <v>0.04115142673254013</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.006644943729043007</v>
+        <v>0.03396623581647873</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01686546579003334</v>
+        <v>0.02015827596187592</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.026247788220644</v>
+        <v>0.00524333119392395</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02311085909605026</v>
+        <v>0.05603518337011337</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01849329471588135</v>
+        <v>0.0164311658591032</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03175932168960571</v>
+        <v>0.04075076431035995</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01728990487754345</v>
+        <v>0.02577841654419899</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.005810972303152084</v>
+        <v>0.04668644443154335</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.01777572743594646</v>
+        <v>0.04702901840209961</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.004308352246880531</v>
+        <v>0.07916082441806793</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.008076859638094902</v>
+        <v>0.02715052664279938</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03113926574587822</v>
+        <v>0.003224147018045187</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01298236474394798</v>
+        <v>0.01198383886367083</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.004445759579539299</v>
+        <v>0.028033297508955</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.003876017406582832</v>
+        <v>0.02600056864321232</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.01390422880649567</v>
+        <v>0.01372304186224937</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.004425074439495802</v>
+        <v>0.01609869115054607</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.00523018091917038</v>
+        <v>0.004269905388355255</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.003464465728029609</v>
+        <v>0.06249431893229485</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.005370318423956633</v>
+        <v>0.009333716705441475</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.03786222264170647</v>
+        <v>0.0449424684047699</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.09250454604625702</v>
+        <v>0.02636793069541454</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0006786375306546688</v>
+        <v>0.007624488323926926</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0007837573066353798</v>
+        <v>0.1967583000659943</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01989898644387722</v>
+        <v>0.2801285684108734</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.002073287963867188</v>
+        <v>0.334907054901123</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.02668892592191696</v>
+        <v>0.1034052520990372</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.01381455454975367</v>
+        <v>0.05359082296490669</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.01272409502416849</v>
+        <v>0.01638190262019634</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.02583309449255466</v>
+        <v>0.07858112454414368</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.02074138820171356</v>
+        <v>0.09441696852445602</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.004880542866885662</v>
+        <v>0.03922457247972488</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0220843106508255</v>
+        <v>0.1000464931130409</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.01383062358945608</v>
+        <v>0.02771057933568954</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.02224378660321236</v>
+        <v>0.06958845257759094</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001329237595200539</v>
+        <v>0.05366044119000435</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.008576518855988979</v>
+        <v>0.1316929161548615</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.01235889550298452</v>
+        <v>0.02634782344102859</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.01603353396058083</v>
+        <v>0.01846249029040337</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.009021282196044922</v>
+        <v>0.0009388886392116547</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002298080595210195</v>
+        <v>0.009124733507633209</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03613488376140594</v>
+        <v>0.1758664697408676</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.007790176663547754</v>
+        <v>0.07981592416763306</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.01390200946480036</v>
+        <v>0.02206047065556049</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.01183589082211256</v>
+        <v>0.001669518649578094</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.001748706679791212</v>
+        <v>0.1159317344427109</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.01004694867879152</v>
+        <v>0.03520673885941505</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.03394277766346931</v>
+        <v>0.000428813393227756</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.01847087405622005</v>
+        <v>0.04878279194235802</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.01981036365032196</v>
+        <v>0.01718898490071297</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.03093839436769485</v>
+        <v>0.1465222090482712</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.02878562919795513</v>
+        <v>0.1288622170686722</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.009477599523961544</v>
+        <v>0.2818129658699036</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.00202353298664093</v>
+        <v>0.08241294324398041</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.009010096080601215</v>
+        <v>0.002141095697879791</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.002737330971285701</v>
+        <v>0.02675537765026093</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0130867687985301</v>
+        <v>0.01566006615757942</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.03064700029790401</v>
+        <v>0.009741934016346931</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.00370114529505372</v>
+        <v>0.01814173720777035</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.006154813803732395</v>
+        <v>0.007756500504910946</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01016253791749477</v>
+        <v>0.07310076802968979</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.002402946352958679</v>
+        <v>0.1014757379889488</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.000529091339558363</v>
+        <v>0.03931902348995209</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.002063107211142778</v>
+        <v>0.06160562485456467</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.004028394352644682</v>
+        <v>0.0007155211642384529</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.02489000558853149</v>
+        <v>0.001201932784169912</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.03339223936200142</v>
+        <v>0.09300962090492249</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.02151297405362129</v>
+        <v>0.04351157695055008</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.002933468669652939</v>
+        <v>0.1121808886528015</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.04225608333945274</v>
+        <v>0.1231282874941826</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.02037688344717026</v>
+        <v>0.0548018217086792</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.003602689830586314</v>
+        <v>0.09785734862089157</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0007812607800588012</v>
+        <v>0.1256791353225708</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.002289416035637259</v>
+        <v>0.01181637495756149</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.01046417094767094</v>
+        <v>0.01814322918653488</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.02799087390303612</v>
+        <v>0.01667463034391403</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0008597936248406768</v>
+        <v>0.01554268598556519</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.008293779566884041</v>
+        <v>0.0006055999547243118</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01123571768403053</v>
+        <v>0.06248023733496666</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.005408713594079018</v>
+        <v>0.1104664131999016</v>
       </c>
       <c r="DB13" t="n">
-        <v>8.344603702425957e-05</v>
+        <v>0.01761427521705627</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.00263613136485219</v>
+        <v>0.04990209639072418</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0040779123082757</v>
+        <v>0.02353446930646896</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.008176662959158421</v>
+        <v>0.119187705218792</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.05685357004404068</v>
+        <v>0.02197294123470783</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01161883492022753</v>
+        <v>0.01650748029351234</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.003675862215459347</v>
+        <v>0.2032175958156586</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.02014830894768238</v>
+        <v>0.01389596424996853</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.007783436216413975</v>
+        <v>0.076453797519207</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0125003457069397</v>
+        <v>0.07773500680923462</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.02294467948377132</v>
+        <v>0.06464033573865891</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0009186351671814919</v>
+        <v>0.08796071261167526</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.02636254951357841</v>
+        <v>0.09116615355014801</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.01848012581467628</v>
+        <v>0.06128215044736862</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.004797267261892557</v>
+        <v>0.02864126116037369</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0002393648028373718</v>
+        <v>0.02662687189877033</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02399269305169582</v>
+        <v>0.1099256277084351</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.01932254433631897</v>
+        <v>0.1394904255867004</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.001031884690746665</v>
+        <v>0.1003552824258804</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.02680392377078533</v>
+        <v>0.03024208173155785</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.02269460074603558</v>
+        <v>0.03339075297117233</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0189185868948698</v>
+        <v>0.01014536060392857</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.009434452280402184</v>
+        <v>0.06766190379858017</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.01081733778119087</v>
+        <v>0.03981428220868111</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.00810344610363245</v>
+        <v>0.079486183822155</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.006128131411969662</v>
+        <v>0.1087222918868065</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.001946765929460526</v>
+        <v>0.08759185671806335</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.006316182669252157</v>
+        <v>0.0401405543088913</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.006697675213217735</v>
+        <v>0.0252983532845974</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.01322741620242596</v>
+        <v>0.04376617074012756</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.02321582846343517</v>
+        <v>0.001302042044699192</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0206170529127121</v>
+        <v>0.06140942871570587</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.02225301973521709</v>
+        <v>0.04842929914593697</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.02658854797482491</v>
+        <v>0.08239691704511642</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.02369368821382523</v>
+        <v>0.06350916624069214</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.002664858475327492</v>
+        <v>0.07962847501039505</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0141702014952898</v>
+        <v>0.0157674066722393</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.003409171244129539</v>
+        <v>0.03976356238126755</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.007649770472198725</v>
+        <v>0.01502716261893511</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0001074117608368397</v>
+        <v>0.05655040219426155</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.007899615913629532</v>
+        <v>0.01381952967494726</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01537170074880123</v>
+        <v>0.002400103956460953</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.02671363204717636</v>
+        <v>0.05328574031591415</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.00464237667620182</v>
+        <v>0.07539591193199158</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.009582096710801125</v>
+        <v>0.008698214776813984</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.002934561809524894</v>
+        <v>0.005520639941096306</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0009630899876356125</v>
+        <v>0.2077625542879105</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.01288980804383755</v>
+        <v>0.03540945425629616</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.009903242811560631</v>
+        <v>0.02965064533054829</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.03056396171450615</v>
+        <v>0.013354467228055</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.002017723163589835</v>
+        <v>0.005992056801915169</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.007350794039666653</v>
+        <v>0.01365005318075418</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0138446195051074</v>
+        <v>0.07957457005977631</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.006409503053873777</v>
+        <v>0.09308616816997528</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.003920451272279024</v>
+        <v>0.04201222583651543</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.004682340659201145</v>
+        <v>0.06601253151893616</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.00250072474591434</v>
+        <v>0.01375732943415642</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.009302373044192791</v>
+        <v>0.05240897089242935</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.02665578946471214</v>
+        <v>0.01178768463432789</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.02584853209555149</v>
+        <v>0.002388998866081238</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0208728201687336</v>
+        <v>0.1690639555454254</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02568998746573925</v>
+        <v>0.0623546801507473</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.02337251417338848</v>
+        <v>0.02405068837106228</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.01254649180918932</v>
+        <v>0.02989671751856804</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.01191927026957273</v>
+        <v>0.01316838152706623</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.03447961807250977</v>
+        <v>0.02736884169280529</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.009481620043516159</v>
+        <v>0.02698591724038124</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.008107630535960197</v>
+        <v>0.2097582519054413</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.01542342640459538</v>
+        <v>0.04428930208086967</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.01226400025188923</v>
+        <v>0.06875447928905487</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001176056452095509</v>
+        <v>0.3382295966148376</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0198474358767271</v>
+        <v>0.08765574544668198</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.00558845791965723</v>
+        <v>0.07875333726406097</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.001546437270008028</v>
+        <v>0.1988891065120697</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.01154589746147394</v>
+        <v>0.07378125935792923</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0200091116130352</v>
+        <v>0.04492758214473724</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.01560764387249947</v>
+        <v>0.1123899668455124</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.01713188551366329</v>
+        <v>0.01185517758131027</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.001098705688491464</v>
+        <v>0.0475667305290699</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.007591590285301208</v>
+        <v>0.1192051023244858</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.004730554297566414</v>
+        <v>0.03601327538490295</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.02239418961107731</v>
+        <v>0.07133083045482635</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.01616175472736359</v>
+        <v>0.05392304807901382</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0198441818356514</v>
+        <v>0.0348869301378727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2668537497520447</v>
+        <v>0.01498351618647575</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07143241167068481</v>
+        <v>0.002148165833204985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05083386972546577</v>
+        <v>0.003295943839475513</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3549138307571411</v>
+        <v>0.007507950067520142</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002160858362913132</v>
+        <v>0.00186725496314466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005405005067586899</v>
+        <v>0.003660753602162004</v>
       </c>
       <c r="G14" t="n">
-        <v>0.151928037405014</v>
+        <v>0.001839630189351737</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0698101669549942</v>
+        <v>0.001032522413879633</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09558629989624023</v>
+        <v>7.068563718348742e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2129969298839569</v>
+        <v>0.01261492818593979</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03815529495477676</v>
+        <v>0.0005179969593882561</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1152305975556374</v>
+        <v>0.003775679273530841</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2983974516391754</v>
+        <v>0.002406617626547813</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001776870340108871</v>
+        <v>0.003292302368208766</v>
       </c>
       <c r="O14" t="n">
-        <v>0.110837385058403</v>
+        <v>0.0006213742890395224</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1537749171257019</v>
+        <v>0.0001155755016952753</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1800314635038376</v>
+        <v>0.002025766763836145</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09152109920978546</v>
+        <v>0.001182246604003012</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001184882596135139</v>
+        <v>0.002022573258727789</v>
       </c>
       <c r="T14" t="n">
-        <v>0.008961955085396767</v>
+        <v>0.00287601794116199</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002741971984505653</v>
+        <v>0.001236208016052842</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02683884277939796</v>
+        <v>0.0001122998655773699</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06543039530515671</v>
+        <v>0.0017426663544029</v>
       </c>
       <c r="X14" t="n">
-        <v>0.004266351461410522</v>
+        <v>0.0006343333516269922</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04233532398939133</v>
+        <v>0.0001172967749880627</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0213194265961647</v>
+        <v>0.002072283765301108</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.005491600371897221</v>
+        <v>0.0003341127885505557</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.03220389038324356</v>
+        <v>0.001302684075199068</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02640277147293091</v>
+        <v>0.002510215388610959</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.03077705390751362</v>
+        <v>0.001055342145264149</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06418469548225403</v>
+        <v>0.0008625262416899204</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01162546779960394</v>
+        <v>0.001856275484897196</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.052193783223629</v>
+        <v>0.0001866686507128179</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.07284578680992126</v>
+        <v>0.0004629477625712752</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.07028865814208984</v>
+        <v>0.0009156452142633498</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.03680251911282539</v>
+        <v>0.0009876564145088196</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.07429917901754379</v>
+        <v>0.001534686423838139</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.06428036093711853</v>
+        <v>6.469065556302667e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.02170643582940102</v>
+        <v>0.0005602175369858742</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.06021599099040031</v>
+        <v>0.001327539677731693</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02483375743031502</v>
+        <v>0.001344507676549256</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.07964629679918289</v>
+        <v>0.0006801409181207418</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.01078529469668865</v>
+        <v>0.001516665099188685</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.09254799783229828</v>
+        <v>0.001330648316070437</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.002863374538719654</v>
+        <v>0.0004782371106557548</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1144028753042221</v>
+        <v>0.008721898309886456</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.00421591755002737</v>
+        <v>0.002278452971950173</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.01985201053321362</v>
+        <v>0.003340673632919788</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.139090895652771</v>
+        <v>0.004011296201497316</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.01813492365181446</v>
+        <v>0.002473466796800494</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.09925216436386108</v>
+        <v>0.0005228561349213123</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.07208985090255737</v>
+        <v>0.001173345372080803</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.08617444336414337</v>
+        <v>0.003290706779807806</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.07235003262758255</v>
+        <v>0.001057951711118221</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.09311008453369141</v>
+        <v>0.005920558236539364</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0252037700265646</v>
+        <v>0.006710988469421864</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.05632432177662849</v>
+        <v>0.0007154279155656695</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1034007221460342</v>
+        <v>0.0003122073539998382</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.02902268618345261</v>
+        <v>0.002030003350228071</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.05029848217964172</v>
+        <v>0.0001558154472149909</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.1135796755552292</v>
+        <v>0.0002894042117986828</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1501197665929794</v>
+        <v>0.003508773865178227</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.05620881170034409</v>
+        <v>0.002436705632135272</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.02519688010215759</v>
+        <v>0.0005904376739636064</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0009814593940973282</v>
+        <v>0.003638595808297396</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0173675175756216</v>
+        <v>0.0007760211592540145</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.005661506205797195</v>
+        <v>0.0002997236442752182</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.02492893859744072</v>
+        <v>1.411652192473412e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.04206846281886101</v>
+        <v>0.001629211939871311</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.001093683764338493</v>
+        <v>0.001220501959323883</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.03904462978243828</v>
+        <v>0.0004475079185795039</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.01089882664382458</v>
+        <v>0.001309648039750755</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.1102896183729172</v>
+        <v>0.004074693191796541</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.01342577300965786</v>
+        <v>0.0006979366298764944</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.05117328092455864</v>
+        <v>0.001237298361957073</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.07099227607250214</v>
+        <v>0.001368642668239772</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.02640382573008537</v>
+        <v>0.0006113479612395167</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.0115493992343545</v>
+        <v>0.0006649612332694232</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.007565828040242195</v>
+        <v>0.000150150794070214</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.06214448437094688</v>
+        <v>0.002496878383681178</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.09852389246225357</v>
+        <v>0.0007147159776650369</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.05259201675653458</v>
+        <v>0.002787101315334439</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.05729816108942032</v>
+        <v>0.002064452972263098</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.01768649369478226</v>
+        <v>0.0001044087402988225</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.05970057100057602</v>
+        <v>0.0004886342212557793</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.003694353625178337</v>
+        <v>0.0001396241714246571</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0116962306201458</v>
+        <v>0.002107577864080667</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.02712924778461456</v>
+        <v>0.0002207697252742946</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.02139708399772644</v>
+        <v>0.001613640459254384</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.01906479336321354</v>
+        <v>0.0004029186966363341</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.03569302335381508</v>
+        <v>0.003074428997933865</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.006383958272635937</v>
+        <v>0.001828018575906754</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.004751050844788551</v>
+        <v>0.0003775909135583788</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.09132720530033112</v>
+        <v>0.002875773468986154</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1151782497763634</v>
+        <v>0.003839779645204544</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.1231564581394196</v>
+        <v>0.00102521013468504</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.07588007301092148</v>
+        <v>0.002687644213438034</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.07207942754030228</v>
+        <v>0.005123015027493238</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.08231270313262939</v>
+        <v>0.0009712214814499021</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.04918131604790688</v>
+        <v>0.002301248023286462</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.06141791120171547</v>
+        <v>0.002343607367947698</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.02504254691302776</v>
+        <v>0.0003274336049798876</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.04148790612816811</v>
+        <v>0.0006561597110703588</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02122359164059162</v>
+        <v>3.135013685096055e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.02109159529209137</v>
+        <v>0.001786581473425031</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.02714769914746284</v>
+        <v>8.72655218699947e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.01550490595400333</v>
+        <v>0.00124637596309185</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.01169036794453859</v>
+        <v>0.0003737612860277295</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.01581841893494129</v>
+        <v>0.001339819864369929</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0809355229139328</v>
+        <v>0.002869503339752555</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.02869634330272675</v>
+        <v>0.003039102535694838</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.04163024201989174</v>
+        <v>0.004743214696645737</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.1695055365562439</v>
+        <v>0.00184707879088819</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.01424488052725792</v>
+        <v>0.001477038720622659</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.04152533411979675</v>
+        <v>0.002129394793882966</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.08448207378387451</v>
+        <v>0.005051671527326107</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.05595192313194275</v>
+        <v>0.001057746121659875</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.02067462541162968</v>
+        <v>0.001832555513828993</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.06968358159065247</v>
+        <v>0.000308023823890835</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.03115744143724442</v>
+        <v>0.0008535537635907531</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.02416470274329185</v>
+        <v>0.001978315412998199</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01750240847468376</v>
+        <v>0.00320722977630794</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.04216854274272919</v>
+        <v>0.001415767008438706</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.04561685398221016</v>
+        <v>0.0008924821158871055</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.04397475346922874</v>
+        <v>0.0004381034232210368</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.02446187660098076</v>
+        <v>0.00137159030418843</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.006833912339061499</v>
+        <v>0.002178646624088287</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.009893840178847313</v>
+        <v>0.0009568891255185008</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.03300443664193153</v>
+        <v>0.0003403429873287678</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.001323144417256117</v>
+        <v>0.001230731257237494</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.07348455488681793</v>
+        <v>0.001816928968764842</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.05986545979976654</v>
+        <v>0.0002000277308980003</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.02285101637244225</v>
+        <v>0.000871100986842066</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.04997259005904198</v>
+        <v>1.979794615181163e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0137545159086585</v>
+        <v>0.0004834043502341956</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.09971076250076294</v>
+        <v>0.003075314685702324</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.03660567477345467</v>
+        <v>0.00348758464679122</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.01705487072467804</v>
+        <v>0.002054548822343349</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.09365463256835938</v>
+        <v>0.002940125530585647</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.006995677947998047</v>
+        <v>0.002927478868514299</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.02396822907030582</v>
+        <v>0.001058828784152865</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.004613534081727266</v>
+        <v>0.0003340833354741335</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.05672556161880493</v>
+        <v>0.0004687995533458889</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.01206986047327518</v>
+        <v>0.00020153250079602</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.009558404795825481</v>
+        <v>0.0002865162095986307</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.001601897180080414</v>
+        <v>0.004153474699705839</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.05797456577420235</v>
+        <v>0.000759979069698602</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0002078786492347717</v>
+        <v>9.094971755985171e-05</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.01290318928658962</v>
+        <v>5.724071525037289e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.03549365699291229</v>
+        <v>0.002605955582112074</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.03736569732427597</v>
+        <v>0.0009386548190377653</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.004038987681269646</v>
+        <v>0.0005772453150711954</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.03202839195728302</v>
+        <v>0.002538193482905626</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.05190207064151764</v>
+        <v>0.002373373601585627</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.05204904824495316</v>
+        <v>0.002388026099652052</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.03272742033004761</v>
+        <v>0.0006559423636645079</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.04819094762206078</v>
+        <v>0.0007299806457012892</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01579568162560463</v>
+        <v>4.096886186744086e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0104100564494729</v>
+        <v>0.001722993212752044</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.026472058147192</v>
+        <v>3.995923907496035e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.02834954857826233</v>
+        <v>0.001476152916438878</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.002873508259654045</v>
+        <v>0.0004267790936864913</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.05338261276483536</v>
+        <v>0.0005354948807507753</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.03490295633673668</v>
+        <v>0.00224863039329648</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.004267599899321795</v>
+        <v>0.002797908149659634</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.09103633463382721</v>
+        <v>0.0009667464764788747</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.06112870573997498</v>
+        <v>0.001240635756403208</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.05997154116630554</v>
+        <v>0.0026305066421628</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.03537701815366745</v>
+        <v>0.001993016339838505</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.03008629940450191</v>
+        <v>0.0009186214301735163</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.009314925409853458</v>
+        <v>0.0008285582298412919</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.02677776291966438</v>
+        <v>0.002163626253604889</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.07187195122241974</v>
+        <v>0.0008542940486222506</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.04412683472037315</v>
+        <v>0.002448670566082001</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.08414759486913681</v>
+        <v>0.00199350924231112</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.06220749393105507</v>
+        <v>0.002972509246319532</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.1049758493900299</v>
+        <v>0.003275701310485601</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.003979557193815708</v>
+        <v>0.002241011941805482</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.06430687010288239</v>
+        <v>0.0001711393124423921</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.03050549700856209</v>
+        <v>0.0004623163840733469</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.05665276199579239</v>
+        <v>0.001058192690834403</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.01816141046583652</v>
+        <v>0.0001562847755849361</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.02761651389300823</v>
+        <v>4.734264803119004e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.02373462542891502</v>
+        <v>0.0001799581805244088</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.02059359475970268</v>
+        <v>0.002026491099968553</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.04492288827896118</v>
+        <v>7.068942068144679e-05</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.03780078142881393</v>
+        <v>0.001501339487731457</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.04384167864918709</v>
+        <v>0.0006484707118943334</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0007508285343647003</v>
+        <v>0.001010758453048766</v>
       </c>
     </row>
     <row r="15">
@@ -9539,1140 +9539,1140 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0007311527151614428</v>
+        <v>0.001266939449124038</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0004171940090600401</v>
+        <v>0.008021142333745956</v>
       </c>
       <c r="C17" t="n">
-        <v>6.221198418643326e-05</v>
+        <v>0.001157720922492445</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003796288510784507</v>
+        <v>0.006249427329748869</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0002906417357735336</v>
+        <v>0.002233721083030105</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001151369870058261</v>
+        <v>0.002223899122327566</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000416782422689721</v>
+        <v>0.0003666845732368529</v>
       </c>
       <c r="H17" t="n">
-        <v>6.12654912401922e-05</v>
+        <v>9.167198732029647e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001785119238775223</v>
+        <v>0.000783928029704839</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000639083911664784</v>
+        <v>0.002913497854024172</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003102773043792695</v>
+        <v>0.006081214174628258</v>
       </c>
       <c r="L17" t="n">
-        <v>7.269922934938222e-05</v>
+        <v>0.0007358338916674256</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003173641744069755</v>
+        <v>0.005282886791974306</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000365128624252975</v>
+        <v>0.003350628772750497</v>
       </c>
       <c r="O17" t="n">
-        <v>2.348890120629221e-06</v>
+        <v>0.003789861919358373</v>
       </c>
       <c r="P17" t="n">
-        <v>0.000405382364988327</v>
+        <v>0.0009934389963746071</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.46617455559317e-05</v>
+        <v>0.00079352903412655</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0002479278482496738</v>
+        <v>6.10425413469784e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>7.219835970317945e-05</v>
+        <v>0.0007733739912509918</v>
       </c>
       <c r="T17" t="n">
-        <v>5.167890049051493e-05</v>
+        <v>0.001307504717260599</v>
       </c>
       <c r="U17" t="n">
-        <v>3.661910159280524e-05</v>
+        <v>0.001327542820945382</v>
       </c>
       <c r="V17" t="n">
-        <v>2.238147317257244e-05</v>
+        <v>0.0006900159060023725</v>
       </c>
       <c r="W17" t="n">
-        <v>2.378900171606801e-05</v>
+        <v>0.0009300451492890716</v>
       </c>
       <c r="X17" t="n">
-        <v>1.941292794072069e-05</v>
+        <v>0.0007993885083124042</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.33472765609622e-05</v>
+        <v>0.001343919080682099</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0001304852921748534</v>
+        <v>0.001384951989166439</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.154623067937791e-05</v>
+        <v>0.001571489730849862</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.303048702538945e-05</v>
+        <v>0.0008880567620508373</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.092279671865981e-05</v>
+        <v>0.0007343297475017607</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.080977355944924e-05</v>
+        <v>0.000191197352251038</v>
       </c>
       <c r="AE17" t="n">
-        <v>5.951707862550393e-05</v>
+        <v>0.0008970134658738971</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.770714677870274e-05</v>
+        <v>0.000249485980020836</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.868020475143567e-05</v>
+        <v>0.0001354643463855609</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.553591209813021e-05</v>
+        <v>0.000707860104739666</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.000173266336787492</v>
+        <v>0.0002035453944699839</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3.624032979132608e-05</v>
+        <v>0.0004514953179750592</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0001170732866739854</v>
+        <v>0.0008671206887811422</v>
       </c>
       <c r="AL17" t="n">
-        <v>6.027008930686861e-05</v>
+        <v>0.001284089288674295</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.81901920970995e-05</v>
+        <v>1.017568865790963e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.230479579651728e-05</v>
+        <v>0.0001221008569700643</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.767543138470501e-05</v>
+        <v>0.0004265432071406394</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.93896365899127e-05</v>
+        <v>4.737233393825591e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.07758457690943e-05</v>
+        <v>0.0003820297424681485</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.147408566903323e-05</v>
+        <v>0.0003150840639136732</v>
       </c>
       <c r="AS17" t="n">
-        <v>7.755083061056212e-06</v>
+        <v>0.0009948826627805829</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0003598878101911396</v>
+        <v>0.000637071905657649</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.000152925233123824</v>
+        <v>0.005880283191800117</v>
       </c>
       <c r="AV17" t="n">
-        <v>5.872993824596051e-06</v>
+        <v>0.000103872298495844</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.907814294099808e-06</v>
+        <v>0.002046620240435004</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.654120468534529e-05</v>
+        <v>0.001140221953392029</v>
       </c>
       <c r="AY17" t="n">
-        <v>5.335001333151013e-05</v>
+        <v>0.000842100998852402</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.545177267165855e-06</v>
+        <v>0.0006203430239111185</v>
       </c>
       <c r="BA17" t="n">
-        <v>7.179214298957959e-05</v>
+        <v>0.0009553334675729275</v>
       </c>
       <c r="BB17" t="n">
-        <v>7.441633351845667e-05</v>
+        <v>0.001636581378988922</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0002406851126579568</v>
+        <v>0.001023299992084503</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001132488687289879</v>
+        <v>0.001427212497219443</v>
       </c>
       <c r="BE17" t="n">
-        <v>7.949829159770161e-05</v>
+        <v>0.002810209058225155</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.519691406632774e-05</v>
+        <v>0.001235097995959222</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0001724845642456785</v>
+        <v>0.00227244128473103</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.813714698073454e-05</v>
+        <v>0.001958935521543026</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0001988215808523819</v>
+        <v>0.0006346894078887999</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0002635278506204486</v>
+        <v>0.0008600367000326514</v>
       </c>
       <c r="BK17" t="n">
-        <v>4.172143235336989e-07</v>
+        <v>5.906894875806756e-05</v>
       </c>
       <c r="BL17" t="n">
-        <v>8.260039612650871e-05</v>
+        <v>0.0008544953307136893</v>
       </c>
       <c r="BM17" t="n">
-        <v>3.44893524015788e-05</v>
+        <v>0.002186520723626018</v>
       </c>
       <c r="BN17" t="n">
-        <v>2.352359115320724e-05</v>
+        <v>0.001995038473978639</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0001093131577363238</v>
+        <v>0.0001984691916732118</v>
       </c>
       <c r="BP17" t="n">
-        <v>5.931757186772302e-05</v>
+        <v>0.001368378521874547</v>
       </c>
       <c r="BQ17" t="n">
-        <v>7.204585926956497e-06</v>
+        <v>0.0004719884600490332</v>
       </c>
       <c r="BR17" t="n">
-        <v>6.831988866906613e-05</v>
+        <v>0.0006252186140045524</v>
       </c>
       <c r="BS17" t="n">
-        <v>2.691554254852235e-05</v>
+        <v>0.0008865296258591115</v>
       </c>
       <c r="BT17" t="n">
-        <v>2.439073432469741e-05</v>
+        <v>0.0007419474422931671</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0002949893241748214</v>
+        <v>0.0002740461495704949</v>
       </c>
       <c r="BV17" t="n">
-        <v>6.426289473893121e-07</v>
+        <v>0.002810553414747119</v>
       </c>
       <c r="BW17" t="n">
-        <v>9.874170063994825e-05</v>
+        <v>0.00182358780875802</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.000221817143028602</v>
+        <v>0.001511014415882528</v>
       </c>
       <c r="BY17" t="n">
-        <v>5.264447099762037e-05</v>
+        <v>0.0003577616007532924</v>
       </c>
       <c r="BZ17" t="n">
-        <v>1.519779107184149e-05</v>
+        <v>4.654109943658113e-05</v>
       </c>
       <c r="CA17" t="n">
-        <v>6.823817966505885e-05</v>
+        <v>0.0006784198340028524</v>
       </c>
       <c r="CB17" t="n">
-        <v>4.820950925932266e-05</v>
+        <v>6.058876169845462e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>6.661943916697055e-05</v>
+        <v>0.001396272564306855</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.0001407187519362196</v>
+        <v>8.357345359399915e-05</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0001341427559964359</v>
+        <v>0.00100224930793047</v>
       </c>
       <c r="CF17" t="n">
-        <v>2.735704038059339e-05</v>
+        <v>0.001299932831898332</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0001362450566375628</v>
+        <v>0.0005462688859552145</v>
       </c>
       <c r="CH17" t="n">
-        <v>6.474871770478785e-05</v>
+        <v>0.0001345392811344936</v>
       </c>
       <c r="CI17" t="n">
-        <v>1.029949089570437e-05</v>
+        <v>0.0006938225124031305</v>
       </c>
       <c r="CJ17" t="n">
-        <v>8.888476440915838e-05</v>
+        <v>0.000224808492930606</v>
       </c>
       <c r="CK17" t="n">
-        <v>7.089151949912775e-06</v>
+        <v>6.401423888746649e-05</v>
       </c>
       <c r="CL17" t="n">
-        <v>7.949513019411825e-06</v>
+        <v>0.0007723882445134223</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.0001095889456337318</v>
+        <v>0.001409603864885867</v>
       </c>
       <c r="CN17" t="n">
-        <v>2.192804822698236e-05</v>
+        <v>0.0004916208563372493</v>
       </c>
       <c r="CO17" t="n">
-        <v>1.302803229918936e-05</v>
+        <v>0.0006797648966312408</v>
       </c>
       <c r="CP17" t="n">
-        <v>3.347287929500453e-05</v>
+        <v>0.001954205567017198</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0001903490046970546</v>
+        <v>0.0008557087276130915</v>
       </c>
       <c r="CR17" t="n">
-        <v>5.419176159193739e-05</v>
+        <v>0.001437274389900267</v>
       </c>
       <c r="CS17" t="n">
-        <v>5.358228736440651e-05</v>
+        <v>0.001127854338847101</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0001611276966286823</v>
+        <v>0.0002748327679000795</v>
       </c>
       <c r="CU17" t="n">
-        <v>4.166019425611012e-05</v>
+        <v>0.0007723894668743014</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0001346253702649847</v>
+        <v>7.261969585670158e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.0001168867893284187</v>
+        <v>0.0009489783551543951</v>
       </c>
       <c r="CX17" t="n">
-        <v>4.702089790953323e-05</v>
+        <v>0.001178821199573576</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.0001005590456770733</v>
+        <v>0.0009624339290894568</v>
       </c>
       <c r="CZ17" t="n">
-        <v>3.599108822527342e-06</v>
+        <v>0.0004499189089983702</v>
       </c>
       <c r="DA17" t="n">
-        <v>1.312671884079464e-05</v>
+        <v>0.0007540850201621652</v>
       </c>
       <c r="DB17" t="n">
-        <v>8.379804785363376e-05</v>
+        <v>0.0003714761114679277</v>
       </c>
       <c r="DC17" t="n">
-        <v>1.660927591728978e-05</v>
+        <v>9.500369924353436e-05</v>
       </c>
       <c r="DD17" t="n">
-        <v>9.299606062995736e-08</v>
+        <v>0.0004428964457474649</v>
       </c>
       <c r="DE17" t="n">
-        <v>1.974009137484245e-06</v>
+        <v>0.001352474093437195</v>
       </c>
       <c r="DF17" t="n">
-        <v>8.253613486886024e-05</v>
+        <v>0.0006529043894261122</v>
       </c>
       <c r="DG17" t="n">
-        <v>9.848862100625411e-05</v>
+        <v>0.0003527023072820157</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.0001169584284070879</v>
+        <v>0.003270168788731098</v>
       </c>
       <c r="DI17" t="n">
-        <v>2.701050107134506e-05</v>
+        <v>0.00182432634755969</v>
       </c>
       <c r="DJ17" t="n">
-        <v>1.525218249298632e-05</v>
+        <v>4.025328962597996e-06</v>
       </c>
       <c r="DK17" t="n">
-        <v>3.895870031556115e-05</v>
+        <v>0.0004180817340966314</v>
       </c>
       <c r="DL17" t="n">
-        <v>9.05246997717768e-05</v>
+        <v>9.55056311795488e-05</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.0001494144671596587</v>
+        <v>0.0005036810762248933</v>
       </c>
       <c r="DN17" t="n">
-        <v>9.642017175792716e-06</v>
+        <v>4.625300061888993e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0001291478547500446</v>
+        <v>0.0002623539767228067</v>
       </c>
       <c r="DP17" t="n">
-        <v>5.998220876790583e-05</v>
+        <v>0.0009497630526311696</v>
       </c>
       <c r="DQ17" t="n">
-        <v>8.717468881513923e-05</v>
+        <v>0.0002039155078819022</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0001007340906653553</v>
+        <v>8.118106052279472e-06</v>
       </c>
       <c r="DS17" t="n">
-        <v>6.813518848503008e-05</v>
+        <v>0.0002411433670204133</v>
       </c>
       <c r="DT17" t="n">
-        <v>2.326081084902398e-05</v>
+        <v>0.0001738876744639128</v>
       </c>
       <c r="DU17" t="n">
-        <v>2.330923962290399e-05</v>
+        <v>8.666288340464234e-05</v>
       </c>
       <c r="DV17" t="n">
-        <v>1.188084661407629e-05</v>
+        <v>0.0006297408835962415</v>
       </c>
       <c r="DW17" t="n">
-        <v>9.048642823472619e-05</v>
+        <v>0.0003536776930559427</v>
       </c>
       <c r="DX17" t="n">
-        <v>6.280668458202854e-05</v>
+        <v>0.001614309498108923</v>
       </c>
       <c r="DY17" t="n">
-        <v>2.70199070655508e-05</v>
+        <v>0.001053091138601303</v>
       </c>
       <c r="DZ17" t="n">
-        <v>4.107637505512685e-05</v>
+        <v>2.931990457000211e-05</v>
       </c>
       <c r="EA17" t="n">
-        <v>9.962683543562889e-05</v>
+        <v>0.0001780217280611396</v>
       </c>
       <c r="EB17" t="n">
-        <v>2.04299358301796e-05</v>
+        <v>0.0005003723199479282</v>
       </c>
       <c r="EC17" t="n">
-        <v>6.59402139717713e-05</v>
+        <v>5.984904419165105e-05</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.0001342944015050307</v>
+        <v>0.0002606809139251709</v>
       </c>
       <c r="EE17" t="n">
-        <v>6.628266419284046e-05</v>
+        <v>0.000972526497207582</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0001738723804010078</v>
+        <v>3.424246096983552e-05</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.0001391430996591225</v>
+        <v>0.0004685170424636453</v>
       </c>
       <c r="EH17" t="n">
-        <v>2.850408418453299e-05</v>
+        <v>0.0008528121979907155</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0001607528538443148</v>
+        <v>0.0004379218444228172</v>
       </c>
       <c r="EJ17" t="n">
-        <v>5.31833793502301e-05</v>
+        <v>0.0002827784919645637</v>
       </c>
       <c r="EK17" t="n">
-        <v>5.401916860137135e-05</v>
+        <v>0.0004401489568408579</v>
       </c>
       <c r="EL17" t="n">
-        <v>2.020522697421256e-05</v>
+        <v>0.0006119979079812765</v>
       </c>
       <c r="EM17" t="n">
-        <v>8.813434760668315e-06</v>
+        <v>0.0005125970928929746</v>
       </c>
       <c r="EN17" t="n">
-        <v>5.346441867004614e-06</v>
+        <v>0.0001011101412586868</v>
       </c>
       <c r="EO17" t="n">
-        <v>4.014098522020504e-06</v>
+        <v>0.0002131505752913654</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.0001210300833918154</v>
+        <v>0.0003281323006376624</v>
       </c>
       <c r="EQ17" t="n">
-        <v>1.939748108270578e-05</v>
+        <v>0.001357416971586645</v>
       </c>
       <c r="ER17" t="n">
-        <v>2.894680801546201e-05</v>
+        <v>0.0002975130046252161</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0001875314919743687</v>
+        <v>0.001098712789826095</v>
       </c>
       <c r="ET17" t="n">
-        <v>2.20849415200064e-05</v>
+        <v>0.0006599570042453706</v>
       </c>
       <c r="EU17" t="n">
-        <v>4.777512003784068e-05</v>
+        <v>0.0006240667426027358</v>
       </c>
       <c r="EV17" t="n">
-        <v>2.245517498522531e-05</v>
+        <v>0.001561387558467686</v>
       </c>
       <c r="EW17" t="n">
-        <v>5.821498780278489e-05</v>
+        <v>0.0004827400844078511</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.0001393203274346888</v>
+        <v>0.000190266888239421</v>
       </c>
       <c r="EY17" t="n">
-        <v>8.806756522972137e-05</v>
+        <v>0.0008714887080714107</v>
       </c>
       <c r="EZ17" t="n">
-        <v>5.246277578407899e-05</v>
+        <v>0.001076492946594954</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0001077017004718073</v>
+        <v>0.0006654210155829787</v>
       </c>
       <c r="FB17" t="n">
-        <v>1.576644899614621e-05</v>
+        <v>9.726292046252638e-05</v>
       </c>
       <c r="FC17" t="n">
-        <v>4.126440035179257e-05</v>
+        <v>0.0007438994362019002</v>
       </c>
       <c r="FD17" t="n">
-        <v>7.194388308562338e-05</v>
+        <v>0.0005526526365429163</v>
       </c>
       <c r="FE17" t="n">
-        <v>1.557415089337155e-05</v>
+        <v>9.821353887673467e-05</v>
       </c>
       <c r="FF17" t="n">
-        <v>1.309785056946566e-05</v>
+        <v>0.0009383794385939837</v>
       </c>
       <c r="FG17" t="n">
-        <v>9.671940642874688e-05</v>
+        <v>0.000634742493275553</v>
       </c>
       <c r="FH17" t="n">
-        <v>1.895607056212611e-05</v>
+        <v>0.0006149575929157436</v>
       </c>
       <c r="FI17" t="n">
-        <v>4.864409856963903e-05</v>
+        <v>0.001065024640411139</v>
       </c>
       <c r="FJ17" t="n">
-        <v>7.326409104280174e-05</v>
+        <v>0.00131216470617801</v>
       </c>
       <c r="FK17" t="n">
-        <v>4.950178845319897e-05</v>
+        <v>0.0002204469492426142</v>
       </c>
       <c r="FL17" t="n">
-        <v>4.78208894492127e-05</v>
+        <v>0.001154640689492226</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.0001315915578743443</v>
+        <v>0.0001006154634524137</v>
       </c>
       <c r="FN17" t="n">
-        <v>8.520869596395642e-05</v>
+        <v>0.001177033875137568</v>
       </c>
       <c r="FO17" t="n">
-        <v>6.623040462727658e-06</v>
+        <v>0.001717468025162816</v>
       </c>
       <c r="FP17" t="n">
-        <v>9.283025428885594e-05</v>
+        <v>0.0003612994914874434</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.0001693438389338553</v>
+        <v>0.0003969133831560612</v>
       </c>
       <c r="FR17" t="n">
-        <v>2.88805731543107e-05</v>
+        <v>0.0006000465946272016</v>
       </c>
       <c r="FS17" t="n">
-        <v>1.708094350760803e-05</v>
+        <v>0.001019633840769529</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0001174921344500035</v>
+        <v>0.00138437794521451</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.000156816269736737</v>
+        <v>0.0001504724496044219</v>
       </c>
       <c r="FV17" t="n">
-        <v>4.160562821198255e-05</v>
+        <v>0.001107563497498631</v>
       </c>
       <c r="FW17" t="n">
-        <v>1.368234734400176e-05</v>
+        <v>0.001029874430969357</v>
       </c>
       <c r="FX17" t="n">
-        <v>5.743639121646993e-05</v>
+        <v>0.001105669536627829</v>
       </c>
       <c r="FY17" t="n">
-        <v>5.493163189385086e-05</v>
+        <v>0.002110308036208153</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.0001125154667533934</v>
+        <v>0.0004839561297558248</v>
       </c>
       <c r="GA17" t="n">
-        <v>8.172105299308896e-05</v>
+        <v>0.0001702836452750489</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.0002112853399012238</v>
+        <v>0.000364171399269253</v>
       </c>
       <c r="GC17" t="n">
-        <v>1.643604264245369e-05</v>
+        <v>0.001728493021801114</v>
       </c>
       <c r="GD17" t="n">
-        <v>5.419167791842483e-06</v>
+        <v>0.0006837746477685869</v>
       </c>
       <c r="GE17" t="n">
-        <v>6.033827230567113e-05</v>
+        <v>0.003008571686223149</v>
       </c>
       <c r="GF17" t="n">
-        <v>1.328707003267482e-05</v>
+        <v>0.0002341753279324621</v>
       </c>
       <c r="GG17" t="n">
-        <v>4.710256325779483e-05</v>
+        <v>0.0004283994494471699</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.09525714814662933</v>
+        <v>0.002059884835034609</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02166186086833477</v>
+        <v>0.01837487518787384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1437345147132874</v>
+        <v>0.002967819105833769</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00909714587032795</v>
+        <v>0.008341768756508827</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02111046202480793</v>
+        <v>0.00430197874084115</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03851725533604622</v>
+        <v>0.02689640037715435</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01573732681572437</v>
+        <v>0.005516376346349716</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04275747761130333</v>
+        <v>0.009041010402143002</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06974306702613831</v>
+        <v>0.004092314280569553</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08054832369089127</v>
+        <v>0.004785963799804449</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02407041564583778</v>
+        <v>0.01214139815419912</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1504569202661514</v>
+        <v>0.004760982003062963</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01170105952769518</v>
+        <v>0.004277616739273071</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01132314186543226</v>
+        <v>0.001392568228766322</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01376656070351601</v>
+        <v>0.02339841984212399</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01280141063034534</v>
+        <v>0.003282553981989622</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03522151336073875</v>
+        <v>0.005765826441347599</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06565085053443909</v>
+        <v>0.003268550615757704</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005909041501581669</v>
+        <v>0.001115143299102783</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02159923687577248</v>
+        <v>3.761082189157605e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001097113243304193</v>
+        <v>0.001077775610610843</v>
       </c>
       <c r="V18" t="n">
-        <v>0.002635951619595289</v>
+        <v>0.004732299596071243</v>
       </c>
       <c r="W18" t="n">
-        <v>0.003804486012086272</v>
+        <v>0.007069995161145926</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01001731678843498</v>
+        <v>0.003063063602894545</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.009421978145837784</v>
+        <v>0.003728544106706977</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.003654176834970713</v>
+        <v>0.001266673672944307</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.007292195688933134</v>
+        <v>0.001574722584336996</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01107066031545401</v>
+        <v>0.0006820806302130222</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01848146133124828</v>
+        <v>0.00299576111137867</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.005396264605224133</v>
+        <v>0.004288997035473585</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02253454923629761</v>
+        <v>0.004184584598988295</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.001364639960229397</v>
+        <v>0.005049087107181549</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.01082397159188986</v>
+        <v>0.002218367531895638</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.004455861635506153</v>
+        <v>0.003183268010616302</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.02180791087448597</v>
+        <v>0.0004765181802213192</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.02581937797367573</v>
+        <v>0.003232444869354367</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.01548256166279316</v>
+        <v>0.003145259572193027</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.02987805567681789</v>
+        <v>0.0009162595961242914</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0154492286965251</v>
+        <v>0.0008078385144472122</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.01876984536647797</v>
+        <v>0.0005781529471278191</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.007575131952762604</v>
+        <v>0.00232864054851234</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.008828295394778252</v>
+        <v>0.005036280024796724</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.00134020228870213</v>
+        <v>0.0006129165412858129</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.01167447213083506</v>
+        <v>0.002513471757993102</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.005284767597913742</v>
+        <v>0.001263864571228623</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.04089388996362686</v>
+        <v>0.002956627402454615</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.01902520284056664</v>
+        <v>0.01219525095075369</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.05852293595671654</v>
+        <v>0.0001581041142344475</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.003847697516903281</v>
+        <v>0.009956154972314835</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.005823804531246424</v>
+        <v>0.01375801209360361</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.01706965453922749</v>
+        <v>0.01696187816560268</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.02158599719405174</v>
+        <v>0.002535787178203464</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0243302546441555</v>
+        <v>0.002165734302252531</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.03024549968540668</v>
+        <v>0.001563799567520618</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.01060172915458679</v>
+        <v>0.001426097005605698</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.02037942409515381</v>
+        <v>0.004336823709309101</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.03973605111241341</v>
+        <v>0.006426420528441668</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.003978955559432507</v>
+        <v>0.002668066415935755</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.03566762432456017</v>
+        <v>0.0007530595175921917</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.01915268227458</v>
+        <v>0.005297146271914244</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.02040061354637146</v>
+        <v>0.003838140051811934</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.01803273893892765</v>
+        <v>0.001006116392090917</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.01408883556723595</v>
+        <v>0.001285186503082514</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.008558954112231731</v>
+        <v>0.001705764327198267</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.008503595367074013</v>
+        <v>0.006985215470194817</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.02244758605957031</v>
+        <v>0.0002416030038148165</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.005231986753642559</v>
+        <v>0.002895221579819918</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.03054879233241081</v>
+        <v>0.0001942283706739545</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.02638372033834457</v>
+        <v>0.001308345585130155</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.01534276641905308</v>
+        <v>0.0005051849875599146</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.02561475709080696</v>
+        <v>0.002171035390347242</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.006431877613067627</v>
+        <v>0.003928644116967916</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.03316748142242432</v>
+        <v>0.001433730125427246</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.002644115127623081</v>
+        <v>0.006048678886145353</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.02200919389724731</v>
+        <v>0.001850237604230642</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.001975316554307938</v>
+        <v>0.006353255826979876</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.02449820935726166</v>
+        <v>0.006359624210745096</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.01976868696510792</v>
+        <v>0.008787533268332481</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.005333990789949894</v>
+        <v>0.00346593651920557</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.01360249146819115</v>
+        <v>0.0002378404606133699</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.02564223483204842</v>
+        <v>0.0007467516115866601</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.01960156299173832</v>
+        <v>0.0002521783171687275</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.02301900833845139</v>
+        <v>0.002282569883391261</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.03315019607543945</v>
+        <v>0.001794513431377709</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.001510999980382621</v>
+        <v>6.835168460384011e-05</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.0003399751149117947</v>
+        <v>0.001185364089906216</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.003365434240549803</v>
+        <v>0.005927262362092733</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.002545181661844254</v>
+        <v>0.0003924272605217993</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.004973302595317364</v>
+        <v>0.002752620726823807</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.007886979728937149</v>
+        <v>0.0002150882501155138</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.0006126607768237591</v>
+        <v>0.00327482121065259</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.02140301465988159</v>
+        <v>0.001842703786678612</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.01153039652854204</v>
+        <v>0.0004825968353543431</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.01290490385144949</v>
+        <v>0.007068767212331295</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.04648064076900482</v>
+        <v>0.00765291741117835</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.02089645713567734</v>
+        <v>0.004196541383862495</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.004619648680090904</v>
+        <v>0.0007115944754332304</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0208158865571022</v>
+        <v>0.003677323926240206</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.001694786828011274</v>
+        <v>0.0008257445879280567</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.02074185945093632</v>
+        <v>0.00061989133246243</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.01984076574444771</v>
+        <v>0.001374547136947513</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.03125284612178802</v>
+        <v>0.001761809806339443</v>
       </c>
       <c r="CY18" t="n">
-        <v>0.001618419075384736</v>
+        <v>0.001224629348143935</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.01561731658875942</v>
+        <v>0.001123569905757904</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.004050810821354389</v>
+        <v>0.006034443620592356</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.001222186954692006</v>
+        <v>0.0001659856643527746</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.001436393475160003</v>
+        <v>0.00291672395542264</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.008572783321142197</v>
+        <v>0.001248153508640826</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.004760125186294317</v>
+        <v>0.001331204548478127</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.02541008591651917</v>
+        <v>0.005969062447547913</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.02449369244277477</v>
+        <v>0.0006720388773828745</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.0001528826542198658</v>
+        <v>0.01232828758656979</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.04938147962093353</v>
+        <v>0.0008859573281370103</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.01750747673213482</v>
+        <v>0.000681093311868608</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.02117621339857578</v>
+        <v>0.000109983142465353</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.01197924092411995</v>
+        <v>0.005802537314593792</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.002983526792377234</v>
+        <v>0.001053106971085072</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.00028430693782866</v>
+        <v>0.001524487277492881</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.03091692365705967</v>
+        <v>0.000367388129234314</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.01258164830505848</v>
+        <v>0.00262658903375268</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0.00312077347189188</v>
+        <v>0.0007251966744661331</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.01545894984155893</v>
+        <v>0.001660295529291034</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.026897257193923</v>
+        <v>0.0008255766588263214</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.009815139696002007</v>
+        <v>0.005557992495596409</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.008732151240110397</v>
+        <v>0.0002401021774858236</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.003039085539057851</v>
+        <v>0.00221957778558135</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.01393482275307178</v>
+        <v>0.001176341320388019</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.01157625205814838</v>
+        <v>0.0008124150335788727</v>
       </c>
       <c r="DY18" t="n">
-        <v>0.004485591314733028</v>
+        <v>0.00212203455157578</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.005311546381562948</v>
+        <v>0.001768902293406427</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.01184586808085442</v>
+        <v>0.001726428396068513</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.01085714530199766</v>
+        <v>0.002879752079024911</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.002694306429475546</v>
+        <v>0.002156270667910576</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.01313602831214666</v>
+        <v>0.005558657459914684</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0101455794647336</v>
+        <v>0.00102182780392468</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.02334140613675117</v>
+        <v>0.001225502346642315</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.009353631176054478</v>
+        <v>0.0008720722980797291</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.03656068444252014</v>
+        <v>0.001270994893275201</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.009296467527747154</v>
+        <v>0.0002237770822830498</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.001742806285619736</v>
+        <v>0.001697758678346872</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.01999624818563461</v>
+        <v>0.006208047270774841</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.003506750799715519</v>
+        <v>0.0002394774928689003</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.01644298993051052</v>
+        <v>0.001344852382317185</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.003613903652876616</v>
+        <v>0.0007835550932213664</v>
       </c>
       <c r="EO18" t="n">
-        <v>0.006150602828711271</v>
+        <v>0.001614760374650359</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.002004850888624787</v>
+        <v>0.0004826825461350381</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.005184642970561981</v>
+        <v>0.001275302609428763</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.007865333929657936</v>
+        <v>0.0008481177501380444</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.01400240696966648</v>
+        <v>0.002289162948727608</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.002591153141111135</v>
+        <v>0.001792618655599654</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.006453167647123337</v>
+        <v>0.001695735147222877</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.008776773698627949</v>
+        <v>0.005734649021178484</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.007368699181824923</v>
+        <v>0.003642867086455226</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.02041936293244362</v>
+        <v>0.0003665044787339866</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.01664905808866024</v>
+        <v>0.0005565616302192211</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.03150222077965736</v>
+        <v>0.000627604138571769</v>
       </c>
       <c r="FA18" t="n">
-        <v>0.001349577447399497</v>
+        <v>0.001076804124750197</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.01185744255781174</v>
+        <v>0.001267751445993781</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.001957215368747711</v>
+        <v>0.005184639245271683</v>
       </c>
       <c r="FD18" t="n">
-        <v>0.0005375992623157799</v>
+        <v>0.0003877496055793017</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.005812954157590866</v>
+        <v>0.002316050697118044</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.007523860316723585</v>
+        <v>0.0005810180446133018</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.01057985797524452</v>
+        <v>0.0008979382691904902</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.01626521535217762</v>
+        <v>0.002111537847667933</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0293850377202034</v>
+        <v>0.000657210941426456</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.03453756496310234</v>
+        <v>0.0007349541992880404</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.004636014811694622</v>
+        <v>0.002913238480687141</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.01394829526543617</v>
+        <v>0.002934521064162254</v>
       </c>
       <c r="FM18" t="n">
-        <v>1.731887459754944e-05</v>
+        <v>0.002188447862863541</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.007685738615691662</v>
+        <v>0.004390121903270483</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.002903708023950458</v>
+        <v>0.001505593885667622</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.01477644685655832</v>
+        <v>0.003530498826876283</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.04485233873128891</v>
+        <v>0.004228272940963507</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.01988869160413742</v>
+        <v>0.0007959630456753075</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.02636036649346352</v>
+        <v>0.002581775654107332</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.009921172633767128</v>
+        <v>0.002000525593757629</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.002675711177289486</v>
+        <v>0.002193887252360582</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.01634974405169487</v>
+        <v>0.001235633273608983</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.00923455785959959</v>
+        <v>0.005712625104933977</v>
       </c>
       <c r="FX18" t="n">
-        <v>0.01916106417775154</v>
+        <v>0.006055095698684454</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.002445760648697615</v>
+        <v>0.003042407101020217</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.003520186524838209</v>
+        <v>0.00248190457932651</v>
       </c>
       <c r="GA18" t="n">
-        <v>0.007055976428091526</v>
+        <v>0.002742919838055968</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.01724479719996452</v>
+        <v>0.0001728893257677555</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.02385871484875679</v>
+        <v>0.01036663446575403</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.007427945267409086</v>
+        <v>0.001607136800885201</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.006181833334267139</v>
+        <v>0.004987420979887247</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.008895566686987877</v>
+        <v>2.486753510311246e-05</v>
       </c>
       <c r="GG18" t="n">
-        <v>0.02115359529852867</v>
+        <v>0.0015468904748559</v>
       </c>
     </row>
     <row r="19">
